--- a/2-Requisitos/2.5-Planilha_de_Contagem/Cópia de 005 - Template - Planilha de Contagem em APF.xlsx
+++ b/2-Requisitos/2.5-Planilha_de_Contagem/Cópia de 005 - Template - Planilha de Contagem em APF.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sumário" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CF">Funções!$K$8:$K$119</definedName>
+    <definedName name="CF">Funções!$K$8:$K$120</definedName>
     <definedName name="Data">Contagem!$X$7</definedName>
     <definedName name="Projeto">Contagem!$F$6</definedName>
     <definedName name="Responsável">Contagem!$F$7</definedName>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -445,19 +445,6 @@
     <t>TESTE (TST)</t>
   </si>
   <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Source Sans Pro"/>
-      </rPr>
-      <t>erenciar Finanças</t>
-    </r>
-  </si>
-  <si>
     <t>Cadastrar contas a pagar</t>
   </si>
   <si>
@@ -488,13 +475,38 @@
     <t>Gerenciar contas a receber ALI</t>
   </si>
   <si>
-    <t>Filtro de contas</t>
-  </si>
-  <si>
     <t>Aluno ALI</t>
   </si>
   <si>
     <t>AIE Consultar cep</t>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Source Sans Pro"/>
+      </rPr>
+      <t>erenciar Contas a pagar</t>
+    </r>
+  </si>
+  <si>
+    <t>Gerenciar contas a receber</t>
+  </si>
+  <si>
+    <t>Filtros</t>
+  </si>
+  <si>
+    <t>Filtro por data</t>
+  </si>
+  <si>
+    <t>Filtros por nome parcial</t>
+  </si>
+  <si>
+    <t>Gerenciar usuários</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,20 +1269,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1280,38 +1290,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1319,9 +1353,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1333,9 +1364,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1344,18 +1372,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1384,11 +1400,425 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFDD0806"/>
@@ -1631,6 +2061,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1683,7 +2161,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1726,7 +2204,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1774,12 +2252,60 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 7"/>
+        <xdr:cNvPr id="5" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1961,6 +2487,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2279,7 +2853,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="86"/>
@@ -2391,45 +2965,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="99" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="82"/>
+      <c r="S4" s="96"/>
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="99" t="s">
+      <c r="U4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="82"/>
-      <c r="W4" s="102">
+      <c r="V4" s="96"/>
+      <c r="W4" s="103">
         <f>W5*T4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="82"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="96"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -2439,43 +3013,43 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="99" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="82"/>
-      <c r="W5" s="95">
+      <c r="V5" s="96"/>
+      <c r="W5" s="102">
         <f>SUM(Y11:Y14)</f>
-        <v>78</v>
-      </c>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="82"/>
+        <v>82</v>
+      </c>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="96"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -2485,38 +3059,38 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="82"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="96"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -2526,40 +3100,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="83" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="80"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="82"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="96"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -2569,38 +3143,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="83" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="80"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="82"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="96"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -2646,46 +3220,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="101" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="87"/>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="82"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="98" t="s">
+      <c r="O10" s="101" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="86"/>
-      <c r="Q10" s="99" t="s">
+      <c r="Q10" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="99" t="s">
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="99" t="s">
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="82"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="96"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -2697,44 +3271,44 @@
     <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="88"/>
       <c r="B11" s="90"/>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="82"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="88"/>
       <c r="P11" s="89"/>
-      <c r="Q11" s="83" t="s">
+      <c r="Q11" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="82"/>
-      <c r="S11" s="95">
+      <c r="R11" s="96"/>
+      <c r="S11" s="102">
         <f>Sumário!E55</f>
-        <v>78</v>
-      </c>
-      <c r="T11" s="82"/>
-      <c r="U11" s="84">
+        <v>82</v>
+      </c>
+      <c r="T11" s="96"/>
+      <c r="U11" s="107">
         <v>1</v>
       </c>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="95">
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="102">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
-        <v>78</v>
-      </c>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="82"/>
+        <v>82</v>
+      </c>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="96"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -2746,44 +3320,44 @@
     <row r="12" spans="1:35" ht="12" customHeight="1">
       <c r="A12" s="88"/>
       <c r="B12" s="90"/>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="82"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="88"/>
       <c r="P12" s="89"/>
-      <c r="Q12" s="83" t="s">
+      <c r="Q12" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="80"/>
-      <c r="S12" s="95">
+      <c r="R12" s="95"/>
+      <c r="S12" s="102">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="82"/>
-      <c r="U12" s="84">
+      <c r="T12" s="96"/>
+      <c r="U12" s="107">
         <v>1</v>
       </c>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="95">
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="82"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="96"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -2795,44 +3369,44 @@
     <row r="13" spans="1:35" ht="12" customHeight="1">
       <c r="A13" s="88"/>
       <c r="B13" s="90"/>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="82"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="88"/>
       <c r="P13" s="89"/>
-      <c r="Q13" s="83" t="s">
+      <c r="Q13" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="80"/>
-      <c r="S13" s="95">
+      <c r="R13" s="95"/>
+      <c r="S13" s="102">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="82"/>
-      <c r="U13" s="84">
+      <c r="T13" s="96"/>
+      <c r="U13" s="107">
         <v>1</v>
       </c>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="95">
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="82"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="96"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -2858,24 +3432,24 @@
       <c r="N14" s="4"/>
       <c r="O14" s="91"/>
       <c r="P14" s="92"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="95">
+      <c r="Q14" s="99"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="102">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="82"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="95">
+      <c r="T14" s="96"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="82"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="96"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -2935,7 +3509,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="97" t="s">
+      <c r="K16" s="106" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="92"/>
@@ -2964,7 +3538,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="85"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="86"/>
       <c r="C17" s="86"/>
       <c r="D17" s="86"/>
@@ -3825,7 +4399,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="97" t="s">
+      <c r="K40" s="106" t="s">
         <v>24</v>
       </c>
       <c r="L40" s="92"/>
@@ -3854,7 +4428,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="85"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
       <c r="D41" s="86"/>
@@ -4632,6 +5206,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A17:AB38"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="A41:AB60"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="F6:AB6"/>
     <mergeCell ref="A1:AB3"/>
     <mergeCell ref="F5:T5"/>
     <mergeCell ref="A4:E4"/>
@@ -4648,39 +5255,6 @@
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="Y13:AB13"/>
     <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A41:AB60"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="A17:AB38"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="F7:T7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -4693,11 +5267,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:F11"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -4720,7 +5294,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="115" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="89"/>
@@ -4744,7 +5318,7 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="123"/>
+      <c r="A2" s="116"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -4766,7 +5340,7 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="123"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -4788,76 +5362,76 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="116" t="str">
+      <c r="A4" s="127" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="117" t="str">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="114" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="82"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="96"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="112" t="str">
+      <c r="A5" s="119" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="117" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="114" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="82"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="96"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="112" t="str">
+      <c r="A6" s="119" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="117" t="str">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="114" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="115" t="str">
+      <c r="G6" s="96"/>
+      <c r="H6" s="126" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
@@ -4866,11 +5440,11 @@
       <c r="K6" s="92"/>
       <c r="L6" s="92"/>
       <c r="M6" s="93"/>
-      <c r="N6" s="113" t="str">
+      <c r="N6" s="124" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 78</v>
-      </c>
-      <c r="O6" s="114"/>
+        <v>PF  = 82</v>
+      </c>
+      <c r="O6" s="125"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -4878,14 +5452,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="82"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -4913,62 +5487,62 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="118" t="s">
+      <c r="P7" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="A8" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="71"/>
       <c r="H8" s="72"/>
       <c r="I8" s="71"/>
       <c r="J8" s="71"/>
       <c r="K8" s="71" t="str">
-        <f t="shared" ref="K8:K119" si="0">CONCATENATE(G8,L8)</f>
+        <f t="shared" ref="K8:K120" si="0">CONCATENATE(G8,L8)</f>
         <v/>
       </c>
       <c r="L8" s="73" t="str">
-        <f t="shared" ref="L8:L119" si="1">IF(OR(ISBLANK(I8),ISBLANK(J8)),IF(OR(G8="ALI",G8="AIE"),"L",IF(ISBLANK(G8),"","A")),IF(G8="EE",IF(J8&gt;=3,IF(I8&gt;=5,"H","A"),IF(J8&gt;=2,IF(I8&gt;=16,"H",IF(I8&lt;=4,"L","A")),IF(I8&lt;=15,"L","A"))),IF(OR(G8="SE",G8="CE"),IF(J8&gt;=4,IF(I8&gt;=6,"H","A"),IF(J8&gt;=2,IF(I8&gt;=20,"H",IF(I8&lt;=5,"L","A")),IF(I8&lt;=19,"L","A"))),IF(OR(G8="ALI",G8="AIE"),IF(J8&gt;=6,IF(I8&gt;=20,"H","A"),IF(J8&gt;=2,IF(I8&gt;=51,"H",IF(I8&lt;=19,"L","A")),IF(I8&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L8:L120" si="1">IF(OR(ISBLANK(I8),ISBLANK(J8)),IF(OR(G8="ALI",G8="AIE"),"L",IF(ISBLANK(G8),"","A")),IF(G8="EE",IF(J8&gt;=3,IF(I8&gt;=5,"H","A"),IF(J8&gt;=2,IF(I8&gt;=16,"H",IF(I8&lt;=4,"L","A")),IF(I8&lt;=15,"L","A"))),IF(OR(G8="SE",G8="CE"),IF(J8&gt;=4,IF(I8&gt;=6,"H","A"),IF(J8&gt;=2,IF(I8&gt;=20,"H",IF(I8&lt;=5,"L","A")),IF(I8&lt;=19,"L","A"))),IF(OR(G8="ALI",G8="AIE"),IF(J8&gt;=6,IF(I8&gt;=20,"H","A"),IF(J8&gt;=2,IF(I8&gt;=51,"H",IF(I8&lt;=19,"L","A")),IF(I8&lt;=50,"L","A")))))))</f>
         <v/>
       </c>
       <c r="M8" s="74" t="str">
-        <f t="shared" ref="M8:M119" si="2">IF(L8="L","Baixa",IF(L8="A","Média",IF(L8="","","Alta")))</f>
+        <f t="shared" ref="M8:M120" si="2">IF(L8="L","Baixa",IF(L8="A","Média",IF(L8="","","Alta")))</f>
         <v/>
       </c>
       <c r="N8" s="75" t="str">
-        <f t="shared" ref="N8:N119" si="3">IF(ISBLANK(G8),"",IF(G8="ALI",IF(L8="L",7,IF(L8="A",10,15)),IF(G8="AIE",IF(L8="L",5,IF(L8="A",7,10)),IF(G8="SE",IF(L8="L",4,IF(L8="A",5,7)),IF(OR(G8="EE",G8="CE"),IF(L8="L",3,IF(L8="A",4,6)))))))</f>
+        <f t="shared" ref="N8:N120" si="3">IF(ISBLANK(G8),"",IF(G8="ALI",IF(L8="L",7,IF(L8="A",10,15)),IF(G8="AIE",IF(L8="L",5,IF(L8="A",7,10)),IF(G8="SE",IF(L8="L",4,IF(L8="A",5,7)),IF(OR(G8="EE",G8="CE"),IF(L8="L",3,IF(L8="A",4,6)))))))</f>
         <v/>
       </c>
       <c r="O8" s="76" t="str">
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107"/>
+      <c r="A9" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
@@ -5001,21 +5575,21 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>15</v>
       </c>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
+      <c r="A10" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
@@ -5048,19 +5622,19 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="16"/>
       <c r="H11" s="23"/>
       <c r="I11" s="16"/>
@@ -5085,19 +5659,19 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="16"/>
       <c r="H12" s="23"/>
       <c r="I12" s="16"/>
@@ -5122,19 +5696,19 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="16"/>
       <c r="H13" s="23"/>
       <c r="I13" s="16"/>
@@ -5159,19 +5733,19 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="16"/>
       <c r="H14" s="23"/>
       <c r="I14" s="16"/>
@@ -5196,19 +5770,19 @@
         <f>IF(H14="I",N14*Contagem!$U$11,IF(H14="E",N14*Contagem!$U$13,IF(H14="A",N14*Contagem!$U$12,IF(H14="T",N14*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="16"/>
       <c r="H15" s="23"/>
       <c r="I15" s="16"/>
@@ -5233,11 +5807,11 @@
         <f>IF(H15="I",N15*Contagem!$U$11,IF(H15="E",N15*Contagem!$U$13,IF(H15="A",N15*Contagem!$U$12,IF(H15="T",N15*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
     </row>
     <row r="16" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="62"/>
@@ -5278,7 +5852,7 @@
     </row>
     <row r="17" spans="1:20" s="60" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="67" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B17" s="68"/>
       <c r="C17" s="69"/>
@@ -5301,14 +5875,14 @@
       <c r="T17" s="78"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="125"/>
+      <c r="A18" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="17" t="s">
         <v>35</v>
       </c>
@@ -5341,21 +5915,21 @@
         <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="107"/>
+      <c r="A19" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="17" t="s">
         <v>37</v>
       </c>
@@ -5388,21 +5962,21 @@
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107"/>
+      <c r="A20" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="17" t="s">
         <v>37</v>
       </c>
@@ -5435,21 +6009,21 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="107"/>
+      <c r="A21" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="17" t="s">
         <v>51</v>
       </c>
@@ -5482,21 +6056,21 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
+      <c r="A22" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="17" t="s">
         <v>38</v>
       </c>
@@ -5529,21 +6103,21 @@
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="107"/>
+      <c r="A23" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="17" t="s">
         <v>38</v>
       </c>
@@ -5576,115 +6150,92 @@
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-    </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="17" t="s">
+      <c r="P23" s="112"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+    </row>
+    <row r="24" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" customHeight="1">
+      <c r="A25" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I25" s="17">
         <v>11</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J25" s="17">
         <v>1</v>
       </c>
-      <c r="K24" s="17" t="str">
+      <c r="K25" s="17" t="str">
         <f t="shared" si="0"/>
         <v>ALIL</v>
       </c>
-      <c r="L24" s="18" t="str">
+      <c r="L25" s="18" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="M24" s="19" t="str">
+      <c r="M25" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Baixa</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N25" s="20">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O24" s="21">
-        <f>IF(H24="I",N24*Contagem!$U$11,IF(H24="E",N24*Contagem!$U$13,IF(H24="A",N24*Contagem!$U$12,IF(H24="T",N24*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-    </row>
-    <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="17">
-        <v>11</v>
-      </c>
-      <c r="J25" s="17">
-        <v>2</v>
-      </c>
-      <c r="K25" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>EEA</v>
-      </c>
-      <c r="L25" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>A</v>
-      </c>
-      <c r="M25" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Média</v>
-      </c>
-      <c r="N25" s="20">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
       <c r="O25" s="21">
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
+        <v>7</v>
+      </c>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="107"/>
+      <c r="A26" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="17" t="s">
         <v>37</v>
       </c>
@@ -5692,7 +6243,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J26" s="17">
         <v>2</v>
@@ -5717,36 +6268,36 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
-      <c r="A27" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="107"/>
+      <c r="A27" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J27" s="17">
         <v>2</v>
       </c>
       <c r="K27" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>SEA</v>
+        <v>EEA</v>
       </c>
       <c r="L27" s="18" t="str">
         <f t="shared" si="1"/>
@@ -5758,74 +6309,74 @@
       </c>
       <c r="N27" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O27" s="21">
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
+        <v>4</v>
+      </c>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="113"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
-      <c r="A28" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="107"/>
+      <c r="A28" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="111"/>
       <c r="G28" s="17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H28" s="23" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J28" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEL</v>
+        <v>SEA</v>
       </c>
       <c r="L28" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M28" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N28" s="20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O28" s="21">
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
+        <v>5</v>
+      </c>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="A29" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="107"/>
+      <c r="A29" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="17" t="s">
         <v>38</v>
       </c>
@@ -5833,46 +6384,46 @@
         <v>36</v>
       </c>
       <c r="I29" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J29" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>CEL</v>
       </c>
       <c r="L29" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M29" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N29" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29" s="21">
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
+        <v>3</v>
+      </c>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="107"/>
+      <c r="A30" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="17" t="s">
         <v>38</v>
       </c>
@@ -5880,10 +6431,10 @@
         <v>36</v>
       </c>
       <c r="I30" s="17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J30" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K30" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5905,167 +6456,191 @@
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L31" s="18" t="str">
+      <c r="A31" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L31" s="73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M31" s="19" t="str">
+      <c r="M31" s="74" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N31" s="20" t="str">
+      <c r="N31" s="75" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O31" s="21" t="str">
+      <c r="O31" s="76" t="str">
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="17">
+        <v>5</v>
+      </c>
+      <c r="J32" s="17">
+        <v>5</v>
+      </c>
       <c r="K32" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ref="K32" si="6">CONCATENATE(G32,L32)</f>
+        <v>CEA</v>
       </c>
       <c r="L32" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ref="L32" si="7">IF(OR(ISBLANK(I32),ISBLANK(J32)),IF(OR(G32="ALI",G32="AIE"),"L",IF(ISBLANK(G32),"","A")),IF(G32="EE",IF(J32&gt;=3,IF(I32&gt;=5,"H","A"),IF(J32&gt;=2,IF(I32&gt;=16,"H",IF(I32&lt;=4,"L","A")),IF(I32&lt;=15,"L","A"))),IF(OR(G32="SE",G32="CE"),IF(J32&gt;=4,IF(I32&gt;=6,"H","A"),IF(J32&gt;=2,IF(I32&gt;=20,"H",IF(I32&lt;=5,"L","A")),IF(I32&lt;=19,"L","A"))),IF(OR(G32="ALI",G32="AIE"),IF(J32&gt;=6,IF(I32&gt;=20,"H","A"),IF(J32&gt;=2,IF(I32&gt;=51,"H",IF(I32&lt;=19,"L","A")),IF(I32&lt;=50,"L","A")))))))</f>
+        <v>A</v>
       </c>
       <c r="M32" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N32" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O32" s="21" t="str">
+        <f t="shared" ref="M32" si="8">IF(L32="L","Baixa",IF(L32="A","Média",IF(L32="","","Alta")))</f>
+        <v>Média</v>
+      </c>
+      <c r="N32" s="20">
+        <f t="shared" ref="N32" si="9">IF(ISBLANK(G32),"",IF(G32="ALI",IF(L32="L",7,IF(L32="A",10,15)),IF(G32="AIE",IF(L32="L",5,IF(L32="A",7,10)),IF(G32="SE",IF(L32="L",4,IF(L32="A",5,7)),IF(OR(G32="EE",G32="CE"),IF(L32="L",3,IF(L32="A",4,6)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="O32" s="21">
         <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
+        <v>4</v>
+      </c>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="A33" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="17">
+        <v>3</v>
+      </c>
+      <c r="J33" s="17">
+        <v>5</v>
+      </c>
       <c r="K33" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>CEA</v>
       </c>
       <c r="L33" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M33" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N33" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N33" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O33" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O33" s="21">
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
+        <v>4</v>
+      </c>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L34" s="18" t="str">
+      <c r="A34" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L34" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M34" s="19" t="str">
+      <c r="M34" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N34" s="20" t="str">
+      <c r="N34" s="76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O34" s="21" t="str">
+      <c r="O34" s="83" t="str">
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="68"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="107"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="111"/>
       <c r="G35" s="17"/>
       <c r="H35" s="23"/>
       <c r="I35" s="17"/>
@@ -6090,19 +6665,19 @@
         <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="107"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="111"/>
       <c r="G36" s="17"/>
       <c r="H36" s="23"/>
       <c r="I36" s="17"/>
@@ -6127,19 +6702,19 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="107"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="17"/>
       <c r="H37" s="23"/>
       <c r="I37" s="17"/>
@@ -6164,19 +6739,19 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="104"/>
-      <c r="T37" s="104"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="113"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="107"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="17"/>
       <c r="H38" s="23"/>
       <c r="I38" s="17"/>
@@ -6201,19 +6776,19 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P38" s="103"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
-      <c r="T38" s="104"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="105"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="107"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="111"/>
       <c r="G39" s="17"/>
       <c r="H39" s="23"/>
       <c r="I39" s="17"/>
@@ -6238,19 +6813,19 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
-      <c r="T39" s="104"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="105"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="107"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="17"/>
       <c r="H40" s="23"/>
       <c r="I40" s="17"/>
@@ -6275,19 +6850,19 @@
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
-      <c r="T40" s="104"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="107"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="17"/>
       <c r="H41" s="23"/>
       <c r="I41" s="17"/>
@@ -6312,19 +6887,19 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="104"/>
-      <c r="S41" s="104"/>
-      <c r="T41" s="104"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="105"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="107"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
       <c r="G42" s="17"/>
       <c r="H42" s="23"/>
       <c r="I42" s="17"/>
@@ -6349,19 +6924,19 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="104"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
+      <c r="S42" s="113"/>
+      <c r="T42" s="113"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="107"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="111"/>
       <c r="G43" s="17"/>
       <c r="H43" s="23"/>
       <c r="I43" s="17"/>
@@ -6386,19 +6961,19 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
-      <c r="T43" s="104"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="113"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="105"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="107"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="17"/>
       <c r="H44" s="23"/>
       <c r="I44" s="17"/>
@@ -6423,19 +6998,19 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P44" s="103"/>
-      <c r="Q44" s="104"/>
-      <c r="R44" s="104"/>
-      <c r="S44" s="104"/>
-      <c r="T44" s="104"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="105"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="107"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="111"/>
       <c r="G45" s="17"/>
       <c r="H45" s="23"/>
       <c r="I45" s="17"/>
@@ -6460,19 +7035,19 @@
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
-      <c r="T45" s="104"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="105"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="107"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="111"/>
       <c r="G46" s="17"/>
       <c r="H46" s="23"/>
       <c r="I46" s="17"/>
@@ -6497,19 +7072,19 @@
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-      <c r="T46" s="104"/>
+      <c r="P46" s="112"/>
+      <c r="Q46" s="113"/>
+      <c r="R46" s="113"/>
+      <c r="S46" s="113"/>
+      <c r="T46" s="113"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="105"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="107"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="111"/>
       <c r="G47" s="17"/>
       <c r="H47" s="23"/>
       <c r="I47" s="17"/>
@@ -6534,19 +7109,19 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="104"/>
-      <c r="R47" s="104"/>
-      <c r="S47" s="104"/>
-      <c r="T47" s="104"/>
+      <c r="P47" s="112"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="113"/>
+      <c r="S47" s="113"/>
+      <c r="T47" s="113"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="105"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="107"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="111"/>
       <c r="G48" s="17"/>
       <c r="H48" s="23"/>
       <c r="I48" s="17"/>
@@ -6571,19 +7146,19 @@
         <f>IF(H48="I",N48*Contagem!$U$11,IF(H48="E",N48*Contagem!$U$13,IF(H48="A",N48*Contagem!$U$12,IF(H48="T",N48*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="104"/>
-      <c r="R48" s="104"/>
-      <c r="S48" s="104"/>
-      <c r="T48" s="104"/>
+      <c r="P48" s="112"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="113"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="105"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="107"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="111"/>
       <c r="G49" s="17"/>
       <c r="H49" s="23"/>
       <c r="I49" s="17"/>
@@ -6608,19 +7183,19 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="104"/>
-      <c r="R49" s="104"/>
-      <c r="S49" s="104"/>
-      <c r="T49" s="104"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="113"/>
+      <c r="S49" s="113"/>
+      <c r="T49" s="113"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="105"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="107"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
       <c r="G50" s="17"/>
       <c r="H50" s="23"/>
       <c r="I50" s="17"/>
@@ -6645,19 +7220,19 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="104"/>
-      <c r="R50" s="104"/>
-      <c r="S50" s="104"/>
-      <c r="T50" s="104"/>
+      <c r="P50" s="112"/>
+      <c r="Q50" s="113"/>
+      <c r="R50" s="113"/>
+      <c r="S50" s="113"/>
+      <c r="T50" s="113"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="105"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="107"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="111"/>
       <c r="G51" s="17"/>
       <c r="H51" s="23"/>
       <c r="I51" s="17"/>
@@ -6682,19 +7257,19 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="104"/>
-      <c r="R51" s="104"/>
-      <c r="S51" s="104"/>
-      <c r="T51" s="104"/>
+      <c r="P51" s="112"/>
+      <c r="Q51" s="113"/>
+      <c r="R51" s="113"/>
+      <c r="S51" s="113"/>
+      <c r="T51" s="113"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="105"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="107"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="111"/>
       <c r="G52" s="17"/>
       <c r="H52" s="23"/>
       <c r="I52" s="17"/>
@@ -6719,19 +7294,19 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P52" s="103"/>
-      <c r="Q52" s="104"/>
-      <c r="R52" s="104"/>
-      <c r="S52" s="104"/>
-      <c r="T52" s="104"/>
+      <c r="P52" s="112"/>
+      <c r="Q52" s="113"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="113"/>
+      <c r="T52" s="113"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
-      <c r="A53" s="105"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="107"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="111"/>
       <c r="G53" s="17"/>
       <c r="H53" s="23"/>
       <c r="I53" s="17"/>
@@ -6756,19 +7331,19 @@
         <f>IF(H53="I",N53*Contagem!$U$11,IF(H53="E",N53*Contagem!$U$13,IF(H53="A",N53*Contagem!$U$12,IF(H53="T",N53*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="104"/>
-      <c r="R53" s="104"/>
-      <c r="S53" s="104"/>
-      <c r="T53" s="104"/>
+      <c r="P53" s="112"/>
+      <c r="Q53" s="113"/>
+      <c r="R53" s="113"/>
+      <c r="S53" s="113"/>
+      <c r="T53" s="113"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="105"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="107"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="111"/>
       <c r="G54" s="17"/>
       <c r="H54" s="23"/>
       <c r="I54" s="17"/>
@@ -6793,19 +7368,19 @@
         <f>IF(H54="I",N54*Contagem!$U$11,IF(H54="E",N54*Contagem!$U$13,IF(H54="A",N54*Contagem!$U$12,IF(H54="T",N54*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P54" s="103"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="104"/>
-      <c r="S54" s="104"/>
-      <c r="T54" s="104"/>
+      <c r="P54" s="112"/>
+      <c r="Q54" s="113"/>
+      <c r="R54" s="113"/>
+      <c r="S54" s="113"/>
+      <c r="T54" s="113"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="105"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="107"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="111"/>
       <c r="G55" s="17"/>
       <c r="H55" s="23"/>
       <c r="I55" s="17"/>
@@ -6830,19 +7405,19 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="104"/>
-      <c r="S55" s="104"/>
-      <c r="T55" s="104"/>
+      <c r="P55" s="112"/>
+      <c r="Q55" s="113"/>
+      <c r="R55" s="113"/>
+      <c r="S55" s="113"/>
+      <c r="T55" s="113"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
-      <c r="A56" s="105"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="107"/>
+      <c r="A56" s="109"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="111"/>
       <c r="G56" s="17"/>
       <c r="H56" s="23"/>
       <c r="I56" s="17"/>
@@ -6867,19 +7442,19 @@
         <f>IF(H56="I",N56*Contagem!$U$11,IF(H56="E",N56*Contagem!$U$13,IF(H56="A",N56*Contagem!$U$12,IF(H56="T",N56*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P56" s="103"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="104"/>
-      <c r="T56" s="104"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="113"/>
+      <c r="R56" s="113"/>
+      <c r="S56" s="113"/>
+      <c r="T56" s="113"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="105"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="107"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="111"/>
       <c r="G57" s="17"/>
       <c r="H57" s="23"/>
       <c r="I57" s="17"/>
@@ -6904,19 +7479,19 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P57" s="103"/>
-      <c r="Q57" s="104"/>
-      <c r="R57" s="104"/>
-      <c r="S57" s="104"/>
-      <c r="T57" s="104"/>
+      <c r="P57" s="112"/>
+      <c r="Q57" s="113"/>
+      <c r="R57" s="113"/>
+      <c r="S57" s="113"/>
+      <c r="T57" s="113"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="105"/>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="107"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="111"/>
       <c r="G58" s="17"/>
       <c r="H58" s="23"/>
       <c r="I58" s="17"/>
@@ -6941,19 +7516,19 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P58" s="103"/>
-      <c r="Q58" s="104"/>
-      <c r="R58" s="104"/>
-      <c r="S58" s="104"/>
-      <c r="T58" s="104"/>
+      <c r="P58" s="112"/>
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113"/>
+      <c r="S58" s="113"/>
+      <c r="T58" s="113"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="105"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="107"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="111"/>
       <c r="G59" s="17"/>
       <c r="H59" s="23"/>
       <c r="I59" s="17"/>
@@ -6978,19 +7553,19 @@
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="104"/>
-      <c r="R59" s="104"/>
-      <c r="S59" s="104"/>
-      <c r="T59" s="104"/>
+      <c r="P59" s="112"/>
+      <c r="Q59" s="113"/>
+      <c r="R59" s="113"/>
+      <c r="S59" s="113"/>
+      <c r="T59" s="113"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="105"/>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="107"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="111"/>
       <c r="G60" s="17"/>
       <c r="H60" s="23"/>
       <c r="I60" s="17"/>
@@ -7015,19 +7590,19 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P60" s="103"/>
-      <c r="Q60" s="104"/>
-      <c r="R60" s="104"/>
-      <c r="S60" s="104"/>
-      <c r="T60" s="104"/>
+      <c r="P60" s="112"/>
+      <c r="Q60" s="113"/>
+      <c r="R60" s="113"/>
+      <c r="S60" s="113"/>
+      <c r="T60" s="113"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="105"/>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="107"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="111"/>
       <c r="G61" s="17"/>
       <c r="H61" s="23"/>
       <c r="I61" s="17"/>
@@ -7052,19 +7627,19 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P61" s="103"/>
-      <c r="Q61" s="104"/>
-      <c r="R61" s="104"/>
-      <c r="S61" s="104"/>
-      <c r="T61" s="104"/>
+      <c r="P61" s="112"/>
+      <c r="Q61" s="113"/>
+      <c r="R61" s="113"/>
+      <c r="S61" s="113"/>
+      <c r="T61" s="113"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="105"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="107"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="111"/>
       <c r="G62" s="17"/>
       <c r="H62" s="23"/>
       <c r="I62" s="17"/>
@@ -7089,19 +7664,19 @@
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="104"/>
-      <c r="R62" s="104"/>
-      <c r="S62" s="104"/>
-      <c r="T62" s="104"/>
+      <c r="P62" s="112"/>
+      <c r="Q62" s="113"/>
+      <c r="R62" s="113"/>
+      <c r="S62" s="113"/>
+      <c r="T62" s="113"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="105"/>
-      <c r="B63" s="106"/>
-      <c r="C63" s="106"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="107"/>
+      <c r="A63" s="109"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="111"/>
       <c r="G63" s="17"/>
       <c r="H63" s="23"/>
       <c r="I63" s="17"/>
@@ -7126,19 +7701,19 @@
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="104"/>
-      <c r="R63" s="104"/>
-      <c r="S63" s="104"/>
-      <c r="T63" s="104"/>
+      <c r="P63" s="112"/>
+      <c r="Q63" s="113"/>
+      <c r="R63" s="113"/>
+      <c r="S63" s="113"/>
+      <c r="T63" s="113"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="105"/>
-      <c r="B64" s="106"/>
-      <c r="C64" s="106"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="107"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="111"/>
       <c r="G64" s="17"/>
       <c r="H64" s="23"/>
       <c r="I64" s="17"/>
@@ -7163,19 +7738,19 @@
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P64" s="103"/>
-      <c r="Q64" s="104"/>
-      <c r="R64" s="104"/>
-      <c r="S64" s="104"/>
-      <c r="T64" s="104"/>
+      <c r="P64" s="112"/>
+      <c r="Q64" s="113"/>
+      <c r="R64" s="113"/>
+      <c r="S64" s="113"/>
+      <c r="T64" s="113"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="105"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="107"/>
+      <c r="A65" s="109"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="111"/>
       <c r="G65" s="17"/>
       <c r="H65" s="23"/>
       <c r="I65" s="17"/>
@@ -7200,19 +7775,19 @@
         <f>IF(H65="I",N65*Contagem!$U$11,IF(H65="E",N65*Contagem!$U$13,IF(H65="A",N65*Contagem!$U$12,IF(H65="T",N65*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="104"/>
-      <c r="R65" s="104"/>
-      <c r="S65" s="104"/>
-      <c r="T65" s="104"/>
+      <c r="P65" s="112"/>
+      <c r="Q65" s="113"/>
+      <c r="R65" s="113"/>
+      <c r="S65" s="113"/>
+      <c r="T65" s="113"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="105"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="107"/>
+      <c r="A66" s="109"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="111"/>
       <c r="G66" s="17"/>
       <c r="H66" s="23"/>
       <c r="I66" s="17"/>
@@ -7237,19 +7812,19 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P66" s="103"/>
-      <c r="Q66" s="104"/>
-      <c r="R66" s="104"/>
-      <c r="S66" s="104"/>
-      <c r="T66" s="104"/>
+      <c r="P66" s="112"/>
+      <c r="Q66" s="113"/>
+      <c r="R66" s="113"/>
+      <c r="S66" s="113"/>
+      <c r="T66" s="113"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="105"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="107"/>
+      <c r="A67" s="109"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="111"/>
       <c r="G67" s="17"/>
       <c r="H67" s="23"/>
       <c r="I67" s="17"/>
@@ -7274,19 +7849,19 @@
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="104"/>
-      <c r="R67" s="104"/>
-      <c r="S67" s="104"/>
-      <c r="T67" s="104"/>
+      <c r="P67" s="112"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="113"/>
+      <c r="S67" s="113"/>
+      <c r="T67" s="113"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="105"/>
-      <c r="B68" s="106"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="107"/>
+      <c r="A68" s="109"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="111"/>
       <c r="G68" s="17"/>
       <c r="H68" s="23"/>
       <c r="I68" s="17"/>
@@ -7311,19 +7886,19 @@
         <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P68" s="103"/>
-      <c r="Q68" s="104"/>
-      <c r="R68" s="104"/>
-      <c r="S68" s="104"/>
-      <c r="T68" s="104"/>
+      <c r="P68" s="112"/>
+      <c r="Q68" s="113"/>
+      <c r="R68" s="113"/>
+      <c r="S68" s="113"/>
+      <c r="T68" s="113"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="105"/>
-      <c r="B69" s="106"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="107"/>
+      <c r="A69" s="109"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="111"/>
       <c r="G69" s="17"/>
       <c r="H69" s="23"/>
       <c r="I69" s="17"/>
@@ -7348,19 +7923,19 @@
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="104"/>
-      <c r="R69" s="104"/>
-      <c r="S69" s="104"/>
-      <c r="T69" s="104"/>
+      <c r="P69" s="112"/>
+      <c r="Q69" s="113"/>
+      <c r="R69" s="113"/>
+      <c r="S69" s="113"/>
+      <c r="T69" s="113"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="105"/>
-      <c r="B70" s="106"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="107"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="111"/>
       <c r="G70" s="17"/>
       <c r="H70" s="23"/>
       <c r="I70" s="17"/>
@@ -7385,19 +7960,19 @@
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="104"/>
-      <c r="R70" s="104"/>
-      <c r="S70" s="104"/>
-      <c r="T70" s="104"/>
+      <c r="P70" s="112"/>
+      <c r="Q70" s="113"/>
+      <c r="R70" s="113"/>
+      <c r="S70" s="113"/>
+      <c r="T70" s="113"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="105"/>
-      <c r="B71" s="106"/>
-      <c r="C71" s="106"/>
-      <c r="D71" s="106"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="107"/>
+      <c r="A71" s="109"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="111"/>
       <c r="G71" s="17"/>
       <c r="H71" s="23"/>
       <c r="I71" s="17"/>
@@ -7422,19 +7997,19 @@
         <f>IF(H71="I",N71*Contagem!$U$11,IF(H71="E",N71*Contagem!$U$13,IF(H71="A",N71*Contagem!$U$12,IF(H71="T",N71*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P71" s="103"/>
-      <c r="Q71" s="104"/>
-      <c r="R71" s="104"/>
-      <c r="S71" s="104"/>
-      <c r="T71" s="104"/>
+      <c r="P71" s="112"/>
+      <c r="Q71" s="113"/>
+      <c r="R71" s="113"/>
+      <c r="S71" s="113"/>
+      <c r="T71" s="113"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="105"/>
-      <c r="B72" s="106"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="106"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="107"/>
+      <c r="A72" s="109"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="110"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="111"/>
       <c r="G72" s="17"/>
       <c r="H72" s="23"/>
       <c r="I72" s="17"/>
@@ -7459,19 +8034,19 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P72" s="103"/>
-      <c r="Q72" s="104"/>
-      <c r="R72" s="104"/>
-      <c r="S72" s="104"/>
-      <c r="T72" s="104"/>
+      <c r="P72" s="112"/>
+      <c r="Q72" s="113"/>
+      <c r="R72" s="113"/>
+      <c r="S72" s="113"/>
+      <c r="T72" s="113"/>
     </row>
     <row r="73" spans="1:20" ht="18" customHeight="1">
-      <c r="A73" s="105"/>
-      <c r="B73" s="106"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="106"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="107"/>
+      <c r="A73" s="109"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="111"/>
       <c r="G73" s="17"/>
       <c r="H73" s="23"/>
       <c r="I73" s="17"/>
@@ -7496,19 +8071,19 @@
         <f>IF(H73="I",N73*Contagem!$U$11,IF(H73="E",N73*Contagem!$U$13,IF(H73="A",N73*Contagem!$U$12,IF(H73="T",N73*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P73" s="103"/>
-      <c r="Q73" s="104"/>
-      <c r="R73" s="104"/>
-      <c r="S73" s="104"/>
-      <c r="T73" s="104"/>
+      <c r="P73" s="112"/>
+      <c r="Q73" s="113"/>
+      <c r="R73" s="113"/>
+      <c r="S73" s="113"/>
+      <c r="T73" s="113"/>
     </row>
     <row r="74" spans="1:20" ht="18" customHeight="1">
-      <c r="A74" s="105"/>
-      <c r="B74" s="106"/>
-      <c r="C74" s="106"/>
-      <c r="D74" s="106"/>
-      <c r="E74" s="106"/>
-      <c r="F74" s="107"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="111"/>
       <c r="G74" s="17"/>
       <c r="H74" s="23"/>
       <c r="I74" s="17"/>
@@ -7533,19 +8108,19 @@
         <f>IF(H74="I",N74*Contagem!$U$11,IF(H74="E",N74*Contagem!$U$13,IF(H74="A",N74*Contagem!$U$12,IF(H74="T",N74*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P74" s="103"/>
-      <c r="Q74" s="104"/>
-      <c r="R74" s="104"/>
-      <c r="S74" s="104"/>
-      <c r="T74" s="104"/>
+      <c r="P74" s="112"/>
+      <c r="Q74" s="113"/>
+      <c r="R74" s="113"/>
+      <c r="S74" s="113"/>
+      <c r="T74" s="113"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="105"/>
-      <c r="B75" s="106"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="107"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="111"/>
       <c r="G75" s="17"/>
       <c r="H75" s="23"/>
       <c r="I75" s="17"/>
@@ -7570,19 +8145,19 @@
         <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P75" s="103"/>
-      <c r="Q75" s="104"/>
-      <c r="R75" s="104"/>
-      <c r="S75" s="104"/>
-      <c r="T75" s="104"/>
+      <c r="P75" s="112"/>
+      <c r="Q75" s="113"/>
+      <c r="R75" s="113"/>
+      <c r="S75" s="113"/>
+      <c r="T75" s="113"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
-      <c r="A76" s="105"/>
-      <c r="B76" s="106"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="107"/>
+      <c r="A76" s="109"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="110"/>
+      <c r="F76" s="111"/>
       <c r="G76" s="17"/>
       <c r="H76" s="23"/>
       <c r="I76" s="17"/>
@@ -7607,19 +8182,19 @@
         <f>IF(H76="I",N76*Contagem!$U$11,IF(H76="E",N76*Contagem!$U$13,IF(H76="A",N76*Contagem!$U$12,IF(H76="T",N76*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P76" s="103"/>
-      <c r="Q76" s="104"/>
-      <c r="R76" s="104"/>
-      <c r="S76" s="104"/>
-      <c r="T76" s="104"/>
+      <c r="P76" s="112"/>
+      <c r="Q76" s="113"/>
+      <c r="R76" s="113"/>
+      <c r="S76" s="113"/>
+      <c r="T76" s="113"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="105"/>
-      <c r="B77" s="106"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="107"/>
+      <c r="A77" s="109"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="111"/>
       <c r="G77" s="17"/>
       <c r="H77" s="23"/>
       <c r="I77" s="17"/>
@@ -7644,19 +8219,19 @@
         <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P77" s="103"/>
-      <c r="Q77" s="104"/>
-      <c r="R77" s="104"/>
-      <c r="S77" s="104"/>
-      <c r="T77" s="104"/>
+      <c r="P77" s="112"/>
+      <c r="Q77" s="113"/>
+      <c r="R77" s="113"/>
+      <c r="S77" s="113"/>
+      <c r="T77" s="113"/>
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
-      <c r="A78" s="105"/>
-      <c r="B78" s="106"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="107"/>
+      <c r="A78" s="109"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="111"/>
       <c r="G78" s="17"/>
       <c r="H78" s="23"/>
       <c r="I78" s="17"/>
@@ -7681,19 +8256,19 @@
         <f>IF(H78="I",N78*Contagem!$U$11,IF(H78="E",N78*Contagem!$U$13,IF(H78="A",N78*Contagem!$U$12,IF(H78="T",N78*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P78" s="103"/>
-      <c r="Q78" s="104"/>
-      <c r="R78" s="104"/>
-      <c r="S78" s="104"/>
-      <c r="T78" s="104"/>
+      <c r="P78" s="112"/>
+      <c r="Q78" s="113"/>
+      <c r="R78" s="113"/>
+      <c r="S78" s="113"/>
+      <c r="T78" s="113"/>
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
-      <c r="A79" s="105"/>
-      <c r="B79" s="106"/>
-      <c r="C79" s="106"/>
-      <c r="D79" s="106"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="107"/>
+      <c r="A79" s="109"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="111"/>
       <c r="G79" s="17"/>
       <c r="H79" s="23"/>
       <c r="I79" s="17"/>
@@ -7718,19 +8293,19 @@
         <f>IF(H79="I",N79*Contagem!$U$11,IF(H79="E",N79*Contagem!$U$13,IF(H79="A",N79*Contagem!$U$12,IF(H79="T",N79*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P79" s="103"/>
-      <c r="Q79" s="104"/>
-      <c r="R79" s="104"/>
-      <c r="S79" s="104"/>
-      <c r="T79" s="104"/>
+      <c r="P79" s="112"/>
+      <c r="Q79" s="113"/>
+      <c r="R79" s="113"/>
+      <c r="S79" s="113"/>
+      <c r="T79" s="113"/>
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
-      <c r="A80" s="105"/>
-      <c r="B80" s="106"/>
-      <c r="C80" s="106"/>
-      <c r="D80" s="106"/>
-      <c r="E80" s="106"/>
-      <c r="F80" s="107"/>
+      <c r="A80" s="109"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="111"/>
       <c r="G80" s="17"/>
       <c r="H80" s="23"/>
       <c r="I80" s="17"/>
@@ -7755,19 +8330,19 @@
         <f>IF(H80="I",N80*Contagem!$U$11,IF(H80="E",N80*Contagem!$U$13,IF(H80="A",N80*Contagem!$U$12,IF(H80="T",N80*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P80" s="103"/>
-      <c r="Q80" s="104"/>
-      <c r="R80" s="104"/>
-      <c r="S80" s="104"/>
-      <c r="T80" s="104"/>
+      <c r="P80" s="112"/>
+      <c r="Q80" s="113"/>
+      <c r="R80" s="113"/>
+      <c r="S80" s="113"/>
+      <c r="T80" s="113"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
-      <c r="A81" s="105"/>
-      <c r="B81" s="106"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="106"/>
-      <c r="E81" s="106"/>
-      <c r="F81" s="107"/>
+      <c r="A81" s="109"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="110"/>
+      <c r="F81" s="111"/>
       <c r="G81" s="17"/>
       <c r="H81" s="23"/>
       <c r="I81" s="17"/>
@@ -7792,19 +8367,19 @@
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P81" s="103"/>
-      <c r="Q81" s="104"/>
-      <c r="R81" s="104"/>
-      <c r="S81" s="104"/>
-      <c r="T81" s="104"/>
+      <c r="P81" s="112"/>
+      <c r="Q81" s="113"/>
+      <c r="R81" s="113"/>
+      <c r="S81" s="113"/>
+      <c r="T81" s="113"/>
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
-      <c r="A82" s="105"/>
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
-      <c r="F82" s="107"/>
+      <c r="A82" s="109"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="111"/>
       <c r="G82" s="17"/>
       <c r="H82" s="23"/>
       <c r="I82" s="17"/>
@@ -7829,19 +8404,19 @@
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P82" s="103"/>
-      <c r="Q82" s="104"/>
-      <c r="R82" s="104"/>
-      <c r="S82" s="104"/>
-      <c r="T82" s="104"/>
+      <c r="P82" s="112"/>
+      <c r="Q82" s="113"/>
+      <c r="R82" s="113"/>
+      <c r="S82" s="113"/>
+      <c r="T82" s="113"/>
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
-      <c r="A83" s="105"/>
-      <c r="B83" s="106"/>
-      <c r="C83" s="106"/>
-      <c r="D83" s="106"/>
-      <c r="E83" s="106"/>
-      <c r="F83" s="107"/>
+      <c r="A83" s="109"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="110"/>
+      <c r="F83" s="111"/>
       <c r="G83" s="17"/>
       <c r="H83" s="23"/>
       <c r="I83" s="17"/>
@@ -7866,19 +8441,19 @@
         <f>IF(H83="I",N83*Contagem!$U$11,IF(H83="E",N83*Contagem!$U$13,IF(H83="A",N83*Contagem!$U$12,IF(H83="T",N83*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P83" s="103"/>
-      <c r="Q83" s="104"/>
-      <c r="R83" s="104"/>
-      <c r="S83" s="104"/>
-      <c r="T83" s="104"/>
+      <c r="P83" s="112"/>
+      <c r="Q83" s="113"/>
+      <c r="R83" s="113"/>
+      <c r="S83" s="113"/>
+      <c r="T83" s="113"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
-      <c r="A84" s="105"/>
-      <c r="B84" s="106"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="106"/>
-      <c r="E84" s="106"/>
-      <c r="F84" s="107"/>
+      <c r="A84" s="109"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="110"/>
+      <c r="E84" s="110"/>
+      <c r="F84" s="111"/>
       <c r="G84" s="17"/>
       <c r="H84" s="23"/>
       <c r="I84" s="17"/>
@@ -7903,19 +8478,19 @@
         <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P84" s="103"/>
-      <c r="Q84" s="104"/>
-      <c r="R84" s="104"/>
-      <c r="S84" s="104"/>
-      <c r="T84" s="104"/>
+      <c r="P84" s="112"/>
+      <c r="Q84" s="113"/>
+      <c r="R84" s="113"/>
+      <c r="S84" s="113"/>
+      <c r="T84" s="113"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
-      <c r="A85" s="105"/>
-      <c r="B85" s="106"/>
-      <c r="C85" s="106"/>
-      <c r="D85" s="106"/>
-      <c r="E85" s="106"/>
-      <c r="F85" s="107"/>
+      <c r="A85" s="109"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="110"/>
+      <c r="E85" s="110"/>
+      <c r="F85" s="111"/>
       <c r="G85" s="17"/>
       <c r="H85" s="23"/>
       <c r="I85" s="17"/>
@@ -7940,19 +8515,19 @@
         <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P85" s="103"/>
-      <c r="Q85" s="104"/>
-      <c r="R85" s="104"/>
-      <c r="S85" s="104"/>
-      <c r="T85" s="104"/>
+      <c r="P85" s="112"/>
+      <c r="Q85" s="113"/>
+      <c r="R85" s="113"/>
+      <c r="S85" s="113"/>
+      <c r="T85" s="113"/>
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
-      <c r="A86" s="105"/>
-      <c r="B86" s="106"/>
-      <c r="C86" s="106"/>
-      <c r="D86" s="106"/>
-      <c r="E86" s="106"/>
-      <c r="F86" s="107"/>
+      <c r="A86" s="109"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="110"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="111"/>
       <c r="G86" s="17"/>
       <c r="H86" s="23"/>
       <c r="I86" s="17"/>
@@ -7977,19 +8552,19 @@
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P86" s="103"/>
-      <c r="Q86" s="104"/>
-      <c r="R86" s="104"/>
-      <c r="S86" s="104"/>
-      <c r="T86" s="104"/>
+      <c r="P86" s="112"/>
+      <c r="Q86" s="113"/>
+      <c r="R86" s="113"/>
+      <c r="S86" s="113"/>
+      <c r="T86" s="113"/>
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
-      <c r="A87" s="105"/>
-      <c r="B87" s="106"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="106"/>
-      <c r="E87" s="106"/>
-      <c r="F87" s="107"/>
+      <c r="A87" s="109"/>
+      <c r="B87" s="110"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="111"/>
       <c r="G87" s="17"/>
       <c r="H87" s="23"/>
       <c r="I87" s="17"/>
@@ -8014,19 +8589,19 @@
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P87" s="103"/>
-      <c r="Q87" s="104"/>
-      <c r="R87" s="104"/>
-      <c r="S87" s="104"/>
-      <c r="T87" s="104"/>
+      <c r="P87" s="112"/>
+      <c r="Q87" s="113"/>
+      <c r="R87" s="113"/>
+      <c r="S87" s="113"/>
+      <c r="T87" s="113"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
-      <c r="A88" s="105"/>
-      <c r="B88" s="106"/>
-      <c r="C88" s="106"/>
-      <c r="D88" s="106"/>
-      <c r="E88" s="106"/>
-      <c r="F88" s="107"/>
+      <c r="A88" s="109"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="110"/>
+      <c r="D88" s="110"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="111"/>
       <c r="G88" s="17"/>
       <c r="H88" s="23"/>
       <c r="I88" s="17"/>
@@ -8051,19 +8626,19 @@
         <f>IF(H88="I",N88*Contagem!$U$11,IF(H88="E",N88*Contagem!$U$13,IF(H88="A",N88*Contagem!$U$12,IF(H88="T",N88*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P88" s="103"/>
-      <c r="Q88" s="104"/>
-      <c r="R88" s="104"/>
-      <c r="S88" s="104"/>
-      <c r="T88" s="104"/>
+      <c r="P88" s="112"/>
+      <c r="Q88" s="113"/>
+      <c r="R88" s="113"/>
+      <c r="S88" s="113"/>
+      <c r="T88" s="113"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
-      <c r="A89" s="105"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="106"/>
-      <c r="D89" s="106"/>
-      <c r="E89" s="106"/>
-      <c r="F89" s="107"/>
+      <c r="A89" s="109"/>
+      <c r="B89" s="110"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="111"/>
       <c r="G89" s="17"/>
       <c r="H89" s="23"/>
       <c r="I89" s="17"/>
@@ -8088,19 +8663,19 @@
         <f>IF(H89="I",N89*Contagem!$U$11,IF(H89="E",N89*Contagem!$U$13,IF(H89="A",N89*Contagem!$U$12,IF(H89="T",N89*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P89" s="103"/>
-      <c r="Q89" s="104"/>
-      <c r="R89" s="104"/>
-      <c r="S89" s="104"/>
-      <c r="T89" s="104"/>
+      <c r="P89" s="112"/>
+      <c r="Q89" s="113"/>
+      <c r="R89" s="113"/>
+      <c r="S89" s="113"/>
+      <c r="T89" s="113"/>
     </row>
     <row r="90" spans="1:20" ht="18" customHeight="1">
-      <c r="A90" s="105"/>
-      <c r="B90" s="106"/>
-      <c r="C90" s="106"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="106"/>
-      <c r="F90" s="107"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="110"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="111"/>
       <c r="G90" s="17"/>
       <c r="H90" s="23"/>
       <c r="I90" s="17"/>
@@ -8125,19 +8700,19 @@
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P90" s="103"/>
-      <c r="Q90" s="104"/>
-      <c r="R90" s="104"/>
-      <c r="S90" s="104"/>
-      <c r="T90" s="104"/>
+      <c r="P90" s="112"/>
+      <c r="Q90" s="113"/>
+      <c r="R90" s="113"/>
+      <c r="S90" s="113"/>
+      <c r="T90" s="113"/>
     </row>
     <row r="91" spans="1:20" ht="18" customHeight="1">
-      <c r="A91" s="105"/>
-      <c r="B91" s="106"/>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="107"/>
+      <c r="A91" s="109"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="111"/>
       <c r="G91" s="17"/>
       <c r="H91" s="23"/>
       <c r="I91" s="17"/>
@@ -8162,19 +8737,19 @@
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P91" s="103"/>
-      <c r="Q91" s="104"/>
-      <c r="R91" s="104"/>
-      <c r="S91" s="104"/>
-      <c r="T91" s="104"/>
+      <c r="P91" s="112"/>
+      <c r="Q91" s="113"/>
+      <c r="R91" s="113"/>
+      <c r="S91" s="113"/>
+      <c r="T91" s="113"/>
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
-      <c r="A92" s="105"/>
-      <c r="B92" s="106"/>
-      <c r="C92" s="106"/>
-      <c r="D92" s="106"/>
-      <c r="E92" s="106"/>
-      <c r="F92" s="107"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="110"/>
+      <c r="C92" s="110"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="111"/>
       <c r="G92" s="17"/>
       <c r="H92" s="23"/>
       <c r="I92" s="17"/>
@@ -8199,19 +8774,19 @@
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P92" s="103"/>
-      <c r="Q92" s="104"/>
-      <c r="R92" s="104"/>
-      <c r="S92" s="104"/>
-      <c r="T92" s="104"/>
+      <c r="P92" s="112"/>
+      <c r="Q92" s="113"/>
+      <c r="R92" s="113"/>
+      <c r="S92" s="113"/>
+      <c r="T92" s="113"/>
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
-      <c r="A93" s="105"/>
-      <c r="B93" s="106"/>
-      <c r="C93" s="106"/>
-      <c r="D93" s="106"/>
-      <c r="E93" s="106"/>
-      <c r="F93" s="107"/>
+      <c r="A93" s="109"/>
+      <c r="B93" s="110"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="110"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="111"/>
       <c r="G93" s="17"/>
       <c r="H93" s="23"/>
       <c r="I93" s="17"/>
@@ -8236,19 +8811,19 @@
         <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P93" s="103"/>
-      <c r="Q93" s="104"/>
-      <c r="R93" s="104"/>
-      <c r="S93" s="104"/>
-      <c r="T93" s="104"/>
+      <c r="P93" s="112"/>
+      <c r="Q93" s="113"/>
+      <c r="R93" s="113"/>
+      <c r="S93" s="113"/>
+      <c r="T93" s="113"/>
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
-      <c r="A94" s="105"/>
-      <c r="B94" s="106"/>
-      <c r="C94" s="106"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="107"/>
+      <c r="A94" s="109"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="110"/>
+      <c r="F94" s="111"/>
       <c r="G94" s="17"/>
       <c r="H94" s="23"/>
       <c r="I94" s="17"/>
@@ -8273,19 +8848,19 @@
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P94" s="103"/>
-      <c r="Q94" s="104"/>
-      <c r="R94" s="104"/>
-      <c r="S94" s="104"/>
-      <c r="T94" s="104"/>
+      <c r="P94" s="112"/>
+      <c r="Q94" s="113"/>
+      <c r="R94" s="113"/>
+      <c r="S94" s="113"/>
+      <c r="T94" s="113"/>
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
-      <c r="A95" s="105"/>
-      <c r="B95" s="106"/>
-      <c r="C95" s="106"/>
-      <c r="D95" s="106"/>
-      <c r="E95" s="106"/>
-      <c r="F95" s="107"/>
+      <c r="A95" s="109"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="110"/>
+      <c r="F95" s="111"/>
       <c r="G95" s="17"/>
       <c r="H95" s="23"/>
       <c r="I95" s="17"/>
@@ -8310,19 +8885,19 @@
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P95" s="103"/>
-      <c r="Q95" s="104"/>
-      <c r="R95" s="104"/>
-      <c r="S95" s="104"/>
-      <c r="T95" s="104"/>
+      <c r="P95" s="112"/>
+      <c r="Q95" s="113"/>
+      <c r="R95" s="113"/>
+      <c r="S95" s="113"/>
+      <c r="T95" s="113"/>
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
-      <c r="A96" s="105"/>
-      <c r="B96" s="106"/>
-      <c r="C96" s="106"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="106"/>
-      <c r="F96" s="107"/>
+      <c r="A96" s="109"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="110"/>
+      <c r="F96" s="111"/>
       <c r="G96" s="17"/>
       <c r="H96" s="23"/>
       <c r="I96" s="17"/>
@@ -8347,19 +8922,19 @@
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P96" s="103"/>
-      <c r="Q96" s="104"/>
-      <c r="R96" s="104"/>
-      <c r="S96" s="104"/>
-      <c r="T96" s="104"/>
+      <c r="P96" s="112"/>
+      <c r="Q96" s="113"/>
+      <c r="R96" s="113"/>
+      <c r="S96" s="113"/>
+      <c r="T96" s="113"/>
     </row>
     <row r="97" spans="1:20" ht="18" customHeight="1">
-      <c r="A97" s="105"/>
-      <c r="B97" s="106"/>
-      <c r="C97" s="106"/>
-      <c r="D97" s="106"/>
-      <c r="E97" s="106"/>
-      <c r="F97" s="107"/>
+      <c r="A97" s="109"/>
+      <c r="B97" s="110"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="111"/>
       <c r="G97" s="17"/>
       <c r="H97" s="23"/>
       <c r="I97" s="17"/>
@@ -8384,19 +8959,19 @@
         <f>IF(H97="I",N97*Contagem!$U$11,IF(H97="E",N97*Contagem!$U$13,IF(H97="A",N97*Contagem!$U$12,IF(H97="T",N97*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P97" s="103"/>
-      <c r="Q97" s="104"/>
-      <c r="R97" s="104"/>
-      <c r="S97" s="104"/>
-      <c r="T97" s="104"/>
+      <c r="P97" s="112"/>
+      <c r="Q97" s="113"/>
+      <c r="R97" s="113"/>
+      <c r="S97" s="113"/>
+      <c r="T97" s="113"/>
     </row>
     <row r="98" spans="1:20" ht="18" customHeight="1">
-      <c r="A98" s="105"/>
-      <c r="B98" s="106"/>
-      <c r="C98" s="106"/>
-      <c r="D98" s="106"/>
-      <c r="E98" s="106"/>
-      <c r="F98" s="107"/>
+      <c r="A98" s="109"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="111"/>
       <c r="G98" s="17"/>
       <c r="H98" s="23"/>
       <c r="I98" s="17"/>
@@ -8421,19 +8996,19 @@
         <f>IF(H98="I",N98*Contagem!$U$11,IF(H98="E",N98*Contagem!$U$13,IF(H98="A",N98*Contagem!$U$12,IF(H98="T",N98*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P98" s="103"/>
-      <c r="Q98" s="104"/>
-      <c r="R98" s="104"/>
-      <c r="S98" s="104"/>
-      <c r="T98" s="104"/>
+      <c r="P98" s="112"/>
+      <c r="Q98" s="113"/>
+      <c r="R98" s="113"/>
+      <c r="S98" s="113"/>
+      <c r="T98" s="113"/>
     </row>
     <row r="99" spans="1:20" ht="18" customHeight="1">
-      <c r="A99" s="105"/>
-      <c r="B99" s="106"/>
-      <c r="C99" s="106"/>
-      <c r="D99" s="106"/>
-      <c r="E99" s="106"/>
-      <c r="F99" s="107"/>
+      <c r="A99" s="109"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="111"/>
       <c r="G99" s="17"/>
       <c r="H99" s="23"/>
       <c r="I99" s="17"/>
@@ -8458,19 +9033,19 @@
         <f>IF(H99="I",N99*Contagem!$U$11,IF(H99="E",N99*Contagem!$U$13,IF(H99="A",N99*Contagem!$U$12,IF(H99="T",N99*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P99" s="103"/>
-      <c r="Q99" s="104"/>
-      <c r="R99" s="104"/>
-      <c r="S99" s="104"/>
-      <c r="T99" s="104"/>
+      <c r="P99" s="112"/>
+      <c r="Q99" s="113"/>
+      <c r="R99" s="113"/>
+      <c r="S99" s="113"/>
+      <c r="T99" s="113"/>
     </row>
     <row r="100" spans="1:20" ht="18" customHeight="1">
-      <c r="A100" s="105"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="106"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="107"/>
+      <c r="A100" s="109"/>
+      <c r="B100" s="110"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="110"/>
+      <c r="F100" s="111"/>
       <c r="G100" s="17"/>
       <c r="H100" s="23"/>
       <c r="I100" s="17"/>
@@ -8495,19 +9070,19 @@
         <f>IF(H100="I",N100*Contagem!$U$11,IF(H100="E",N100*Contagem!$U$13,IF(H100="A",N100*Contagem!$U$12,IF(H100="T",N100*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P100" s="103"/>
-      <c r="Q100" s="104"/>
-      <c r="R100" s="104"/>
-      <c r="S100" s="104"/>
-      <c r="T100" s="104"/>
+      <c r="P100" s="112"/>
+      <c r="Q100" s="113"/>
+      <c r="R100" s="113"/>
+      <c r="S100" s="113"/>
+      <c r="T100" s="113"/>
     </row>
     <row r="101" spans="1:20" ht="18" customHeight="1">
-      <c r="A101" s="105"/>
-      <c r="B101" s="106"/>
-      <c r="C101" s="106"/>
-      <c r="D101" s="106"/>
-      <c r="E101" s="106"/>
-      <c r="F101" s="107"/>
+      <c r="A101" s="109"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="110"/>
+      <c r="F101" s="111"/>
       <c r="G101" s="17"/>
       <c r="H101" s="23"/>
       <c r="I101" s="17"/>
@@ -8532,19 +9107,19 @@
         <f>IF(H101="I",N101*Contagem!$U$11,IF(H101="E",N101*Contagem!$U$13,IF(H101="A",N101*Contagem!$U$12,IF(H101="T",N101*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P101" s="103"/>
-      <c r="Q101" s="104"/>
-      <c r="R101" s="104"/>
-      <c r="S101" s="104"/>
-      <c r="T101" s="104"/>
+      <c r="P101" s="112"/>
+      <c r="Q101" s="113"/>
+      <c r="R101" s="113"/>
+      <c r="S101" s="113"/>
+      <c r="T101" s="113"/>
     </row>
     <row r="102" spans="1:20" ht="18" customHeight="1">
-      <c r="A102" s="105"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="106"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="107"/>
+      <c r="A102" s="109"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="110"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="110"/>
+      <c r="F102" s="111"/>
       <c r="G102" s="17"/>
       <c r="H102" s="23"/>
       <c r="I102" s="17"/>
@@ -8569,19 +9144,19 @@
         <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P102" s="103"/>
-      <c r="Q102" s="104"/>
-      <c r="R102" s="104"/>
-      <c r="S102" s="104"/>
-      <c r="T102" s="104"/>
+      <c r="P102" s="112"/>
+      <c r="Q102" s="113"/>
+      <c r="R102" s="113"/>
+      <c r="S102" s="113"/>
+      <c r="T102" s="113"/>
     </row>
     <row r="103" spans="1:20" ht="18" customHeight="1">
-      <c r="A103" s="105"/>
-      <c r="B103" s="106"/>
-      <c r="C103" s="106"/>
-      <c r="D103" s="106"/>
-      <c r="E103" s="106"/>
-      <c r="F103" s="107"/>
+      <c r="A103" s="109"/>
+      <c r="B103" s="110"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="110"/>
+      <c r="F103" s="111"/>
       <c r="G103" s="17"/>
       <c r="H103" s="23"/>
       <c r="I103" s="17"/>
@@ -8606,19 +9181,19 @@
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P103" s="103"/>
-      <c r="Q103" s="104"/>
-      <c r="R103" s="104"/>
-      <c r="S103" s="104"/>
-      <c r="T103" s="104"/>
+      <c r="P103" s="112"/>
+      <c r="Q103" s="113"/>
+      <c r="R103" s="113"/>
+      <c r="S103" s="113"/>
+      <c r="T103" s="113"/>
     </row>
     <row r="104" spans="1:20" ht="18" customHeight="1">
-      <c r="A104" s="105"/>
-      <c r="B104" s="106"/>
-      <c r="C104" s="106"/>
-      <c r="D104" s="106"/>
-      <c r="E104" s="106"/>
-      <c r="F104" s="107"/>
+      <c r="A104" s="109"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="110"/>
+      <c r="F104" s="111"/>
       <c r="G104" s="17"/>
       <c r="H104" s="23"/>
       <c r="I104" s="17"/>
@@ -8643,19 +9218,19 @@
         <f>IF(H104="I",N104*Contagem!$U$11,IF(H104="E",N104*Contagem!$U$13,IF(H104="A",N104*Contagem!$U$12,IF(H104="T",N104*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P104" s="103"/>
-      <c r="Q104" s="104"/>
-      <c r="R104" s="104"/>
-      <c r="S104" s="104"/>
-      <c r="T104" s="104"/>
+      <c r="P104" s="112"/>
+      <c r="Q104" s="113"/>
+      <c r="R104" s="113"/>
+      <c r="S104" s="113"/>
+      <c r="T104" s="113"/>
     </row>
     <row r="105" spans="1:20" ht="18" customHeight="1">
-      <c r="A105" s="105"/>
-      <c r="B105" s="106"/>
-      <c r="C105" s="106"/>
-      <c r="D105" s="106"/>
-      <c r="E105" s="106"/>
-      <c r="F105" s="107"/>
+      <c r="A105" s="109"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="110"/>
+      <c r="F105" s="111"/>
       <c r="G105" s="17"/>
       <c r="H105" s="23"/>
       <c r="I105" s="17"/>
@@ -8680,19 +9255,19 @@
         <f>IF(H105="I",N105*Contagem!$U$11,IF(H105="E",N105*Contagem!$U$13,IF(H105="A",N105*Contagem!$U$12,IF(H105="T",N105*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P105" s="103"/>
-      <c r="Q105" s="104"/>
-      <c r="R105" s="104"/>
-      <c r="S105" s="104"/>
-      <c r="T105" s="104"/>
+      <c r="P105" s="112"/>
+      <c r="Q105" s="113"/>
+      <c r="R105" s="113"/>
+      <c r="S105" s="113"/>
+      <c r="T105" s="113"/>
     </row>
     <row r="106" spans="1:20" ht="18" customHeight="1">
-      <c r="A106" s="105"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="106"/>
-      <c r="D106" s="106"/>
-      <c r="E106" s="106"/>
-      <c r="F106" s="107"/>
+      <c r="A106" s="109"/>
+      <c r="B106" s="110"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="110"/>
+      <c r="F106" s="111"/>
       <c r="G106" s="17"/>
       <c r="H106" s="23"/>
       <c r="I106" s="17"/>
@@ -8717,19 +9292,19 @@
         <f>IF(H106="I",N106*Contagem!$U$11,IF(H106="E",N106*Contagem!$U$13,IF(H106="A",N106*Contagem!$U$12,IF(H106="T",N106*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P106" s="103"/>
-      <c r="Q106" s="104"/>
-      <c r="R106" s="104"/>
-      <c r="S106" s="104"/>
-      <c r="T106" s="104"/>
+      <c r="P106" s="112"/>
+      <c r="Q106" s="113"/>
+      <c r="R106" s="113"/>
+      <c r="S106" s="113"/>
+      <c r="T106" s="113"/>
     </row>
     <row r="107" spans="1:20" ht="18" customHeight="1">
-      <c r="A107" s="105"/>
-      <c r="B107" s="106"/>
-      <c r="C107" s="106"/>
-      <c r="D107" s="106"/>
-      <c r="E107" s="106"/>
-      <c r="F107" s="107"/>
+      <c r="A107" s="109"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="111"/>
       <c r="G107" s="17"/>
       <c r="H107" s="23"/>
       <c r="I107" s="17"/>
@@ -8754,19 +9329,19 @@
         <f>IF(H107="I",N107*Contagem!$U$11,IF(H107="E",N107*Contagem!$U$13,IF(H107="A",N107*Contagem!$U$12,IF(H107="T",N107*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P107" s="103"/>
-      <c r="Q107" s="104"/>
-      <c r="R107" s="104"/>
-      <c r="S107" s="104"/>
-      <c r="T107" s="104"/>
+      <c r="P107" s="112"/>
+      <c r="Q107" s="113"/>
+      <c r="R107" s="113"/>
+      <c r="S107" s="113"/>
+      <c r="T107" s="113"/>
     </row>
     <row r="108" spans="1:20" ht="18" customHeight="1">
-      <c r="A108" s="105"/>
-      <c r="B108" s="106"/>
-      <c r="C108" s="106"/>
-      <c r="D108" s="106"/>
-      <c r="E108" s="106"/>
-      <c r="F108" s="107"/>
+      <c r="A108" s="109"/>
+      <c r="B108" s="110"/>
+      <c r="C108" s="110"/>
+      <c r="D108" s="110"/>
+      <c r="E108" s="110"/>
+      <c r="F108" s="111"/>
       <c r="G108" s="17"/>
       <c r="H108" s="23"/>
       <c r="I108" s="17"/>
@@ -8791,19 +9366,19 @@
         <f>IF(H108="I",N108*Contagem!$U$11,IF(H108="E",N108*Contagem!$U$13,IF(H108="A",N108*Contagem!$U$12,IF(H108="T",N108*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P108" s="103"/>
-      <c r="Q108" s="104"/>
-      <c r="R108" s="104"/>
-      <c r="S108" s="104"/>
-      <c r="T108" s="104"/>
+      <c r="P108" s="112"/>
+      <c r="Q108" s="113"/>
+      <c r="R108" s="113"/>
+      <c r="S108" s="113"/>
+      <c r="T108" s="113"/>
     </row>
     <row r="109" spans="1:20" ht="18" customHeight="1">
-      <c r="A109" s="105"/>
-      <c r="B109" s="106"/>
-      <c r="C109" s="106"/>
-      <c r="D109" s="106"/>
-      <c r="E109" s="106"/>
-      <c r="F109" s="107"/>
+      <c r="A109" s="109"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="110"/>
+      <c r="D109" s="110"/>
+      <c r="E109" s="110"/>
+      <c r="F109" s="111"/>
       <c r="G109" s="17"/>
       <c r="H109" s="23"/>
       <c r="I109" s="17"/>
@@ -8828,19 +9403,19 @@
         <f>IF(H109="I",N109*Contagem!$U$11,IF(H109="E",N109*Contagem!$U$13,IF(H109="A",N109*Contagem!$U$12,IF(H109="T",N109*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P109" s="103"/>
-      <c r="Q109" s="104"/>
-      <c r="R109" s="104"/>
-      <c r="S109" s="104"/>
-      <c r="T109" s="104"/>
+      <c r="P109" s="112"/>
+      <c r="Q109" s="113"/>
+      <c r="R109" s="113"/>
+      <c r="S109" s="113"/>
+      <c r="T109" s="113"/>
     </row>
     <row r="110" spans="1:20" ht="18" customHeight="1">
-      <c r="A110" s="105"/>
-      <c r="B110" s="106"/>
-      <c r="C110" s="106"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="107"/>
+      <c r="A110" s="109"/>
+      <c r="B110" s="110"/>
+      <c r="C110" s="110"/>
+      <c r="D110" s="110"/>
+      <c r="E110" s="110"/>
+      <c r="F110" s="111"/>
       <c r="G110" s="17"/>
       <c r="H110" s="23"/>
       <c r="I110" s="17"/>
@@ -8865,19 +9440,19 @@
         <f>IF(H110="I",N110*Contagem!$U$11,IF(H110="E",N110*Contagem!$U$13,IF(H110="A",N110*Contagem!$U$12,IF(H110="T",N110*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P110" s="103"/>
-      <c r="Q110" s="104"/>
-      <c r="R110" s="104"/>
-      <c r="S110" s="104"/>
-      <c r="T110" s="104"/>
+      <c r="P110" s="112"/>
+      <c r="Q110" s="113"/>
+      <c r="R110" s="113"/>
+      <c r="S110" s="113"/>
+      <c r="T110" s="113"/>
     </row>
     <row r="111" spans="1:20" ht="18" customHeight="1">
-      <c r="A111" s="105"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="106"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="107"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="110"/>
+      <c r="D111" s="110"/>
+      <c r="E111" s="110"/>
+      <c r="F111" s="111"/>
       <c r="G111" s="17"/>
       <c r="H111" s="23"/>
       <c r="I111" s="17"/>
@@ -8902,19 +9477,19 @@
         <f>IF(H111="I",N111*Contagem!$U$11,IF(H111="E",N111*Contagem!$U$13,IF(H111="A",N111*Contagem!$U$12,IF(H111="T",N111*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P111" s="103"/>
-      <c r="Q111" s="104"/>
-      <c r="R111" s="104"/>
-      <c r="S111" s="104"/>
-      <c r="T111" s="104"/>
+      <c r="P111" s="112"/>
+      <c r="Q111" s="113"/>
+      <c r="R111" s="113"/>
+      <c r="S111" s="113"/>
+      <c r="T111" s="113"/>
     </row>
     <row r="112" spans="1:20" ht="18" customHeight="1">
-      <c r="A112" s="105"/>
-      <c r="B112" s="106"/>
-      <c r="C112" s="106"/>
-      <c r="D112" s="106"/>
-      <c r="E112" s="106"/>
-      <c r="F112" s="107"/>
+      <c r="A112" s="109"/>
+      <c r="B112" s="110"/>
+      <c r="C112" s="110"/>
+      <c r="D112" s="110"/>
+      <c r="E112" s="110"/>
+      <c r="F112" s="111"/>
       <c r="G112" s="17"/>
       <c r="H112" s="23"/>
       <c r="I112" s="17"/>
@@ -8939,19 +9514,19 @@
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P112" s="103"/>
-      <c r="Q112" s="104"/>
-      <c r="R112" s="104"/>
-      <c r="S112" s="104"/>
-      <c r="T112" s="104"/>
+      <c r="P112" s="112"/>
+      <c r="Q112" s="113"/>
+      <c r="R112" s="113"/>
+      <c r="S112" s="113"/>
+      <c r="T112" s="113"/>
     </row>
     <row r="113" spans="1:20" ht="18" customHeight="1">
-      <c r="A113" s="105"/>
-      <c r="B113" s="106"/>
-      <c r="C113" s="106"/>
-      <c r="D113" s="106"/>
-      <c r="E113" s="106"/>
-      <c r="F113" s="107"/>
+      <c r="A113" s="109"/>
+      <c r="B113" s="110"/>
+      <c r="C113" s="110"/>
+      <c r="D113" s="110"/>
+      <c r="E113" s="110"/>
+      <c r="F113" s="111"/>
       <c r="G113" s="17"/>
       <c r="H113" s="23"/>
       <c r="I113" s="17"/>
@@ -8976,19 +9551,19 @@
         <f>IF(H113="I",N113*Contagem!$U$11,IF(H113="E",N113*Contagem!$U$13,IF(H113="A",N113*Contagem!$U$12,IF(H113="T",N113*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P113" s="103"/>
-      <c r="Q113" s="104"/>
-      <c r="R113" s="104"/>
-      <c r="S113" s="104"/>
-      <c r="T113" s="104"/>
+      <c r="P113" s="112"/>
+      <c r="Q113" s="113"/>
+      <c r="R113" s="113"/>
+      <c r="S113" s="113"/>
+      <c r="T113" s="113"/>
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
-      <c r="A114" s="105"/>
-      <c r="B114" s="106"/>
-      <c r="C114" s="106"/>
-      <c r="D114" s="106"/>
-      <c r="E114" s="106"/>
-      <c r="F114" s="107"/>
+      <c r="A114" s="109"/>
+      <c r="B114" s="110"/>
+      <c r="C114" s="110"/>
+      <c r="D114" s="110"/>
+      <c r="E114" s="110"/>
+      <c r="F114" s="111"/>
       <c r="G114" s="17"/>
       <c r="H114" s="23"/>
       <c r="I114" s="17"/>
@@ -9013,19 +9588,19 @@
         <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P114" s="103"/>
-      <c r="Q114" s="104"/>
-      <c r="R114" s="104"/>
-      <c r="S114" s="104"/>
-      <c r="T114" s="104"/>
+      <c r="P114" s="112"/>
+      <c r="Q114" s="113"/>
+      <c r="R114" s="113"/>
+      <c r="S114" s="113"/>
+      <c r="T114" s="113"/>
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
-      <c r="A115" s="105"/>
-      <c r="B115" s="106"/>
-      <c r="C115" s="106"/>
-      <c r="D115" s="106"/>
-      <c r="E115" s="106"/>
-      <c r="F115" s="107"/>
+      <c r="A115" s="109"/>
+      <c r="B115" s="110"/>
+      <c r="C115" s="110"/>
+      <c r="D115" s="110"/>
+      <c r="E115" s="110"/>
+      <c r="F115" s="111"/>
       <c r="G115" s="17"/>
       <c r="H115" s="23"/>
       <c r="I115" s="17"/>
@@ -9050,19 +9625,19 @@
         <f>IF(H115="I",N115*Contagem!$U$11,IF(H115="E",N115*Contagem!$U$13,IF(H115="A",N115*Contagem!$U$12,IF(H115="T",N115*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P115" s="103"/>
-      <c r="Q115" s="104"/>
-      <c r="R115" s="104"/>
-      <c r="S115" s="104"/>
-      <c r="T115" s="104"/>
+      <c r="P115" s="112"/>
+      <c r="Q115" s="113"/>
+      <c r="R115" s="113"/>
+      <c r="S115" s="113"/>
+      <c r="T115" s="113"/>
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
-      <c r="A116" s="105"/>
-      <c r="B116" s="106"/>
-      <c r="C116" s="106"/>
-      <c r="D116" s="106"/>
-      <c r="E116" s="106"/>
-      <c r="F116" s="107"/>
+      <c r="A116" s="109"/>
+      <c r="B116" s="110"/>
+      <c r="C116" s="110"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="110"/>
+      <c r="F116" s="111"/>
       <c r="G116" s="17"/>
       <c r="H116" s="23"/>
       <c r="I116" s="17"/>
@@ -9087,19 +9662,19 @@
         <f>IF(H116="I",N116*Contagem!$U$11,IF(H116="E",N116*Contagem!$U$13,IF(H116="A",N116*Contagem!$U$12,IF(H116="T",N116*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P116" s="103"/>
-      <c r="Q116" s="104"/>
-      <c r="R116" s="104"/>
-      <c r="S116" s="104"/>
-      <c r="T116" s="104"/>
+      <c r="P116" s="112"/>
+      <c r="Q116" s="113"/>
+      <c r="R116" s="113"/>
+      <c r="S116" s="113"/>
+      <c r="T116" s="113"/>
     </row>
     <row r="117" spans="1:20" ht="18" customHeight="1">
-      <c r="A117" s="105"/>
-      <c r="B117" s="106"/>
-      <c r="C117" s="106"/>
-      <c r="D117" s="106"/>
-      <c r="E117" s="106"/>
-      <c r="F117" s="107"/>
+      <c r="A117" s="109"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="110"/>
+      <c r="D117" s="110"/>
+      <c r="E117" s="110"/>
+      <c r="F117" s="111"/>
       <c r="G117" s="17"/>
       <c r="H117" s="23"/>
       <c r="I117" s="17"/>
@@ -9124,19 +9699,19 @@
         <f>IF(H117="I",N117*Contagem!$U$11,IF(H117="E",N117*Contagem!$U$13,IF(H117="A",N117*Contagem!$U$12,IF(H117="T",N117*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P117" s="103"/>
-      <c r="Q117" s="104"/>
-      <c r="R117" s="104"/>
-      <c r="S117" s="104"/>
-      <c r="T117" s="104"/>
+      <c r="P117" s="112"/>
+      <c r="Q117" s="113"/>
+      <c r="R117" s="113"/>
+      <c r="S117" s="113"/>
+      <c r="T117" s="113"/>
     </row>
     <row r="118" spans="1:20" ht="18" customHeight="1">
-      <c r="A118" s="105"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="106"/>
-      <c r="D118" s="106"/>
-      <c r="E118" s="106"/>
-      <c r="F118" s="107"/>
+      <c r="A118" s="109"/>
+      <c r="B118" s="110"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="110"/>
+      <c r="E118" s="110"/>
+      <c r="F118" s="111"/>
       <c r="G118" s="17"/>
       <c r="H118" s="23"/>
       <c r="I118" s="17"/>
@@ -9161,19 +9736,19 @@
         <f>IF(H118="I",N118*Contagem!$U$11,IF(H118="E",N118*Contagem!$U$13,IF(H118="A",N118*Contagem!$U$12,IF(H118="T",N118*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P118" s="103"/>
-      <c r="Q118" s="104"/>
-      <c r="R118" s="104"/>
-      <c r="S118" s="104"/>
-      <c r="T118" s="104"/>
+      <c r="P118" s="112"/>
+      <c r="Q118" s="113"/>
+      <c r="R118" s="113"/>
+      <c r="S118" s="113"/>
+      <c r="T118" s="113"/>
     </row>
     <row r="119" spans="1:20" ht="18" customHeight="1">
-      <c r="A119" s="24"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="25"/>
+      <c r="A119" s="109"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="110"/>
+      <c r="D119" s="110"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="111"/>
       <c r="G119" s="17"/>
       <c r="H119" s="23"/>
       <c r="I119" s="17"/>
@@ -9198,84 +9773,185 @@
         <f>IF(H119="I",N119*Contagem!$U$11,IF(H119="E",N119*Contagem!$U$13,IF(H119="A",N119*Contagem!$U$12,IF(H119="T",N119*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P119" s="103"/>
-      <c r="Q119" s="104"/>
-      <c r="R119" s="104"/>
-      <c r="S119" s="104"/>
-      <c r="T119" s="104"/>
+      <c r="P119" s="112"/>
+      <c r="Q119" s="113"/>
+      <c r="R119" s="113"/>
+      <c r="S119" s="113"/>
+      <c r="T119" s="113"/>
+    </row>
+    <row r="120" spans="1:20" ht="18" customHeight="1">
+      <c r="A120" s="24"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L120" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M120" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N120" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O120" s="21" t="str">
+        <f>IF(H120="I",N120*Contagem!$U$11,IF(H120="E",N120*Contagem!$U$13,IF(H120="A",N120*Contagem!$U$12,IF(H120="T",N120*Contagem!$U$14,""))))</f>
+        <v/>
+      </c>
+      <c r="P120" s="112"/>
+      <c r="Q120" s="113"/>
+      <c r="R120" s="113"/>
+      <c r="S120" s="113"/>
+      <c r="T120" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="230">
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="P95:T95"/>
+  <mergeCells count="226">
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="P76:T76"/>
     <mergeCell ref="P77:T77"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="P118:T118"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="P99:T99"/>
     <mergeCell ref="P100:T100"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="P108:T108"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P53:T53"/>
     <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="P23:T23"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A1:O3"/>
@@ -9300,155 +9976,132 @@
     <mergeCell ref="P22:T22"/>
     <mergeCell ref="P21:T21"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="P104:T104"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="P118:T118"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="P113:T113"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="P104:T104"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="P109:T109"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:H119">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="H8:H23 H25:H30 H32:H33 H35:H120">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H119">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="H8:H23 H25:H30 H32:H33 H35:H120">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H119">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="H8:H23 H25:H30 H32:H33 H35:H120">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9484,23 +10137,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="123"/>
+      <c r="A2" s="116"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -9511,10 +10164,10 @@
       <c r="I2" s="89"/>
       <c r="J2" s="89"/>
       <c r="K2" s="89"/>
-      <c r="L2" s="135"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="136"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="92"/>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
@@ -9525,47 +10178,47 @@
       <c r="I3" s="92"/>
       <c r="J3" s="92"/>
       <c r="K3" s="92"/>
-      <c r="L3" s="137"/>
+      <c r="L3" s="141"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="127" t="str">
+      <c r="A4" s="146" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="130" t="str">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="134" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="131"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="127" t="str">
+      <c r="A5" s="146" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="130" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="134" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="131"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="26" t="str">
@@ -9576,47 +10229,47 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="129" t="str">
+      <c r="F6" s="133" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="129" t="str">
+      <c r="G6" s="96"/>
+      <c r="H6" s="133" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="140" t="str">
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="144" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 78</v>
-      </c>
-      <c r="L6" s="131"/>
+        <v>PF  = 82</v>
+      </c>
+      <c r="L6" s="135"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="145" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="86"/>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="142" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
-      <c r="G7" s="128" t="s">
+      <c r="G7" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128" t="s">
+      <c r="H7" s="132"/>
+      <c r="I7" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="139"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="143"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="136"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="92"/>
       <c r="C8" s="92"/>
       <c r="D8" s="92"/>
@@ -9625,9 +10278,9 @@
       <c r="G8" s="92"/>
       <c r="H8" s="92"/>
       <c r="I8" s="92"/>
-      <c r="J8" s="137"/>
+      <c r="J8" s="141"/>
       <c r="K8" s="92"/>
-      <c r="L8" s="137"/>
+      <c r="L8" s="141"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="29"/>
@@ -9752,7 +10405,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="40">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.20512820512820512</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -9895,7 +10548,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="43">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>0.12820512820512819</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -9960,7 +10613,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="33">
         <f>COUNTIF(CF,"CEA")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="34" t="s">
@@ -9971,7 +10624,7 @@
       </c>
       <c r="G25" s="35">
         <f>C25*4</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -10024,7 +10677,7 @@
       </c>
       <c r="C28" s="35">
         <f>SUM(C24:C26)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -10033,12 +10686,12 @@
       </c>
       <c r="G28" s="35">
         <f>SUM(G24:G26)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="44">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.23076923076923078</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -10181,7 +10834,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="45">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.37179487179487181</v>
+        <v>0.35365853658536583</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -10324,7 +10977,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="46">
         <f>IF($G$45&lt;&gt;0,G42/$G$45,"")</f>
-        <v>6.4102564102564097E-2</v>
+        <v>6.097560975609756E-2</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -10369,7 +11022,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="35">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -10388,7 +11041,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="35">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -10523,14 +11176,14 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="126" t="s">
+      <c r="B55" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="82"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="96"/>
       <c r="E55" s="48">
-        <f>SUMIF(Funções!$H$8:$H$119,"I",Funções!$N$8:$N$119)</f>
-        <v>78</v>
+        <f>SUMIF(Funções!$H$8:$H$120,"I",Funções!$N$8:$N$120)</f>
+        <v>82</v>
       </c>
       <c r="F55" s="48">
         <f>Contagem!U11</f>
@@ -10538,7 +11191,7 @@
       </c>
       <c r="G55" s="48">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
@@ -10550,13 +11203,13 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="82"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="96"/>
       <c r="E56" s="48">
-        <f>SUMIF(Funções!$H$8:$H$119,"A",Funções!$N$8:$N$119)</f>
+        <f>SUMIF(Funções!$H$8:$H$120,"A",Funções!$N$8:$N$120)</f>
         <v>0</v>
       </c>
       <c r="F56" s="48">
@@ -10572,19 +11225,19 @@
       <c r="J56" s="49"/>
       <c r="K56" s="51">
         <f>Contagem!W5</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="126" t="s">
+      <c r="B57" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="82"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="96"/>
       <c r="E57" s="48">
-        <f>SUMIF(Funções!$H$8:$H$119,"E",Funções!$N$8:$N$119)</f>
+        <f>SUMIF(Funções!$H$8:$H$120,"E",Funções!$N$8:$N$120)</f>
         <v>0</v>
       </c>
       <c r="F57" s="48">
@@ -10603,13 +11256,13 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="82"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="48">
-        <f>SUMIF(Funções!$H$8:$H$119,"T",Funções!$N$8:$N$119)</f>
+        <f>SUMIF(Funções!$H$8:$H$120,"T",Funções!$N$8:$N$120)</f>
         <v>0</v>
       </c>
       <c r="F58" s="48">
@@ -10642,6 +11295,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F4:L4"/>
@@ -10655,11 +11313,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/2-Requisitos/2.5-Planilha_de_Contagem/Cópia de 005 - Template - Planilha de Contagem em APF.xlsx
+++ b/2-Requisitos/2.5-Planilha_de_Contagem/Cópia de 005 - Template - Planilha de Contagem em APF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Workspaces\Praticas Profissionais\SISCEI\2-Requisitos\2.5-Planilha_de_Contagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andressa\Desktop\Felipe\development\SISCEI\SISCEI-root\2-Requisitos\2.5-Planilha_de_Contagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>Gerenciar Fornecedor ALI</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -1384,20 +1387,8 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1407,55 +1398,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,12 +1466,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1511,113 +1508,17 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FFDD0806"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDD0806"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006411"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006411"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FFDD0806"/>
@@ -2160,6 +2061,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2405,6 +2354,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2714,13 +2711,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2758,7 +2803,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2830,7 +2875,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3000,36 +3045,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="103"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="97"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -3038,34 +3083,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="106"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="100"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -3075,34 +3120,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="109"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="103"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -3112,45 +3157,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="115" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="98"/>
+      <c r="S4" s="106"/>
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="118">
+      <c r="V4" s="106"/>
+      <c r="W4" s="113">
         <f>W5*T4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="98"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="106"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -3160,43 +3205,43 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="112" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="115" t="s">
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="98"/>
-      <c r="W5" s="111">
+      <c r="V5" s="106"/>
+      <c r="W5" s="112">
         <f>SUM(Y11:Y14)</f>
         <v>133</v>
       </c>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="98"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="106"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -3206,38 +3251,38 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="112" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="98"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="106"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -3247,40 +3292,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="112" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="99" t="s">
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="96"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="98"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="106"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -3290,38 +3335,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="99" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="96"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="96"/>
-      <c r="AB8" s="98"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="106"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -3367,46 +3412,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="98"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="106"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="114" t="s">
+      <c r="O10" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="115" t="s">
+      <c r="P10" s="96"/>
+      <c r="Q10" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="115" t="s">
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="115" t="s">
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="98"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="106"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -3416,46 +3461,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="97" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="98"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="106"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="99" t="s">
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="98"/>
-      <c r="S11" s="111">
+      <c r="R11" s="106"/>
+      <c r="S11" s="112">
         <f>Sumário!E55</f>
         <v>133</v>
       </c>
-      <c r="T11" s="98"/>
-      <c r="U11" s="100">
+      <c r="T11" s="106"/>
+      <c r="U11" s="117">
         <v>1</v>
       </c>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="111">
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="112">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
         <v>133</v>
       </c>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="98"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="106"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -3465,46 +3510,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="97" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="98"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="99" t="s">
+      <c r="O12" s="98"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="96"/>
-      <c r="S12" s="111">
+      <c r="R12" s="105"/>
+      <c r="S12" s="112">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="98"/>
-      <c r="U12" s="100">
+      <c r="T12" s="106"/>
+      <c r="U12" s="117">
         <v>1</v>
       </c>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="111">
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="98"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="106"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -3514,46 +3559,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="97" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="98"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="99" t="s">
+      <c r="O13" s="98"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="96"/>
-      <c r="S13" s="111">
+      <c r="R13" s="105"/>
+      <c r="S13" s="112">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="98"/>
-      <c r="U13" s="100">
+      <c r="T13" s="106"/>
+      <c r="U13" s="117">
         <v>1</v>
       </c>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="111">
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="98"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="106"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -3563,8 +3608,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="107"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3577,26 +3622,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="111">
+      <c r="O14" s="101"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="112">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="98"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="111">
+      <c r="T14" s="106"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="98"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="106"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -3656,17 +3701,17 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="113" t="s">
+      <c r="K16" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -3685,34 +3730,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="103"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="97"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -3722,34 +3767,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="105"/>
-      <c r="AB18" s="106"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="100"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -3759,34 +3804,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="105"/>
-      <c r="AB19" s="106"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="100"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -3796,34 +3841,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="105"/>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="105"/>
-      <c r="AB20" s="106"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="100"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -3833,34 +3878,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="104"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="105"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="105"/>
-      <c r="AB21" s="106"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="100"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -3870,34 +3915,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="104"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="105"/>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="105"/>
-      <c r="AA22" s="105"/>
-      <c r="AB22" s="106"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="100"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -3907,34 +3952,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="105"/>
-      <c r="X23" s="105"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="106"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="100"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -3944,34 +3989,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="106"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="100"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -3981,34 +4026,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="105"/>
-      <c r="Z25" s="105"/>
-      <c r="AA25" s="105"/>
-      <c r="AB25" s="106"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="100"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -4018,34 +4063,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="104"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="105"/>
-      <c r="AA26" s="105"/>
-      <c r="AB26" s="106"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="100"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -4055,34 +4100,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="106"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="100"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -4092,34 +4137,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="105"/>
-      <c r="AB28" s="106"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="100"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -4129,34 +4174,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="105"/>
-      <c r="AB29" s="106"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="100"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -4166,34 +4211,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="105"/>
-      <c r="T30" s="105"/>
-      <c r="U30" s="105"/>
-      <c r="V30" s="105"/>
-      <c r="W30" s="105"/>
-      <c r="X30" s="105"/>
-      <c r="Y30" s="105"/>
-      <c r="Z30" s="105"/>
-      <c r="AA30" s="105"/>
-      <c r="AB30" s="106"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="100"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -4203,34 +4248,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
-      <c r="S31" s="105"/>
-      <c r="T31" s="105"/>
-      <c r="U31" s="105"/>
-      <c r="V31" s="105"/>
-      <c r="W31" s="105"/>
-      <c r="X31" s="105"/>
-      <c r="Y31" s="105"/>
-      <c r="Z31" s="105"/>
-      <c r="AA31" s="105"/>
-      <c r="AB31" s="106"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="99"/>
+      <c r="Y31" s="99"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="100"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -4240,34 +4285,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="105"/>
-      <c r="W32" s="105"/>
-      <c r="X32" s="105"/>
-      <c r="Y32" s="105"/>
-      <c r="Z32" s="105"/>
-      <c r="AA32" s="105"/>
-      <c r="AB32" s="106"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="100"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -4277,34 +4322,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="105"/>
-      <c r="T33" s="105"/>
-      <c r="U33" s="105"/>
-      <c r="V33" s="105"/>
-      <c r="W33" s="105"/>
-      <c r="X33" s="105"/>
-      <c r="Y33" s="105"/>
-      <c r="Z33" s="105"/>
-      <c r="AA33" s="105"/>
-      <c r="AB33" s="106"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="100"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -4314,34 +4359,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="105"/>
-      <c r="X34" s="105"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="105"/>
-      <c r="AB34" s="106"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="100"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -4351,34 +4396,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="104"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
-      <c r="U35" s="105"/>
-      <c r="V35" s="105"/>
-      <c r="W35" s="105"/>
-      <c r="X35" s="105"/>
-      <c r="Y35" s="105"/>
-      <c r="Z35" s="105"/>
-      <c r="AA35" s="105"/>
-      <c r="AB35" s="106"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="100"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -4388,34 +4433,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="105"/>
-      <c r="U36" s="105"/>
-      <c r="V36" s="105"/>
-      <c r="W36" s="105"/>
-      <c r="X36" s="105"/>
-      <c r="Y36" s="105"/>
-      <c r="Z36" s="105"/>
-      <c r="AA36" s="105"/>
-      <c r="AB36" s="106"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="99"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="100"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -4425,34 +4470,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="104"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="105"/>
-      <c r="W37" s="105"/>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="105"/>
-      <c r="Z37" s="105"/>
-      <c r="AA37" s="105"/>
-      <c r="AB37" s="106"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="99"/>
+      <c r="X37" s="99"/>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="99"/>
+      <c r="AA37" s="99"/>
+      <c r="AB37" s="100"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -4462,34 +4507,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
-      <c r="U38" s="108"/>
-      <c r="V38" s="108"/>
-      <c r="W38" s="108"/>
-      <c r="X38" s="108"/>
-      <c r="Y38" s="108"/>
-      <c r="Z38" s="108"/>
-      <c r="AA38" s="108"/>
-      <c r="AB38" s="109"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="102"/>
+      <c r="U38" s="102"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="102"/>
+      <c r="X38" s="102"/>
+      <c r="Y38" s="102"/>
+      <c r="Z38" s="102"/>
+      <c r="AA38" s="102"/>
+      <c r="AB38" s="103"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -4546,17 +4591,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="113" t="s">
+      <c r="K40" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="102"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -4575,34 +4620,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="101"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="102"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="102"/>
-      <c r="N41" s="102"/>
-      <c r="O41" s="102"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="102"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="102"/>
-      <c r="U41" s="102"/>
-      <c r="V41" s="102"/>
-      <c r="W41" s="102"/>
-      <c r="X41" s="102"/>
-      <c r="Y41" s="102"/>
-      <c r="Z41" s="102"/>
-      <c r="AA41" s="102"/>
-      <c r="AB41" s="103"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
+      <c r="V41" s="96"/>
+      <c r="W41" s="96"/>
+      <c r="X41" s="96"/>
+      <c r="Y41" s="96"/>
+      <c r="Z41" s="96"/>
+      <c r="AA41" s="96"/>
+      <c r="AB41" s="97"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -4612,34 +4657,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="104"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="105"/>
-      <c r="S42" s="105"/>
-      <c r="T42" s="105"/>
-      <c r="U42" s="105"/>
-      <c r="V42" s="105"/>
-      <c r="W42" s="105"/>
-      <c r="X42" s="105"/>
-      <c r="Y42" s="105"/>
-      <c r="Z42" s="105"/>
-      <c r="AA42" s="105"/>
-      <c r="AB42" s="106"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="99"/>
+      <c r="V42" s="99"/>
+      <c r="W42" s="99"/>
+      <c r="X42" s="99"/>
+      <c r="Y42" s="99"/>
+      <c r="Z42" s="99"/>
+      <c r="AA42" s="99"/>
+      <c r="AB42" s="100"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -4649,34 +4694,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="104"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="105"/>
-      <c r="T43" s="105"/>
-      <c r="U43" s="105"/>
-      <c r="V43" s="105"/>
-      <c r="W43" s="105"/>
-      <c r="X43" s="105"/>
-      <c r="Y43" s="105"/>
-      <c r="Z43" s="105"/>
-      <c r="AA43" s="105"/>
-      <c r="AB43" s="106"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="99"/>
+      <c r="V43" s="99"/>
+      <c r="W43" s="99"/>
+      <c r="X43" s="99"/>
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="99"/>
+      <c r="AA43" s="99"/>
+      <c r="AB43" s="100"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -4686,34 +4731,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="104"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="105"/>
-      <c r="R44" s="105"/>
-      <c r="S44" s="105"/>
-      <c r="T44" s="105"/>
-      <c r="U44" s="105"/>
-      <c r="V44" s="105"/>
-      <c r="W44" s="105"/>
-      <c r="X44" s="105"/>
-      <c r="Y44" s="105"/>
-      <c r="Z44" s="105"/>
-      <c r="AA44" s="105"/>
-      <c r="AB44" s="106"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="99"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="99"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="99"/>
+      <c r="AA44" s="99"/>
+      <c r="AB44" s="100"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -4723,34 +4768,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="104"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="105"/>
-      <c r="S45" s="105"/>
-      <c r="T45" s="105"/>
-      <c r="U45" s="105"/>
-      <c r="V45" s="105"/>
-      <c r="W45" s="105"/>
-      <c r="X45" s="105"/>
-      <c r="Y45" s="105"/>
-      <c r="Z45" s="105"/>
-      <c r="AA45" s="105"/>
-      <c r="AB45" s="106"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="99"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="99"/>
+      <c r="AB45" s="100"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -4760,34 +4805,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="104"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
-      <c r="O46" s="105"/>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="105"/>
-      <c r="R46" s="105"/>
-      <c r="S46" s="105"/>
-      <c r="T46" s="105"/>
-      <c r="U46" s="105"/>
-      <c r="V46" s="105"/>
-      <c r="W46" s="105"/>
-      <c r="X46" s="105"/>
-      <c r="Y46" s="105"/>
-      <c r="Z46" s="105"/>
-      <c r="AA46" s="105"/>
-      <c r="AB46" s="106"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="99"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="99"/>
+      <c r="W46" s="99"/>
+      <c r="X46" s="99"/>
+      <c r="Y46" s="99"/>
+      <c r="Z46" s="99"/>
+      <c r="AA46" s="99"/>
+      <c r="AB46" s="100"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -4797,34 +4842,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="104"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="105"/>
-      <c r="S47" s="105"/>
-      <c r="T47" s="105"/>
-      <c r="U47" s="105"/>
-      <c r="V47" s="105"/>
-      <c r="W47" s="105"/>
-      <c r="X47" s="105"/>
-      <c r="Y47" s="105"/>
-      <c r="Z47" s="105"/>
-      <c r="AA47" s="105"/>
-      <c r="AB47" s="106"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="99"/>
+      <c r="V47" s="99"/>
+      <c r="W47" s="99"/>
+      <c r="X47" s="99"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="99"/>
+      <c r="AA47" s="99"/>
+      <c r="AB47" s="100"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -4834,34 +4879,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="105"/>
-      <c r="W48" s="105"/>
-      <c r="X48" s="105"/>
-      <c r="Y48" s="105"/>
-      <c r="Z48" s="105"/>
-      <c r="AA48" s="105"/>
-      <c r="AB48" s="106"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="99"/>
+      <c r="X48" s="99"/>
+      <c r="Y48" s="99"/>
+      <c r="Z48" s="99"/>
+      <c r="AA48" s="99"/>
+      <c r="AB48" s="100"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -4871,34 +4916,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="104"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="105"/>
-      <c r="S49" s="105"/>
-      <c r="T49" s="105"/>
-      <c r="U49" s="105"/>
-      <c r="V49" s="105"/>
-      <c r="W49" s="105"/>
-      <c r="X49" s="105"/>
-      <c r="Y49" s="105"/>
-      <c r="Z49" s="105"/>
-      <c r="AA49" s="105"/>
-      <c r="AB49" s="106"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="99"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="99"/>
+      <c r="U49" s="99"/>
+      <c r="V49" s="99"/>
+      <c r="W49" s="99"/>
+      <c r="X49" s="99"/>
+      <c r="Y49" s="99"/>
+      <c r="Z49" s="99"/>
+      <c r="AA49" s="99"/>
+      <c r="AB49" s="100"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -4908,34 +4953,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="104"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="105"/>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="105"/>
-      <c r="R50" s="105"/>
-      <c r="S50" s="105"/>
-      <c r="T50" s="105"/>
-      <c r="U50" s="105"/>
-      <c r="V50" s="105"/>
-      <c r="W50" s="105"/>
-      <c r="X50" s="105"/>
-      <c r="Y50" s="105"/>
-      <c r="Z50" s="105"/>
-      <c r="AA50" s="105"/>
-      <c r="AB50" s="106"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="99"/>
+      <c r="T50" s="99"/>
+      <c r="U50" s="99"/>
+      <c r="V50" s="99"/>
+      <c r="W50" s="99"/>
+      <c r="X50" s="99"/>
+      <c r="Y50" s="99"/>
+      <c r="Z50" s="99"/>
+      <c r="AA50" s="99"/>
+      <c r="AB50" s="100"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -4945,34 +4990,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="104"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105"/>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105"/>
-      <c r="Q51" s="105"/>
-      <c r="R51" s="105"/>
-      <c r="S51" s="105"/>
-      <c r="T51" s="105"/>
-      <c r="U51" s="105"/>
-      <c r="V51" s="105"/>
-      <c r="W51" s="105"/>
-      <c r="X51" s="105"/>
-      <c r="Y51" s="105"/>
-      <c r="Z51" s="105"/>
-      <c r="AA51" s="105"/>
-      <c r="AB51" s="106"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="99"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="99"/>
+      <c r="T51" s="99"/>
+      <c r="U51" s="99"/>
+      <c r="V51" s="99"/>
+      <c r="W51" s="99"/>
+      <c r="X51" s="99"/>
+      <c r="Y51" s="99"/>
+      <c r="Z51" s="99"/>
+      <c r="AA51" s="99"/>
+      <c r="AB51" s="100"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -4982,34 +5027,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="104"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
-      <c r="R52" s="105"/>
-      <c r="S52" s="105"/>
-      <c r="T52" s="105"/>
-      <c r="U52" s="105"/>
-      <c r="V52" s="105"/>
-      <c r="W52" s="105"/>
-      <c r="X52" s="105"/>
-      <c r="Y52" s="105"/>
-      <c r="Z52" s="105"/>
-      <c r="AA52" s="105"/>
-      <c r="AB52" s="106"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="99"/>
+      <c r="P52" s="99"/>
+      <c r="Q52" s="99"/>
+      <c r="R52" s="99"/>
+      <c r="S52" s="99"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="99"/>
+      <c r="W52" s="99"/>
+      <c r="X52" s="99"/>
+      <c r="Y52" s="99"/>
+      <c r="Z52" s="99"/>
+      <c r="AA52" s="99"/>
+      <c r="AB52" s="100"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -5019,34 +5064,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="104"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="105"/>
-      <c r="R53" s="105"/>
-      <c r="S53" s="105"/>
-      <c r="T53" s="105"/>
-      <c r="U53" s="105"/>
-      <c r="V53" s="105"/>
-      <c r="W53" s="105"/>
-      <c r="X53" s="105"/>
-      <c r="Y53" s="105"/>
-      <c r="Z53" s="105"/>
-      <c r="AA53" s="105"/>
-      <c r="AB53" s="106"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="99"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="99"/>
+      <c r="V53" s="99"/>
+      <c r="W53" s="99"/>
+      <c r="X53" s="99"/>
+      <c r="Y53" s="99"/>
+      <c r="Z53" s="99"/>
+      <c r="AA53" s="99"/>
+      <c r="AB53" s="100"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -5056,34 +5101,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="104"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="105"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="105"/>
-      <c r="S54" s="105"/>
-      <c r="T54" s="105"/>
-      <c r="U54" s="105"/>
-      <c r="V54" s="105"/>
-      <c r="W54" s="105"/>
-      <c r="X54" s="105"/>
-      <c r="Y54" s="105"/>
-      <c r="Z54" s="105"/>
-      <c r="AA54" s="105"/>
-      <c r="AB54" s="106"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="99"/>
+      <c r="P54" s="99"/>
+      <c r="Q54" s="99"/>
+      <c r="R54" s="99"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="99"/>
+      <c r="W54" s="99"/>
+      <c r="X54" s="99"/>
+      <c r="Y54" s="99"/>
+      <c r="Z54" s="99"/>
+      <c r="AA54" s="99"/>
+      <c r="AB54" s="100"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -5093,34 +5138,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="104"/>
-      <c r="B55" s="105"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="105"/>
-      <c r="N55" s="105"/>
-      <c r="O55" s="105"/>
-      <c r="P55" s="105"/>
-      <c r="Q55" s="105"/>
-      <c r="R55" s="105"/>
-      <c r="S55" s="105"/>
-      <c r="T55" s="105"/>
-      <c r="U55" s="105"/>
-      <c r="V55" s="105"/>
-      <c r="W55" s="105"/>
-      <c r="X55" s="105"/>
-      <c r="Y55" s="105"/>
-      <c r="Z55" s="105"/>
-      <c r="AA55" s="105"/>
-      <c r="AB55" s="106"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="99"/>
+      <c r="R55" s="99"/>
+      <c r="S55" s="99"/>
+      <c r="T55" s="99"/>
+      <c r="U55" s="99"/>
+      <c r="V55" s="99"/>
+      <c r="W55" s="99"/>
+      <c r="X55" s="99"/>
+      <c r="Y55" s="99"/>
+      <c r="Z55" s="99"/>
+      <c r="AA55" s="99"/>
+      <c r="AB55" s="100"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -5130,34 +5175,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="104"/>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="105"/>
-      <c r="O56" s="105"/>
-      <c r="P56" s="105"/>
-      <c r="Q56" s="105"/>
-      <c r="R56" s="105"/>
-      <c r="S56" s="105"/>
-      <c r="T56" s="105"/>
-      <c r="U56" s="105"/>
-      <c r="V56" s="105"/>
-      <c r="W56" s="105"/>
-      <c r="X56" s="105"/>
-      <c r="Y56" s="105"/>
-      <c r="Z56" s="105"/>
-      <c r="AA56" s="105"/>
-      <c r="AB56" s="106"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="99"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="99"/>
+      <c r="T56" s="99"/>
+      <c r="U56" s="99"/>
+      <c r="V56" s="99"/>
+      <c r="W56" s="99"/>
+      <c r="X56" s="99"/>
+      <c r="Y56" s="99"/>
+      <c r="Z56" s="99"/>
+      <c r="AA56" s="99"/>
+      <c r="AB56" s="100"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -5167,34 +5212,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="104"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="105"/>
-      <c r="L57" s="105"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="105"/>
-      <c r="O57" s="105"/>
-      <c r="P57" s="105"/>
-      <c r="Q57" s="105"/>
-      <c r="R57" s="105"/>
-      <c r="S57" s="105"/>
-      <c r="T57" s="105"/>
-      <c r="U57" s="105"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
-      <c r="X57" s="105"/>
-      <c r="Y57" s="105"/>
-      <c r="Z57" s="105"/>
-      <c r="AA57" s="105"/>
-      <c r="AB57" s="106"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="99"/>
+      <c r="R57" s="99"/>
+      <c r="S57" s="99"/>
+      <c r="T57" s="99"/>
+      <c r="U57" s="99"/>
+      <c r="V57" s="99"/>
+      <c r="W57" s="99"/>
+      <c r="X57" s="99"/>
+      <c r="Y57" s="99"/>
+      <c r="Z57" s="99"/>
+      <c r="AA57" s="99"/>
+      <c r="AB57" s="100"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -5204,34 +5249,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="104"/>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="105"/>
-      <c r="O58" s="105"/>
-      <c r="P58" s="105"/>
-      <c r="Q58" s="105"/>
-      <c r="R58" s="105"/>
-      <c r="S58" s="105"/>
-      <c r="T58" s="105"/>
-      <c r="U58" s="105"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
-      <c r="X58" s="105"/>
-      <c r="Y58" s="105"/>
-      <c r="Z58" s="105"/>
-      <c r="AA58" s="105"/>
-      <c r="AB58" s="106"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="99"/>
+      <c r="R58" s="99"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="99"/>
+      <c r="U58" s="99"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
+      <c r="X58" s="99"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="99"/>
+      <c r="AA58" s="99"/>
+      <c r="AB58" s="100"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -5241,34 +5286,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="104"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="105"/>
-      <c r="K59" s="105"/>
-      <c r="L59" s="105"/>
-      <c r="M59" s="105"/>
-      <c r="N59" s="105"/>
-      <c r="O59" s="105"/>
-      <c r="P59" s="105"/>
-      <c r="Q59" s="105"/>
-      <c r="R59" s="105"/>
-      <c r="S59" s="105"/>
-      <c r="T59" s="105"/>
-      <c r="U59" s="105"/>
-      <c r="V59" s="105"/>
-      <c r="W59" s="105"/>
-      <c r="X59" s="105"/>
-      <c r="Y59" s="105"/>
-      <c r="Z59" s="105"/>
-      <c r="AA59" s="105"/>
-      <c r="AB59" s="106"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="99"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="99"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="99"/>
+      <c r="R59" s="99"/>
+      <c r="S59" s="99"/>
+      <c r="T59" s="99"/>
+      <c r="U59" s="99"/>
+      <c r="V59" s="99"/>
+      <c r="W59" s="99"/>
+      <c r="X59" s="99"/>
+      <c r="Y59" s="99"/>
+      <c r="Z59" s="99"/>
+      <c r="AA59" s="99"/>
+      <c r="AB59" s="100"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -5278,34 +5323,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="107"/>
-      <c r="B60" s="108"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="108"/>
-      <c r="N60" s="108"/>
-      <c r="O60" s="108"/>
-      <c r="P60" s="108"/>
-      <c r="Q60" s="108"/>
-      <c r="R60" s="108"/>
-      <c r="S60" s="108"/>
-      <c r="T60" s="108"/>
-      <c r="U60" s="108"/>
-      <c r="V60" s="108"/>
-      <c r="W60" s="108"/>
-      <c r="X60" s="108"/>
-      <c r="Y60" s="108"/>
-      <c r="Z60" s="108"/>
-      <c r="AA60" s="108"/>
-      <c r="AB60" s="109"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="102"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="102"/>
+      <c r="L60" s="102"/>
+      <c r="M60" s="102"/>
+      <c r="N60" s="102"/>
+      <c r="O60" s="102"/>
+      <c r="P60" s="102"/>
+      <c r="Q60" s="102"/>
+      <c r="R60" s="102"/>
+      <c r="S60" s="102"/>
+      <c r="T60" s="102"/>
+      <c r="U60" s="102"/>
+      <c r="V60" s="102"/>
+      <c r="W60" s="102"/>
+      <c r="X60" s="102"/>
+      <c r="Y60" s="102"/>
+      <c r="Z60" s="102"/>
+      <c r="AA60" s="102"/>
+      <c r="AB60" s="103"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -5353,6 +5398,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A17:AB38"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="A41:AB60"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="F6:AB6"/>
     <mergeCell ref="A1:AB3"/>
     <mergeCell ref="F5:T5"/>
     <mergeCell ref="A4:E4"/>
@@ -5369,39 +5447,6 @@
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="Y13:AB13"/>
     <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A41:AB60"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="A17:AB38"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="F7:T7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -5417,8 +5462,8 @@
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -5441,23 +5486,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -5465,21 +5510,21 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="132"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -5487,21 +5532,21 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -5509,89 +5554,89 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="125" t="str">
+      <c r="A4" s="137" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="126" t="str">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="124" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="98"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="135" t="str">
+      <c r="A5" s="129" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="126" t="str">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="124" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="98"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="135" t="str">
+      <c r="A6" s="129" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="126" t="str">
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="124" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="124" t="str">
+      <c r="G6" s="106"/>
+      <c r="H6" s="136" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="140" t="str">
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="134" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 133</v>
       </c>
-      <c r="O6" s="141"/>
+      <c r="O6" s="135"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -5599,14 +5644,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="98"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -5634,23 +5679,23 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="127" t="s">
+      <c r="P7" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="71"/>
       <c r="H8" s="72"/>
       <c r="I8" s="71"/>
@@ -5675,21 +5720,21 @@
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="123"/>
       <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
@@ -5716,23 +5761,23 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P9" s="122" t="s">
+      <c r="P9" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="123"/>
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
@@ -5759,23 +5804,23 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P10" s="122" t="s">
+      <c r="P10" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
@@ -5802,21 +5847,21 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
       <c r="G12" s="16" t="s">
         <v>37</v>
       </c>
@@ -5843,21 +5888,21 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="123"/>
       <c r="G13" s="16" t="s">
         <v>38</v>
       </c>
@@ -5884,26 +5929,28 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="16" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="J14" s="16"/>
       <c r="K14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5925,21 +5972,21 @@
         <f>IF(H14="I",N14*Contagem!$U$11,IF(H14="E",N14*Contagem!$U$13,IF(H14="A",N14*Contagem!$U$12,IF(H14="T",N14*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="123"/>
       <c r="G15" s="16" t="s">
         <v>38</v>
       </c>
@@ -5966,11 +6013,11 @@
         <f>IF(H15="I",N15*Contagem!$U$11,IF(H15="E",N15*Contagem!$U$13,IF(H15="A",N15*Contagem!$U$12,IF(H15="T",N15*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
     </row>
     <row r="16" spans="1:20" s="85" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="86" t="s">
@@ -6116,14 +6163,14 @@
       <c r="T19" s="78"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="17" t="s">
         <v>35</v>
       </c>
@@ -6156,21 +6203,21 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
       <c r="G21" s="17" t="s">
         <v>37</v>
       </c>
@@ -6203,21 +6250,21 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123"/>
       <c r="G22" s="17" t="s">
         <v>37</v>
       </c>
@@ -6250,21 +6297,21 @@
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="123"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
       <c r="G23" s="17" t="s">
         <v>51</v>
       </c>
@@ -6297,21 +6344,21 @@
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="119" t="s">
+      <c r="A24" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="123"/>
       <c r="G24" s="17" t="s">
         <v>38</v>
       </c>
@@ -6344,21 +6391,21 @@
         <f>IF(H24="I",N24*Contagem!$U$11,IF(H24="E",N24*Contagem!$U$13,IF(H24="A",N24*Contagem!$U$12,IF(H24="T",N24*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="119" t="s">
+      <c r="A25" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="123"/>
       <c r="G25" s="17" t="s">
         <v>38</v>
       </c>
@@ -6391,11 +6438,11 @@
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="120"/>
+      <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:20" s="85" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="86" t="s">
@@ -6438,11 +6485,11 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="80" t="s">
@@ -6469,14 +6516,14 @@
       <c r="T27" s="84"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
-      <c r="A28" s="119" t="s">
+      <c r="A28" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="123"/>
       <c r="G28" s="17" t="s">
         <v>35</v>
       </c>
@@ -6509,21 +6556,21 @@
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="123"/>
       <c r="G29" s="17" t="s">
         <v>37</v>
       </c>
@@ -6556,21 +6603,21 @@
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="123"/>
       <c r="G30" s="17" t="s">
         <v>37</v>
       </c>
@@ -6603,21 +6650,21 @@
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="123"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="119" t="s">
+      <c r="A31" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="121"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="123"/>
       <c r="G31" s="17" t="s">
         <v>51</v>
       </c>
@@ -6650,21 +6697,21 @@
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="120"/>
+      <c r="T31" s="120"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="119" t="s">
+      <c r="A32" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="121"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123"/>
       <c r="G32" s="17" t="s">
         <v>38</v>
       </c>
@@ -6697,21 +6744,21 @@
         <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="119" t="s">
+      <c r="A33" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="121"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="123"/>
       <c r="G33" s="17" t="s">
         <v>38</v>
       </c>
@@ -6744,11 +6791,11 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="120"/>
     </row>
     <row r="34" spans="1:20" s="85" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="86" t="s">
@@ -6791,11 +6838,11 @@
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="123"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="A35" s="80" t="s">
@@ -6822,14 +6869,14 @@
       <c r="T35" s="94"/>
     </row>
     <row r="36" spans="1:20" s="85" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="119" t="s">
+      <c r="A36" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="121"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="123"/>
       <c r="G36" s="17" t="s">
         <v>93</v>
       </c>
@@ -6862,21 +6909,21 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="123"/>
+      <c r="P36" s="119"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="120"/>
+      <c r="T36" s="120"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="121"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="123"/>
       <c r="G37" s="17" t="s">
         <v>37</v>
       </c>
@@ -6909,21 +6956,21 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="123"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="120"/>
+      <c r="T37" s="120"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="120"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="121"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="123"/>
       <c r="G38" s="17" t="s">
         <v>37</v>
       </c>
@@ -6956,21 +7003,21 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="123"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="120"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="121"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="123"/>
       <c r="G39" s="17" t="s">
         <v>38</v>
       </c>
@@ -7003,21 +7050,21 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="123"/>
-      <c r="T39" s="123"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="120"/>
+      <c r="T39" s="120"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="120"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="123"/>
       <c r="G40" s="17" t="s">
         <v>38</v>
       </c>
@@ -7050,21 +7097,21 @@
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="123"/>
-      <c r="R40" s="123"/>
-      <c r="S40" s="123"/>
-      <c r="T40" s="123"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="119" t="s">
+      <c r="A41" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="121"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="123"/>
       <c r="G41" s="17" t="s">
         <v>38</v>
       </c>
@@ -7097,21 +7144,21 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="123"/>
-      <c r="T41" s="123"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="120"/>
+      <c r="T41" s="120"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="119" t="s">
+      <c r="A42" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="121"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="123"/>
       <c r="G42" s="17" t="s">
         <v>51</v>
       </c>
@@ -7144,11 +7191,11 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="123"/>
-      <c r="R42" s="123"/>
-      <c r="S42" s="123"/>
-      <c r="T42" s="123"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="120"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="91" t="s">
@@ -7190,14 +7237,14 @@
       <c r="T43" s="94"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="119" t="s">
+      <c r="A44" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="123"/>
       <c r="G44" s="17" t="s">
         <v>37</v>
       </c>
@@ -7226,21 +7273,21 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="123"/>
-      <c r="R44" s="123"/>
-      <c r="S44" s="123"/>
-      <c r="T44" s="123"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="120"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="119" t="s">
+      <c r="A45" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="123"/>
       <c r="G45" s="17" t="s">
         <v>37</v>
       </c>
@@ -7269,21 +7316,21 @@
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P45" s="122"/>
-      <c r="Q45" s="123"/>
-      <c r="R45" s="123"/>
-      <c r="S45" s="123"/>
-      <c r="T45" s="123"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="119" t="s">
+      <c r="A46" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="120"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="121"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="123"/>
       <c r="G46" s="17" t="s">
         <v>38</v>
       </c>
@@ -7312,21 +7359,21 @@
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="123"/>
-      <c r="S46" s="123"/>
-      <c r="T46" s="123"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="119" t="s">
+      <c r="A47" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="120"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="121"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="123"/>
       <c r="G47" s="17" t="s">
         <v>38</v>
       </c>
@@ -7355,21 +7402,21 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P47" s="122"/>
-      <c r="Q47" s="123"/>
-      <c r="R47" s="123"/>
-      <c r="S47" s="123"/>
-      <c r="T47" s="123"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="120"/>
+      <c r="T47" s="120"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="119" t="s">
+      <c r="A48" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="121"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="123"/>
       <c r="G48" s="17" t="s">
         <v>37</v>
       </c>
@@ -7398,21 +7445,21 @@
         <f>IF(H48="I",N48*Contagem!$U$11,IF(H48="E",N48*Contagem!$U$13,IF(H48="A",N48*Contagem!$U$12,IF(H48="T",N48*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="123"/>
-      <c r="R48" s="123"/>
-      <c r="S48" s="123"/>
-      <c r="T48" s="123"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="120"/>
+      <c r="T48" s="120"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="119" t="s">
+      <c r="A49" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="123"/>
       <c r="G49" s="17" t="s">
         <v>51</v>
       </c>
@@ -7441,21 +7488,21 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="123"/>
-      <c r="R49" s="123"/>
-      <c r="S49" s="123"/>
-      <c r="T49" s="123"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="120"/>
+      <c r="T49" s="120"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="119" t="s">
+      <c r="A50" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="121"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="123"/>
       <c r="G50" s="17" t="s">
         <v>35</v>
       </c>
@@ -7484,19 +7531,19 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="123"/>
-      <c r="R50" s="123"/>
-      <c r="S50" s="123"/>
-      <c r="T50" s="123"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="120"/>
+      <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="119"/>
-      <c r="B51" s="120"/>
-      <c r="C51" s="120"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="121"/>
+      <c r="A51" s="121"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="123"/>
       <c r="G51" s="17"/>
       <c r="H51" s="23"/>
       <c r="I51" s="17"/>
@@ -7521,19 +7568,19 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="123"/>
-      <c r="S51" s="123"/>
-      <c r="T51" s="123"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+      <c r="S51" s="120"/>
+      <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="119"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="121"/>
+      <c r="A52" s="121"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="17"/>
       <c r="H52" s="23"/>
       <c r="I52" s="17"/>
@@ -7558,19 +7605,19 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="123"/>
-      <c r="R52" s="123"/>
-      <c r="S52" s="123"/>
-      <c r="T52" s="123"/>
+      <c r="P52" s="119"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="120"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
-      <c r="A53" s="119"/>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="121"/>
+      <c r="A53" s="121"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="123"/>
       <c r="G53" s="17"/>
       <c r="H53" s="23"/>
       <c r="I53" s="17"/>
@@ -7595,19 +7642,19 @@
         <f>IF(H53="I",N53*Contagem!$U$11,IF(H53="E",N53*Contagem!$U$13,IF(H53="A",N53*Contagem!$U$12,IF(H53="T",N53*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="123"/>
-      <c r="R53" s="123"/>
-      <c r="S53" s="123"/>
-      <c r="T53" s="123"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="120"/>
+      <c r="T53" s="120"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="119"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="121"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="123"/>
       <c r="G54" s="17"/>
       <c r="H54" s="23"/>
       <c r="I54" s="17"/>
@@ -7632,19 +7679,19 @@
         <f>IF(H54="I",N54*Contagem!$U$11,IF(H54="E",N54*Contagem!$U$13,IF(H54="A",N54*Contagem!$U$12,IF(H54="T",N54*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="123"/>
-      <c r="R54" s="123"/>
-      <c r="S54" s="123"/>
-      <c r="T54" s="123"/>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="120"/>
+      <c r="R54" s="120"/>
+      <c r="S54" s="120"/>
+      <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="119"/>
-      <c r="B55" s="120"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="121"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="123"/>
       <c r="G55" s="17"/>
       <c r="H55" s="23"/>
       <c r="I55" s="17"/>
@@ -7669,19 +7716,19 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="123"/>
-      <c r="R55" s="123"/>
-      <c r="S55" s="123"/>
-      <c r="T55" s="123"/>
+      <c r="P55" s="119"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="120"/>
+      <c r="T55" s="120"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
-      <c r="A56" s="119"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="121"/>
+      <c r="A56" s="121"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="123"/>
       <c r="G56" s="17"/>
       <c r="H56" s="23"/>
       <c r="I56" s="17"/>
@@ -7706,19 +7753,19 @@
         <f>IF(H56="I",N56*Contagem!$U$11,IF(H56="E",N56*Contagem!$U$13,IF(H56="A",N56*Contagem!$U$12,IF(H56="T",N56*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="123"/>
-      <c r="R56" s="123"/>
-      <c r="S56" s="123"/>
-      <c r="T56" s="123"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="120"/>
+      <c r="R56" s="120"/>
+      <c r="S56" s="120"/>
+      <c r="T56" s="120"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="119"/>
-      <c r="B57" s="120"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="121"/>
+      <c r="A57" s="121"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="123"/>
       <c r="G57" s="17"/>
       <c r="H57" s="23"/>
       <c r="I57" s="17"/>
@@ -7743,19 +7790,19 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="123"/>
-      <c r="R57" s="123"/>
-      <c r="S57" s="123"/>
-      <c r="T57" s="123"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="120"/>
+      <c r="R57" s="120"/>
+      <c r="S57" s="120"/>
+      <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="119"/>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="121"/>
+      <c r="A58" s="121"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="123"/>
       <c r="G58" s="17"/>
       <c r="H58" s="23"/>
       <c r="I58" s="17"/>
@@ -7780,19 +7827,19 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="123"/>
-      <c r="R58" s="123"/>
-      <c r="S58" s="123"/>
-      <c r="T58" s="123"/>
+      <c r="P58" s="119"/>
+      <c r="Q58" s="120"/>
+      <c r="R58" s="120"/>
+      <c r="S58" s="120"/>
+      <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="119"/>
-      <c r="B59" s="120"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="121"/>
+      <c r="A59" s="121"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="123"/>
       <c r="G59" s="17"/>
       <c r="H59" s="23"/>
       <c r="I59" s="17"/>
@@ -7817,19 +7864,19 @@
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="123"/>
-      <c r="R59" s="123"/>
-      <c r="S59" s="123"/>
-      <c r="T59" s="123"/>
+      <c r="P59" s="119"/>
+      <c r="Q59" s="120"/>
+      <c r="R59" s="120"/>
+      <c r="S59" s="120"/>
+      <c r="T59" s="120"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="119"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="121"/>
+      <c r="A60" s="121"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="123"/>
       <c r="G60" s="17"/>
       <c r="H60" s="23"/>
       <c r="I60" s="17"/>
@@ -7854,19 +7901,19 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P60" s="122"/>
-      <c r="Q60" s="123"/>
-      <c r="R60" s="123"/>
-      <c r="S60" s="123"/>
-      <c r="T60" s="123"/>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="120"/>
+      <c r="R60" s="120"/>
+      <c r="S60" s="120"/>
+      <c r="T60" s="120"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="119"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="121"/>
+      <c r="A61" s="121"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="123"/>
       <c r="G61" s="17"/>
       <c r="H61" s="23"/>
       <c r="I61" s="17"/>
@@ -7891,19 +7938,19 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P61" s="122"/>
-      <c r="Q61" s="123"/>
-      <c r="R61" s="123"/>
-      <c r="S61" s="123"/>
-      <c r="T61" s="123"/>
+      <c r="P61" s="119"/>
+      <c r="Q61" s="120"/>
+      <c r="R61" s="120"/>
+      <c r="S61" s="120"/>
+      <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="119"/>
-      <c r="B62" s="120"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="121"/>
+      <c r="A62" s="121"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="123"/>
       <c r="G62" s="17"/>
       <c r="H62" s="23"/>
       <c r="I62" s="17"/>
@@ -7928,19 +7975,19 @@
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P62" s="122"/>
-      <c r="Q62" s="123"/>
-      <c r="R62" s="123"/>
-      <c r="S62" s="123"/>
-      <c r="T62" s="123"/>
+      <c r="P62" s="119"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="120"/>
+      <c r="S62" s="120"/>
+      <c r="T62" s="120"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="119"/>
-      <c r="B63" s="120"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="120"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="121"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="123"/>
       <c r="G63" s="17"/>
       <c r="H63" s="23"/>
       <c r="I63" s="17"/>
@@ -7965,19 +8012,19 @@
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P63" s="122"/>
-      <c r="Q63" s="123"/>
-      <c r="R63" s="123"/>
-      <c r="S63" s="123"/>
-      <c r="T63" s="123"/>
+      <c r="P63" s="119"/>
+      <c r="Q63" s="120"/>
+      <c r="R63" s="120"/>
+      <c r="S63" s="120"/>
+      <c r="T63" s="120"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="119"/>
-      <c r="B64" s="120"/>
-      <c r="C64" s="120"/>
-      <c r="D64" s="120"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="121"/>
+      <c r="A64" s="121"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="123"/>
       <c r="G64" s="17"/>
       <c r="H64" s="23"/>
       <c r="I64" s="17"/>
@@ -8002,19 +8049,19 @@
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P64" s="122"/>
-      <c r="Q64" s="123"/>
-      <c r="R64" s="123"/>
-      <c r="S64" s="123"/>
-      <c r="T64" s="123"/>
+      <c r="P64" s="119"/>
+      <c r="Q64" s="120"/>
+      <c r="R64" s="120"/>
+      <c r="S64" s="120"/>
+      <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="119"/>
-      <c r="B65" s="120"/>
-      <c r="C65" s="120"/>
-      <c r="D65" s="120"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="121"/>
+      <c r="A65" s="121"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="123"/>
       <c r="G65" s="17"/>
       <c r="H65" s="23"/>
       <c r="I65" s="17"/>
@@ -8039,19 +8086,19 @@
         <f>IF(H65="I",N65*Contagem!$U$11,IF(H65="E",N65*Contagem!$U$13,IF(H65="A",N65*Contagem!$U$12,IF(H65="T",N65*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P65" s="122"/>
-      <c r="Q65" s="123"/>
-      <c r="R65" s="123"/>
-      <c r="S65" s="123"/>
-      <c r="T65" s="123"/>
+      <c r="P65" s="119"/>
+      <c r="Q65" s="120"/>
+      <c r="R65" s="120"/>
+      <c r="S65" s="120"/>
+      <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="119"/>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="121"/>
+      <c r="A66" s="121"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="122"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="123"/>
       <c r="G66" s="17"/>
       <c r="H66" s="23"/>
       <c r="I66" s="17"/>
@@ -8076,19 +8123,19 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P66" s="122"/>
-      <c r="Q66" s="123"/>
-      <c r="R66" s="123"/>
-      <c r="S66" s="123"/>
-      <c r="T66" s="123"/>
+      <c r="P66" s="119"/>
+      <c r="Q66" s="120"/>
+      <c r="R66" s="120"/>
+      <c r="S66" s="120"/>
+      <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="119"/>
-      <c r="B67" s="120"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="121"/>
+      <c r="A67" s="121"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="122"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="123"/>
       <c r="G67" s="17"/>
       <c r="H67" s="23"/>
       <c r="I67" s="17"/>
@@ -8113,19 +8160,19 @@
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P67" s="122"/>
-      <c r="Q67" s="123"/>
-      <c r="R67" s="123"/>
-      <c r="S67" s="123"/>
-      <c r="T67" s="123"/>
+      <c r="P67" s="119"/>
+      <c r="Q67" s="120"/>
+      <c r="R67" s="120"/>
+      <c r="S67" s="120"/>
+      <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="119"/>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
-      <c r="D68" s="120"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="121"/>
+      <c r="A68" s="121"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="123"/>
       <c r="G68" s="17"/>
       <c r="H68" s="23"/>
       <c r="I68" s="17"/>
@@ -8150,19 +8197,19 @@
         <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P68" s="122"/>
-      <c r="Q68" s="123"/>
-      <c r="R68" s="123"/>
-      <c r="S68" s="123"/>
-      <c r="T68" s="123"/>
+      <c r="P68" s="119"/>
+      <c r="Q68" s="120"/>
+      <c r="R68" s="120"/>
+      <c r="S68" s="120"/>
+      <c r="T68" s="120"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="119"/>
-      <c r="B69" s="120"/>
-      <c r="C69" s="120"/>
-      <c r="D69" s="120"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="121"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="123"/>
       <c r="G69" s="17"/>
       <c r="H69" s="23"/>
       <c r="I69" s="17"/>
@@ -8187,19 +8234,19 @@
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P69" s="122"/>
-      <c r="Q69" s="123"/>
-      <c r="R69" s="123"/>
-      <c r="S69" s="123"/>
-      <c r="T69" s="123"/>
+      <c r="P69" s="119"/>
+      <c r="Q69" s="120"/>
+      <c r="R69" s="120"/>
+      <c r="S69" s="120"/>
+      <c r="T69" s="120"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="119"/>
-      <c r="B70" s="120"/>
-      <c r="C70" s="120"/>
-      <c r="D70" s="120"/>
-      <c r="E70" s="120"/>
-      <c r="F70" s="121"/>
+      <c r="A70" s="121"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="122"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="123"/>
       <c r="G70" s="17"/>
       <c r="H70" s="23"/>
       <c r="I70" s="17"/>
@@ -8224,19 +8271,19 @@
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="123"/>
-      <c r="R70" s="123"/>
-      <c r="S70" s="123"/>
-      <c r="T70" s="123"/>
+      <c r="P70" s="119"/>
+      <c r="Q70" s="120"/>
+      <c r="R70" s="120"/>
+      <c r="S70" s="120"/>
+      <c r="T70" s="120"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="119"/>
-      <c r="B71" s="120"/>
-      <c r="C71" s="120"/>
-      <c r="D71" s="120"/>
-      <c r="E71" s="120"/>
-      <c r="F71" s="121"/>
+      <c r="A71" s="121"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="122"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="123"/>
       <c r="G71" s="17"/>
       <c r="H71" s="23"/>
       <c r="I71" s="17"/>
@@ -8261,19 +8308,19 @@
         <f>IF(H71="I",N71*Contagem!$U$11,IF(H71="E",N71*Contagem!$U$13,IF(H71="A",N71*Contagem!$U$12,IF(H71="T",N71*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P71" s="122"/>
-      <c r="Q71" s="123"/>
-      <c r="R71" s="123"/>
-      <c r="S71" s="123"/>
-      <c r="T71" s="123"/>
+      <c r="P71" s="119"/>
+      <c r="Q71" s="120"/>
+      <c r="R71" s="120"/>
+      <c r="S71" s="120"/>
+      <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="119"/>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120"/>
-      <c r="D72" s="120"/>
-      <c r="E72" s="120"/>
-      <c r="F72" s="121"/>
+      <c r="A72" s="121"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="122"/>
+      <c r="D72" s="122"/>
+      <c r="E72" s="122"/>
+      <c r="F72" s="123"/>
       <c r="G72" s="17"/>
       <c r="H72" s="23"/>
       <c r="I72" s="17"/>
@@ -8298,19 +8345,19 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P72" s="122"/>
-      <c r="Q72" s="123"/>
-      <c r="R72" s="123"/>
-      <c r="S72" s="123"/>
-      <c r="T72" s="123"/>
+      <c r="P72" s="119"/>
+      <c r="Q72" s="120"/>
+      <c r="R72" s="120"/>
+      <c r="S72" s="120"/>
+      <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:20" ht="18" customHeight="1">
-      <c r="A73" s="119"/>
-      <c r="B73" s="120"/>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="121"/>
+      <c r="A73" s="121"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="123"/>
       <c r="G73" s="17"/>
       <c r="H73" s="23"/>
       <c r="I73" s="17"/>
@@ -8335,19 +8382,19 @@
         <f>IF(H73="I",N73*Contagem!$U$11,IF(H73="E",N73*Contagem!$U$13,IF(H73="A",N73*Contagem!$U$12,IF(H73="T",N73*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P73" s="122"/>
-      <c r="Q73" s="123"/>
-      <c r="R73" s="123"/>
-      <c r="S73" s="123"/>
-      <c r="T73" s="123"/>
+      <c r="P73" s="119"/>
+      <c r="Q73" s="120"/>
+      <c r="R73" s="120"/>
+      <c r="S73" s="120"/>
+      <c r="T73" s="120"/>
     </row>
     <row r="74" spans="1:20" ht="18" customHeight="1">
-      <c r="A74" s="119"/>
-      <c r="B74" s="120"/>
-      <c r="C74" s="120"/>
-      <c r="D74" s="120"/>
-      <c r="E74" s="120"/>
-      <c r="F74" s="121"/>
+      <c r="A74" s="121"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="122"/>
+      <c r="E74" s="122"/>
+      <c r="F74" s="123"/>
       <c r="G74" s="17"/>
       <c r="H74" s="23"/>
       <c r="I74" s="17"/>
@@ -8372,19 +8419,19 @@
         <f>IF(H74="I",N74*Contagem!$U$11,IF(H74="E",N74*Contagem!$U$13,IF(H74="A",N74*Contagem!$U$12,IF(H74="T",N74*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P74" s="122"/>
-      <c r="Q74" s="123"/>
-      <c r="R74" s="123"/>
-      <c r="S74" s="123"/>
-      <c r="T74" s="123"/>
+      <c r="P74" s="119"/>
+      <c r="Q74" s="120"/>
+      <c r="R74" s="120"/>
+      <c r="S74" s="120"/>
+      <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="119"/>
-      <c r="B75" s="120"/>
-      <c r="C75" s="120"/>
-      <c r="D75" s="120"/>
-      <c r="E75" s="120"/>
-      <c r="F75" s="121"/>
+      <c r="A75" s="121"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="122"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="123"/>
       <c r="G75" s="17"/>
       <c r="H75" s="23"/>
       <c r="I75" s="17"/>
@@ -8409,19 +8456,19 @@
         <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P75" s="122"/>
-      <c r="Q75" s="123"/>
-      <c r="R75" s="123"/>
-      <c r="S75" s="123"/>
-      <c r="T75" s="123"/>
+      <c r="P75" s="119"/>
+      <c r="Q75" s="120"/>
+      <c r="R75" s="120"/>
+      <c r="S75" s="120"/>
+      <c r="T75" s="120"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
-      <c r="A76" s="119"/>
-      <c r="B76" s="120"/>
-      <c r="C76" s="120"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="120"/>
-      <c r="F76" s="121"/>
+      <c r="A76" s="121"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="122"/>
+      <c r="D76" s="122"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="123"/>
       <c r="G76" s="17"/>
       <c r="H76" s="23"/>
       <c r="I76" s="17"/>
@@ -8446,19 +8493,19 @@
         <f>IF(H76="I",N76*Contagem!$U$11,IF(H76="E",N76*Contagem!$U$13,IF(H76="A",N76*Contagem!$U$12,IF(H76="T",N76*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P76" s="122"/>
-      <c r="Q76" s="123"/>
-      <c r="R76" s="123"/>
-      <c r="S76" s="123"/>
-      <c r="T76" s="123"/>
+      <c r="P76" s="119"/>
+      <c r="Q76" s="120"/>
+      <c r="R76" s="120"/>
+      <c r="S76" s="120"/>
+      <c r="T76" s="120"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="119"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="120"/>
-      <c r="F77" s="121"/>
+      <c r="A77" s="121"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="123"/>
       <c r="G77" s="17"/>
       <c r="H77" s="23"/>
       <c r="I77" s="17"/>
@@ -8483,19 +8530,19 @@
         <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P77" s="122"/>
-      <c r="Q77" s="123"/>
-      <c r="R77" s="123"/>
-      <c r="S77" s="123"/>
-      <c r="T77" s="123"/>
+      <c r="P77" s="119"/>
+      <c r="Q77" s="120"/>
+      <c r="R77" s="120"/>
+      <c r="S77" s="120"/>
+      <c r="T77" s="120"/>
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
-      <c r="A78" s="119"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="120"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="120"/>
-      <c r="F78" s="121"/>
+      <c r="A78" s="121"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="123"/>
       <c r="G78" s="17"/>
       <c r="H78" s="23"/>
       <c r="I78" s="17"/>
@@ -8520,19 +8567,19 @@
         <f>IF(H78="I",N78*Contagem!$U$11,IF(H78="E",N78*Contagem!$U$13,IF(H78="A",N78*Contagem!$U$12,IF(H78="T",N78*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P78" s="122"/>
-      <c r="Q78" s="123"/>
-      <c r="R78" s="123"/>
-      <c r="S78" s="123"/>
-      <c r="T78" s="123"/>
+      <c r="P78" s="119"/>
+      <c r="Q78" s="120"/>
+      <c r="R78" s="120"/>
+      <c r="S78" s="120"/>
+      <c r="T78" s="120"/>
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
-      <c r="A79" s="119"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="120"/>
-      <c r="F79" s="121"/>
+      <c r="A79" s="121"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="122"/>
+      <c r="E79" s="122"/>
+      <c r="F79" s="123"/>
       <c r="G79" s="17"/>
       <c r="H79" s="23"/>
       <c r="I79" s="17"/>
@@ -8557,19 +8604,19 @@
         <f>IF(H79="I",N79*Contagem!$U$11,IF(H79="E",N79*Contagem!$U$13,IF(H79="A",N79*Contagem!$U$12,IF(H79="T",N79*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P79" s="122"/>
-      <c r="Q79" s="123"/>
-      <c r="R79" s="123"/>
-      <c r="S79" s="123"/>
-      <c r="T79" s="123"/>
+      <c r="P79" s="119"/>
+      <c r="Q79" s="120"/>
+      <c r="R79" s="120"/>
+      <c r="S79" s="120"/>
+      <c r="T79" s="120"/>
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
-      <c r="A80" s="119"/>
-      <c r="B80" s="120"/>
-      <c r="C80" s="120"/>
-      <c r="D80" s="120"/>
-      <c r="E80" s="120"/>
-      <c r="F80" s="121"/>
+      <c r="A80" s="121"/>
+      <c r="B80" s="122"/>
+      <c r="C80" s="122"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="123"/>
       <c r="G80" s="17"/>
       <c r="H80" s="23"/>
       <c r="I80" s="17"/>
@@ -8594,19 +8641,19 @@
         <f>IF(H80="I",N80*Contagem!$U$11,IF(H80="E",N80*Contagem!$U$13,IF(H80="A",N80*Contagem!$U$12,IF(H80="T",N80*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P80" s="122"/>
-      <c r="Q80" s="123"/>
-      <c r="R80" s="123"/>
-      <c r="S80" s="123"/>
-      <c r="T80" s="123"/>
+      <c r="P80" s="119"/>
+      <c r="Q80" s="120"/>
+      <c r="R80" s="120"/>
+      <c r="S80" s="120"/>
+      <c r="T80" s="120"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
-      <c r="A81" s="119"/>
-      <c r="B81" s="120"/>
-      <c r="C81" s="120"/>
-      <c r="D81" s="120"/>
-      <c r="E81" s="120"/>
-      <c r="F81" s="121"/>
+      <c r="A81" s="121"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
+      <c r="F81" s="123"/>
       <c r="G81" s="17"/>
       <c r="H81" s="23"/>
       <c r="I81" s="17"/>
@@ -8631,19 +8678,19 @@
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P81" s="122"/>
-      <c r="Q81" s="123"/>
-      <c r="R81" s="123"/>
-      <c r="S81" s="123"/>
-      <c r="T81" s="123"/>
+      <c r="P81" s="119"/>
+      <c r="Q81" s="120"/>
+      <c r="R81" s="120"/>
+      <c r="S81" s="120"/>
+      <c r="T81" s="120"/>
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
-      <c r="A82" s="119"/>
-      <c r="B82" s="120"/>
-      <c r="C82" s="120"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="120"/>
-      <c r="F82" s="121"/>
+      <c r="A82" s="121"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="122"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="123"/>
       <c r="G82" s="17"/>
       <c r="H82" s="23"/>
       <c r="I82" s="17"/>
@@ -8668,19 +8715,19 @@
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P82" s="122"/>
-      <c r="Q82" s="123"/>
-      <c r="R82" s="123"/>
-      <c r="S82" s="123"/>
-      <c r="T82" s="123"/>
+      <c r="P82" s="119"/>
+      <c r="Q82" s="120"/>
+      <c r="R82" s="120"/>
+      <c r="S82" s="120"/>
+      <c r="T82" s="120"/>
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
-      <c r="A83" s="119"/>
-      <c r="B83" s="120"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
-      <c r="F83" s="121"/>
+      <c r="A83" s="121"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="122"/>
+      <c r="D83" s="122"/>
+      <c r="E83" s="122"/>
+      <c r="F83" s="123"/>
       <c r="G83" s="17"/>
       <c r="H83" s="23"/>
       <c r="I83" s="17"/>
@@ -8705,19 +8752,19 @@
         <f>IF(H83="I",N83*Contagem!$U$11,IF(H83="E",N83*Contagem!$U$13,IF(H83="A",N83*Contagem!$U$12,IF(H83="T",N83*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P83" s="122"/>
-      <c r="Q83" s="123"/>
-      <c r="R83" s="123"/>
-      <c r="S83" s="123"/>
-      <c r="T83" s="123"/>
+      <c r="P83" s="119"/>
+      <c r="Q83" s="120"/>
+      <c r="R83" s="120"/>
+      <c r="S83" s="120"/>
+      <c r="T83" s="120"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
-      <c r="A84" s="119"/>
-      <c r="B84" s="120"/>
-      <c r="C84" s="120"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="120"/>
-      <c r="F84" s="121"/>
+      <c r="A84" s="121"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="122"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="123"/>
       <c r="G84" s="17"/>
       <c r="H84" s="23"/>
       <c r="I84" s="17"/>
@@ -8742,19 +8789,19 @@
         <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P84" s="122"/>
-      <c r="Q84" s="123"/>
-      <c r="R84" s="123"/>
-      <c r="S84" s="123"/>
-      <c r="T84" s="123"/>
+      <c r="P84" s="119"/>
+      <c r="Q84" s="120"/>
+      <c r="R84" s="120"/>
+      <c r="S84" s="120"/>
+      <c r="T84" s="120"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
-      <c r="A85" s="119"/>
-      <c r="B85" s="120"/>
-      <c r="C85" s="120"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="120"/>
-      <c r="F85" s="121"/>
+      <c r="A85" s="121"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="123"/>
       <c r="G85" s="17"/>
       <c r="H85" s="23"/>
       <c r="I85" s="17"/>
@@ -8779,19 +8826,19 @@
         <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P85" s="122"/>
-      <c r="Q85" s="123"/>
-      <c r="R85" s="123"/>
-      <c r="S85" s="123"/>
-      <c r="T85" s="123"/>
+      <c r="P85" s="119"/>
+      <c r="Q85" s="120"/>
+      <c r="R85" s="120"/>
+      <c r="S85" s="120"/>
+      <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
-      <c r="A86" s="119"/>
-      <c r="B86" s="120"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="120"/>
-      <c r="F86" s="121"/>
+      <c r="A86" s="121"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="123"/>
       <c r="G86" s="17"/>
       <c r="H86" s="23"/>
       <c r="I86" s="17"/>
@@ -8816,19 +8863,19 @@
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P86" s="122"/>
-      <c r="Q86" s="123"/>
-      <c r="R86" s="123"/>
-      <c r="S86" s="123"/>
-      <c r="T86" s="123"/>
+      <c r="P86" s="119"/>
+      <c r="Q86" s="120"/>
+      <c r="R86" s="120"/>
+      <c r="S86" s="120"/>
+      <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
-      <c r="A87" s="119"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
-      <c r="F87" s="121"/>
+      <c r="A87" s="121"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="123"/>
       <c r="G87" s="17"/>
       <c r="H87" s="23"/>
       <c r="I87" s="17"/>
@@ -8853,19 +8900,19 @@
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P87" s="122"/>
-      <c r="Q87" s="123"/>
-      <c r="R87" s="123"/>
-      <c r="S87" s="123"/>
-      <c r="T87" s="123"/>
+      <c r="P87" s="119"/>
+      <c r="Q87" s="120"/>
+      <c r="R87" s="120"/>
+      <c r="S87" s="120"/>
+      <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
-      <c r="A88" s="119"/>
-      <c r="B88" s="120"/>
-      <c r="C88" s="120"/>
-      <c r="D88" s="120"/>
-      <c r="E88" s="120"/>
-      <c r="F88" s="121"/>
+      <c r="A88" s="121"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="123"/>
       <c r="G88" s="17"/>
       <c r="H88" s="23"/>
       <c r="I88" s="17"/>
@@ -8890,19 +8937,19 @@
         <f>IF(H88="I",N88*Contagem!$U$11,IF(H88="E",N88*Contagem!$U$13,IF(H88="A",N88*Contagem!$U$12,IF(H88="T",N88*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P88" s="122"/>
-      <c r="Q88" s="123"/>
-      <c r="R88" s="123"/>
-      <c r="S88" s="123"/>
-      <c r="T88" s="123"/>
+      <c r="P88" s="119"/>
+      <c r="Q88" s="120"/>
+      <c r="R88" s="120"/>
+      <c r="S88" s="120"/>
+      <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
-      <c r="A89" s="119"/>
-      <c r="B89" s="120"/>
-      <c r="C89" s="120"/>
-      <c r="D89" s="120"/>
-      <c r="E89" s="120"/>
-      <c r="F89" s="121"/>
+      <c r="A89" s="121"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="122"/>
+      <c r="D89" s="122"/>
+      <c r="E89" s="122"/>
+      <c r="F89" s="123"/>
       <c r="G89" s="17"/>
       <c r="H89" s="23"/>
       <c r="I89" s="17"/>
@@ -8927,19 +8974,19 @@
         <f>IF(H89="I",N89*Contagem!$U$11,IF(H89="E",N89*Contagem!$U$13,IF(H89="A",N89*Contagem!$U$12,IF(H89="T",N89*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P89" s="122"/>
-      <c r="Q89" s="123"/>
-      <c r="R89" s="123"/>
-      <c r="S89" s="123"/>
-      <c r="T89" s="123"/>
+      <c r="P89" s="119"/>
+      <c r="Q89" s="120"/>
+      <c r="R89" s="120"/>
+      <c r="S89" s="120"/>
+      <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:20" ht="18" customHeight="1">
-      <c r="A90" s="119"/>
-      <c r="B90" s="120"/>
-      <c r="C90" s="120"/>
-      <c r="D90" s="120"/>
-      <c r="E90" s="120"/>
-      <c r="F90" s="121"/>
+      <c r="A90" s="121"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="122"/>
+      <c r="D90" s="122"/>
+      <c r="E90" s="122"/>
+      <c r="F90" s="123"/>
       <c r="G90" s="17"/>
       <c r="H90" s="23"/>
       <c r="I90" s="17"/>
@@ -8964,19 +9011,19 @@
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P90" s="122"/>
-      <c r="Q90" s="123"/>
-      <c r="R90" s="123"/>
-      <c r="S90" s="123"/>
-      <c r="T90" s="123"/>
+      <c r="P90" s="119"/>
+      <c r="Q90" s="120"/>
+      <c r="R90" s="120"/>
+      <c r="S90" s="120"/>
+      <c r="T90" s="120"/>
     </row>
     <row r="91" spans="1:20" ht="18" customHeight="1">
-      <c r="A91" s="119"/>
-      <c r="B91" s="120"/>
-      <c r="C91" s="120"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="120"/>
-      <c r="F91" s="121"/>
+      <c r="A91" s="121"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="122"/>
+      <c r="D91" s="122"/>
+      <c r="E91" s="122"/>
+      <c r="F91" s="123"/>
       <c r="G91" s="17"/>
       <c r="H91" s="23"/>
       <c r="I91" s="17"/>
@@ -9001,19 +9048,19 @@
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P91" s="122"/>
-      <c r="Q91" s="123"/>
-      <c r="R91" s="123"/>
-      <c r="S91" s="123"/>
-      <c r="T91" s="123"/>
+      <c r="P91" s="119"/>
+      <c r="Q91" s="120"/>
+      <c r="R91" s="120"/>
+      <c r="S91" s="120"/>
+      <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
-      <c r="A92" s="119"/>
-      <c r="B92" s="120"/>
-      <c r="C92" s="120"/>
-      <c r="D92" s="120"/>
-      <c r="E92" s="120"/>
-      <c r="F92" s="121"/>
+      <c r="A92" s="121"/>
+      <c r="B92" s="122"/>
+      <c r="C92" s="122"/>
+      <c r="D92" s="122"/>
+      <c r="E92" s="122"/>
+      <c r="F92" s="123"/>
       <c r="G92" s="17"/>
       <c r="H92" s="23"/>
       <c r="I92" s="17"/>
@@ -9038,19 +9085,19 @@
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P92" s="122"/>
-      <c r="Q92" s="123"/>
-      <c r="R92" s="123"/>
-      <c r="S92" s="123"/>
-      <c r="T92" s="123"/>
+      <c r="P92" s="119"/>
+      <c r="Q92" s="120"/>
+      <c r="R92" s="120"/>
+      <c r="S92" s="120"/>
+      <c r="T92" s="120"/>
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
-      <c r="A93" s="119"/>
-      <c r="B93" s="120"/>
-      <c r="C93" s="120"/>
-      <c r="D93" s="120"/>
-      <c r="E93" s="120"/>
-      <c r="F93" s="121"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="122"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="123"/>
       <c r="G93" s="17"/>
       <c r="H93" s="23"/>
       <c r="I93" s="17"/>
@@ -9075,19 +9122,19 @@
         <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P93" s="122"/>
-      <c r="Q93" s="123"/>
-      <c r="R93" s="123"/>
-      <c r="S93" s="123"/>
-      <c r="T93" s="123"/>
+      <c r="P93" s="119"/>
+      <c r="Q93" s="120"/>
+      <c r="R93" s="120"/>
+      <c r="S93" s="120"/>
+      <c r="T93" s="120"/>
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
-      <c r="A94" s="119"/>
-      <c r="B94" s="120"/>
-      <c r="C94" s="120"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="120"/>
-      <c r="F94" s="121"/>
+      <c r="A94" s="121"/>
+      <c r="B94" s="122"/>
+      <c r="C94" s="122"/>
+      <c r="D94" s="122"/>
+      <c r="E94" s="122"/>
+      <c r="F94" s="123"/>
       <c r="G94" s="17"/>
       <c r="H94" s="23"/>
       <c r="I94" s="17"/>
@@ -9112,19 +9159,19 @@
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P94" s="122"/>
-      <c r="Q94" s="123"/>
-      <c r="R94" s="123"/>
-      <c r="S94" s="123"/>
-      <c r="T94" s="123"/>
+      <c r="P94" s="119"/>
+      <c r="Q94" s="120"/>
+      <c r="R94" s="120"/>
+      <c r="S94" s="120"/>
+      <c r="T94" s="120"/>
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
-      <c r="A95" s="119"/>
-      <c r="B95" s="120"/>
-      <c r="C95" s="120"/>
-      <c r="D95" s="120"/>
-      <c r="E95" s="120"/>
-      <c r="F95" s="121"/>
+      <c r="A95" s="121"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="122"/>
+      <c r="E95" s="122"/>
+      <c r="F95" s="123"/>
       <c r="G95" s="17"/>
       <c r="H95" s="23"/>
       <c r="I95" s="17"/>
@@ -9149,19 +9196,19 @@
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P95" s="122"/>
-      <c r="Q95" s="123"/>
-      <c r="R95" s="123"/>
-      <c r="S95" s="123"/>
-      <c r="T95" s="123"/>
+      <c r="P95" s="119"/>
+      <c r="Q95" s="120"/>
+      <c r="R95" s="120"/>
+      <c r="S95" s="120"/>
+      <c r="T95" s="120"/>
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
-      <c r="A96" s="119"/>
-      <c r="B96" s="120"/>
-      <c r="C96" s="120"/>
-      <c r="D96" s="120"/>
-      <c r="E96" s="120"/>
-      <c r="F96" s="121"/>
+      <c r="A96" s="121"/>
+      <c r="B96" s="122"/>
+      <c r="C96" s="122"/>
+      <c r="D96" s="122"/>
+      <c r="E96" s="122"/>
+      <c r="F96" s="123"/>
       <c r="G96" s="17"/>
       <c r="H96" s="23"/>
       <c r="I96" s="17"/>
@@ -9186,19 +9233,19 @@
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P96" s="122"/>
-      <c r="Q96" s="123"/>
-      <c r="R96" s="123"/>
-      <c r="S96" s="123"/>
-      <c r="T96" s="123"/>
+      <c r="P96" s="119"/>
+      <c r="Q96" s="120"/>
+      <c r="R96" s="120"/>
+      <c r="S96" s="120"/>
+      <c r="T96" s="120"/>
     </row>
     <row r="97" spans="1:20" ht="18" customHeight="1">
-      <c r="A97" s="119"/>
-      <c r="B97" s="120"/>
-      <c r="C97" s="120"/>
-      <c r="D97" s="120"/>
-      <c r="E97" s="120"/>
-      <c r="F97" s="121"/>
+      <c r="A97" s="121"/>
+      <c r="B97" s="122"/>
+      <c r="C97" s="122"/>
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+      <c r="F97" s="123"/>
       <c r="G97" s="17"/>
       <c r="H97" s="23"/>
       <c r="I97" s="17"/>
@@ -9223,19 +9270,19 @@
         <f>IF(H97="I",N97*Contagem!$U$11,IF(H97="E",N97*Contagem!$U$13,IF(H97="A",N97*Contagem!$U$12,IF(H97="T",N97*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P97" s="122"/>
-      <c r="Q97" s="123"/>
-      <c r="R97" s="123"/>
-      <c r="S97" s="123"/>
-      <c r="T97" s="123"/>
+      <c r="P97" s="119"/>
+      <c r="Q97" s="120"/>
+      <c r="R97" s="120"/>
+      <c r="S97" s="120"/>
+      <c r="T97" s="120"/>
     </row>
     <row r="98" spans="1:20" ht="18" customHeight="1">
-      <c r="A98" s="119"/>
-      <c r="B98" s="120"/>
-      <c r="C98" s="120"/>
-      <c r="D98" s="120"/>
-      <c r="E98" s="120"/>
-      <c r="F98" s="121"/>
+      <c r="A98" s="121"/>
+      <c r="B98" s="122"/>
+      <c r="C98" s="122"/>
+      <c r="D98" s="122"/>
+      <c r="E98" s="122"/>
+      <c r="F98" s="123"/>
       <c r="G98" s="17"/>
       <c r="H98" s="23"/>
       <c r="I98" s="17"/>
@@ -9260,19 +9307,19 @@
         <f>IF(H98="I",N98*Contagem!$U$11,IF(H98="E",N98*Contagem!$U$13,IF(H98="A",N98*Contagem!$U$12,IF(H98="T",N98*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P98" s="122"/>
-      <c r="Q98" s="123"/>
-      <c r="R98" s="123"/>
-      <c r="S98" s="123"/>
-      <c r="T98" s="123"/>
+      <c r="P98" s="119"/>
+      <c r="Q98" s="120"/>
+      <c r="R98" s="120"/>
+      <c r="S98" s="120"/>
+      <c r="T98" s="120"/>
     </row>
     <row r="99" spans="1:20" ht="18" customHeight="1">
-      <c r="A99" s="119"/>
-      <c r="B99" s="120"/>
-      <c r="C99" s="120"/>
-      <c r="D99" s="120"/>
-      <c r="E99" s="120"/>
-      <c r="F99" s="121"/>
+      <c r="A99" s="121"/>
+      <c r="B99" s="122"/>
+      <c r="C99" s="122"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="122"/>
+      <c r="F99" s="123"/>
       <c r="G99" s="17"/>
       <c r="H99" s="23"/>
       <c r="I99" s="17"/>
@@ -9297,19 +9344,19 @@
         <f>IF(H99="I",N99*Contagem!$U$11,IF(H99="E",N99*Contagem!$U$13,IF(H99="A",N99*Contagem!$U$12,IF(H99="T",N99*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P99" s="122"/>
-      <c r="Q99" s="123"/>
-      <c r="R99" s="123"/>
-      <c r="S99" s="123"/>
-      <c r="T99" s="123"/>
+      <c r="P99" s="119"/>
+      <c r="Q99" s="120"/>
+      <c r="R99" s="120"/>
+      <c r="S99" s="120"/>
+      <c r="T99" s="120"/>
     </row>
     <row r="100" spans="1:20" ht="18" customHeight="1">
-      <c r="A100" s="119"/>
-      <c r="B100" s="120"/>
-      <c r="C100" s="120"/>
-      <c r="D100" s="120"/>
-      <c r="E100" s="120"/>
-      <c r="F100" s="121"/>
+      <c r="A100" s="121"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="122"/>
+      <c r="E100" s="122"/>
+      <c r="F100" s="123"/>
       <c r="G100" s="17"/>
       <c r="H100" s="23"/>
       <c r="I100" s="17"/>
@@ -9334,19 +9381,19 @@
         <f>IF(H100="I",N100*Contagem!$U$11,IF(H100="E",N100*Contagem!$U$13,IF(H100="A",N100*Contagem!$U$12,IF(H100="T",N100*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P100" s="122"/>
-      <c r="Q100" s="123"/>
-      <c r="R100" s="123"/>
-      <c r="S100" s="123"/>
-      <c r="T100" s="123"/>
+      <c r="P100" s="119"/>
+      <c r="Q100" s="120"/>
+      <c r="R100" s="120"/>
+      <c r="S100" s="120"/>
+      <c r="T100" s="120"/>
     </row>
     <row r="101" spans="1:20" ht="18" customHeight="1">
-      <c r="A101" s="119"/>
-      <c r="B101" s="120"/>
-      <c r="C101" s="120"/>
-      <c r="D101" s="120"/>
-      <c r="E101" s="120"/>
-      <c r="F101" s="121"/>
+      <c r="A101" s="121"/>
+      <c r="B101" s="122"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="122"/>
+      <c r="F101" s="123"/>
       <c r="G101" s="17"/>
       <c r="H101" s="23"/>
       <c r="I101" s="17"/>
@@ -9371,19 +9418,19 @@
         <f>IF(H101="I",N101*Contagem!$U$11,IF(H101="E",N101*Contagem!$U$13,IF(H101="A",N101*Contagem!$U$12,IF(H101="T",N101*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P101" s="122"/>
-      <c r="Q101" s="123"/>
-      <c r="R101" s="123"/>
-      <c r="S101" s="123"/>
-      <c r="T101" s="123"/>
+      <c r="P101" s="119"/>
+      <c r="Q101" s="120"/>
+      <c r="R101" s="120"/>
+      <c r="S101" s="120"/>
+      <c r="T101" s="120"/>
     </row>
     <row r="102" spans="1:20" ht="18" customHeight="1">
-      <c r="A102" s="119"/>
-      <c r="B102" s="120"/>
-      <c r="C102" s="120"/>
-      <c r="D102" s="120"/>
-      <c r="E102" s="120"/>
-      <c r="F102" s="121"/>
+      <c r="A102" s="121"/>
+      <c r="B102" s="122"/>
+      <c r="C102" s="122"/>
+      <c r="D102" s="122"/>
+      <c r="E102" s="122"/>
+      <c r="F102" s="123"/>
       <c r="G102" s="17"/>
       <c r="H102" s="23"/>
       <c r="I102" s="17"/>
@@ -9408,19 +9455,19 @@
         <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P102" s="122"/>
-      <c r="Q102" s="123"/>
-      <c r="R102" s="123"/>
-      <c r="S102" s="123"/>
-      <c r="T102" s="123"/>
+      <c r="P102" s="119"/>
+      <c r="Q102" s="120"/>
+      <c r="R102" s="120"/>
+      <c r="S102" s="120"/>
+      <c r="T102" s="120"/>
     </row>
     <row r="103" spans="1:20" ht="18" customHeight="1">
-      <c r="A103" s="119"/>
-      <c r="B103" s="120"/>
-      <c r="C103" s="120"/>
-      <c r="D103" s="120"/>
-      <c r="E103" s="120"/>
-      <c r="F103" s="121"/>
+      <c r="A103" s="121"/>
+      <c r="B103" s="122"/>
+      <c r="C103" s="122"/>
+      <c r="D103" s="122"/>
+      <c r="E103" s="122"/>
+      <c r="F103" s="123"/>
       <c r="G103" s="17"/>
       <c r="H103" s="23"/>
       <c r="I103" s="17"/>
@@ -9445,19 +9492,19 @@
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P103" s="122"/>
-      <c r="Q103" s="123"/>
-      <c r="R103" s="123"/>
-      <c r="S103" s="123"/>
-      <c r="T103" s="123"/>
+      <c r="P103" s="119"/>
+      <c r="Q103" s="120"/>
+      <c r="R103" s="120"/>
+      <c r="S103" s="120"/>
+      <c r="T103" s="120"/>
     </row>
     <row r="104" spans="1:20" ht="18" customHeight="1">
-      <c r="A104" s="119"/>
-      <c r="B104" s="120"/>
-      <c r="C104" s="120"/>
-      <c r="D104" s="120"/>
-      <c r="E104" s="120"/>
-      <c r="F104" s="121"/>
+      <c r="A104" s="121"/>
+      <c r="B104" s="122"/>
+      <c r="C104" s="122"/>
+      <c r="D104" s="122"/>
+      <c r="E104" s="122"/>
+      <c r="F104" s="123"/>
       <c r="G104" s="17"/>
       <c r="H104" s="23"/>
       <c r="I104" s="17"/>
@@ -9482,19 +9529,19 @@
         <f>IF(H104="I",N104*Contagem!$U$11,IF(H104="E",N104*Contagem!$U$13,IF(H104="A",N104*Contagem!$U$12,IF(H104="T",N104*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P104" s="122"/>
-      <c r="Q104" s="123"/>
-      <c r="R104" s="123"/>
-      <c r="S104" s="123"/>
-      <c r="T104" s="123"/>
+      <c r="P104" s="119"/>
+      <c r="Q104" s="120"/>
+      <c r="R104" s="120"/>
+      <c r="S104" s="120"/>
+      <c r="T104" s="120"/>
     </row>
     <row r="105" spans="1:20" ht="18" customHeight="1">
-      <c r="A105" s="119"/>
-      <c r="B105" s="120"/>
-      <c r="C105" s="120"/>
-      <c r="D105" s="120"/>
-      <c r="E105" s="120"/>
-      <c r="F105" s="121"/>
+      <c r="A105" s="121"/>
+      <c r="B105" s="122"/>
+      <c r="C105" s="122"/>
+      <c r="D105" s="122"/>
+      <c r="E105" s="122"/>
+      <c r="F105" s="123"/>
       <c r="G105" s="17"/>
       <c r="H105" s="23"/>
       <c r="I105" s="17"/>
@@ -9519,19 +9566,19 @@
         <f>IF(H105="I",N105*Contagem!$U$11,IF(H105="E",N105*Contagem!$U$13,IF(H105="A",N105*Contagem!$U$12,IF(H105="T",N105*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P105" s="122"/>
-      <c r="Q105" s="123"/>
-      <c r="R105" s="123"/>
-      <c r="S105" s="123"/>
-      <c r="T105" s="123"/>
+      <c r="P105" s="119"/>
+      <c r="Q105" s="120"/>
+      <c r="R105" s="120"/>
+      <c r="S105" s="120"/>
+      <c r="T105" s="120"/>
     </row>
     <row r="106" spans="1:20" ht="18" customHeight="1">
-      <c r="A106" s="119"/>
-      <c r="B106" s="120"/>
-      <c r="C106" s="120"/>
-      <c r="D106" s="120"/>
-      <c r="E106" s="120"/>
-      <c r="F106" s="121"/>
+      <c r="A106" s="121"/>
+      <c r="B106" s="122"/>
+      <c r="C106" s="122"/>
+      <c r="D106" s="122"/>
+      <c r="E106" s="122"/>
+      <c r="F106" s="123"/>
       <c r="G106" s="17"/>
       <c r="H106" s="23"/>
       <c r="I106" s="17"/>
@@ -9556,19 +9603,19 @@
         <f>IF(H106="I",N106*Contagem!$U$11,IF(H106="E",N106*Contagem!$U$13,IF(H106="A",N106*Contagem!$U$12,IF(H106="T",N106*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P106" s="122"/>
-      <c r="Q106" s="123"/>
-      <c r="R106" s="123"/>
-      <c r="S106" s="123"/>
-      <c r="T106" s="123"/>
+      <c r="P106" s="119"/>
+      <c r="Q106" s="120"/>
+      <c r="R106" s="120"/>
+      <c r="S106" s="120"/>
+      <c r="T106" s="120"/>
     </row>
     <row r="107" spans="1:20" ht="18" customHeight="1">
-      <c r="A107" s="119"/>
-      <c r="B107" s="120"/>
-      <c r="C107" s="120"/>
-      <c r="D107" s="120"/>
-      <c r="E107" s="120"/>
-      <c r="F107" s="121"/>
+      <c r="A107" s="121"/>
+      <c r="B107" s="122"/>
+      <c r="C107" s="122"/>
+      <c r="D107" s="122"/>
+      <c r="E107" s="122"/>
+      <c r="F107" s="123"/>
       <c r="G107" s="17"/>
       <c r="H107" s="23"/>
       <c r="I107" s="17"/>
@@ -9593,19 +9640,19 @@
         <f>IF(H107="I",N107*Contagem!$U$11,IF(H107="E",N107*Contagem!$U$13,IF(H107="A",N107*Contagem!$U$12,IF(H107="T",N107*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P107" s="122"/>
-      <c r="Q107" s="123"/>
-      <c r="R107" s="123"/>
-      <c r="S107" s="123"/>
-      <c r="T107" s="123"/>
+      <c r="P107" s="119"/>
+      <c r="Q107" s="120"/>
+      <c r="R107" s="120"/>
+      <c r="S107" s="120"/>
+      <c r="T107" s="120"/>
     </row>
     <row r="108" spans="1:20" ht="18" customHeight="1">
-      <c r="A108" s="119"/>
-      <c r="B108" s="120"/>
-      <c r="C108" s="120"/>
-      <c r="D108" s="120"/>
-      <c r="E108" s="120"/>
-      <c r="F108" s="121"/>
+      <c r="A108" s="121"/>
+      <c r="B108" s="122"/>
+      <c r="C108" s="122"/>
+      <c r="D108" s="122"/>
+      <c r="E108" s="122"/>
+      <c r="F108" s="123"/>
       <c r="G108" s="17"/>
       <c r="H108" s="23"/>
       <c r="I108" s="17"/>
@@ -9630,19 +9677,19 @@
         <f>IF(H108="I",N108*Contagem!$U$11,IF(H108="E",N108*Contagem!$U$13,IF(H108="A",N108*Contagem!$U$12,IF(H108="T",N108*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P108" s="122"/>
-      <c r="Q108" s="123"/>
-      <c r="R108" s="123"/>
-      <c r="S108" s="123"/>
-      <c r="T108" s="123"/>
+      <c r="P108" s="119"/>
+      <c r="Q108" s="120"/>
+      <c r="R108" s="120"/>
+      <c r="S108" s="120"/>
+      <c r="T108" s="120"/>
     </row>
     <row r="109" spans="1:20" ht="18" customHeight="1">
-      <c r="A109" s="119"/>
-      <c r="B109" s="120"/>
-      <c r="C109" s="120"/>
-      <c r="D109" s="120"/>
-      <c r="E109" s="120"/>
-      <c r="F109" s="121"/>
+      <c r="A109" s="121"/>
+      <c r="B109" s="122"/>
+      <c r="C109" s="122"/>
+      <c r="D109" s="122"/>
+      <c r="E109" s="122"/>
+      <c r="F109" s="123"/>
       <c r="G109" s="17"/>
       <c r="H109" s="23"/>
       <c r="I109" s="17"/>
@@ -9667,19 +9714,19 @@
         <f>IF(H109="I",N109*Contagem!$U$11,IF(H109="E",N109*Contagem!$U$13,IF(H109="A",N109*Contagem!$U$12,IF(H109="T",N109*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P109" s="122"/>
-      <c r="Q109" s="123"/>
-      <c r="R109" s="123"/>
-      <c r="S109" s="123"/>
-      <c r="T109" s="123"/>
+      <c r="P109" s="119"/>
+      <c r="Q109" s="120"/>
+      <c r="R109" s="120"/>
+      <c r="S109" s="120"/>
+      <c r="T109" s="120"/>
     </row>
     <row r="110" spans="1:20" ht="18" customHeight="1">
-      <c r="A110" s="119"/>
-      <c r="B110" s="120"/>
-      <c r="C110" s="120"/>
-      <c r="D110" s="120"/>
-      <c r="E110" s="120"/>
-      <c r="F110" s="121"/>
+      <c r="A110" s="121"/>
+      <c r="B110" s="122"/>
+      <c r="C110" s="122"/>
+      <c r="D110" s="122"/>
+      <c r="E110" s="122"/>
+      <c r="F110" s="123"/>
       <c r="G110" s="17"/>
       <c r="H110" s="23"/>
       <c r="I110" s="17"/>
@@ -9704,19 +9751,19 @@
         <f>IF(H110="I",N110*Contagem!$U$11,IF(H110="E",N110*Contagem!$U$13,IF(H110="A",N110*Contagem!$U$12,IF(H110="T",N110*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P110" s="122"/>
-      <c r="Q110" s="123"/>
-      <c r="R110" s="123"/>
-      <c r="S110" s="123"/>
-      <c r="T110" s="123"/>
+      <c r="P110" s="119"/>
+      <c r="Q110" s="120"/>
+      <c r="R110" s="120"/>
+      <c r="S110" s="120"/>
+      <c r="T110" s="120"/>
     </row>
     <row r="111" spans="1:20" ht="18" customHeight="1">
-      <c r="A111" s="119"/>
-      <c r="B111" s="120"/>
-      <c r="C111" s="120"/>
-      <c r="D111" s="120"/>
-      <c r="E111" s="120"/>
-      <c r="F111" s="121"/>
+      <c r="A111" s="121"/>
+      <c r="B111" s="122"/>
+      <c r="C111" s="122"/>
+      <c r="D111" s="122"/>
+      <c r="E111" s="122"/>
+      <c r="F111" s="123"/>
       <c r="G111" s="17"/>
       <c r="H111" s="23"/>
       <c r="I111" s="17"/>
@@ -9741,19 +9788,19 @@
         <f>IF(H111="I",N111*Contagem!$U$11,IF(H111="E",N111*Contagem!$U$13,IF(H111="A",N111*Contagem!$U$12,IF(H111="T",N111*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P111" s="122"/>
-      <c r="Q111" s="123"/>
-      <c r="R111" s="123"/>
-      <c r="S111" s="123"/>
-      <c r="T111" s="123"/>
+      <c r="P111" s="119"/>
+      <c r="Q111" s="120"/>
+      <c r="R111" s="120"/>
+      <c r="S111" s="120"/>
+      <c r="T111" s="120"/>
     </row>
     <row r="112" spans="1:20" ht="18" customHeight="1">
-      <c r="A112" s="119"/>
-      <c r="B112" s="120"/>
-      <c r="C112" s="120"/>
-      <c r="D112" s="120"/>
-      <c r="E112" s="120"/>
-      <c r="F112" s="121"/>
+      <c r="A112" s="121"/>
+      <c r="B112" s="122"/>
+      <c r="C112" s="122"/>
+      <c r="D112" s="122"/>
+      <c r="E112" s="122"/>
+      <c r="F112" s="123"/>
       <c r="G112" s="17"/>
       <c r="H112" s="23"/>
       <c r="I112" s="17"/>
@@ -9778,19 +9825,19 @@
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P112" s="122"/>
-      <c r="Q112" s="123"/>
-      <c r="R112" s="123"/>
-      <c r="S112" s="123"/>
-      <c r="T112" s="123"/>
+      <c r="P112" s="119"/>
+      <c r="Q112" s="120"/>
+      <c r="R112" s="120"/>
+      <c r="S112" s="120"/>
+      <c r="T112" s="120"/>
     </row>
     <row r="113" spans="1:20" ht="18" customHeight="1">
-      <c r="A113" s="119"/>
-      <c r="B113" s="120"/>
-      <c r="C113" s="120"/>
-      <c r="D113" s="120"/>
-      <c r="E113" s="120"/>
-      <c r="F113" s="121"/>
+      <c r="A113" s="121"/>
+      <c r="B113" s="122"/>
+      <c r="C113" s="122"/>
+      <c r="D113" s="122"/>
+      <c r="E113" s="122"/>
+      <c r="F113" s="123"/>
       <c r="G113" s="17"/>
       <c r="H113" s="23"/>
       <c r="I113" s="17"/>
@@ -9815,19 +9862,19 @@
         <f>IF(H113="I",N113*Contagem!$U$11,IF(H113="E",N113*Contagem!$U$13,IF(H113="A",N113*Contagem!$U$12,IF(H113="T",N113*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P113" s="122"/>
-      <c r="Q113" s="123"/>
-      <c r="R113" s="123"/>
-      <c r="S113" s="123"/>
-      <c r="T113" s="123"/>
+      <c r="P113" s="119"/>
+      <c r="Q113" s="120"/>
+      <c r="R113" s="120"/>
+      <c r="S113" s="120"/>
+      <c r="T113" s="120"/>
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
-      <c r="A114" s="119"/>
-      <c r="B114" s="120"/>
-      <c r="C114" s="120"/>
-      <c r="D114" s="120"/>
-      <c r="E114" s="120"/>
-      <c r="F114" s="121"/>
+      <c r="A114" s="121"/>
+      <c r="B114" s="122"/>
+      <c r="C114" s="122"/>
+      <c r="D114" s="122"/>
+      <c r="E114" s="122"/>
+      <c r="F114" s="123"/>
       <c r="G114" s="17"/>
       <c r="H114" s="23"/>
       <c r="I114" s="17"/>
@@ -9852,19 +9899,19 @@
         <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P114" s="122"/>
-      <c r="Q114" s="123"/>
-      <c r="R114" s="123"/>
-      <c r="S114" s="123"/>
-      <c r="T114" s="123"/>
+      <c r="P114" s="119"/>
+      <c r="Q114" s="120"/>
+      <c r="R114" s="120"/>
+      <c r="S114" s="120"/>
+      <c r="T114" s="120"/>
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
-      <c r="A115" s="119"/>
-      <c r="B115" s="120"/>
-      <c r="C115" s="120"/>
-      <c r="D115" s="120"/>
-      <c r="E115" s="120"/>
-      <c r="F115" s="121"/>
+      <c r="A115" s="121"/>
+      <c r="B115" s="122"/>
+      <c r="C115" s="122"/>
+      <c r="D115" s="122"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="123"/>
       <c r="G115" s="17"/>
       <c r="H115" s="23"/>
       <c r="I115" s="17"/>
@@ -9889,19 +9936,19 @@
         <f>IF(H115="I",N115*Contagem!$U$11,IF(H115="E",N115*Contagem!$U$13,IF(H115="A",N115*Contagem!$U$12,IF(H115="T",N115*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P115" s="122"/>
-      <c r="Q115" s="123"/>
-      <c r="R115" s="123"/>
-      <c r="S115" s="123"/>
-      <c r="T115" s="123"/>
+      <c r="P115" s="119"/>
+      <c r="Q115" s="120"/>
+      <c r="R115" s="120"/>
+      <c r="S115" s="120"/>
+      <c r="T115" s="120"/>
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
-      <c r="A116" s="119"/>
-      <c r="B116" s="120"/>
-      <c r="C116" s="120"/>
-      <c r="D116" s="120"/>
-      <c r="E116" s="120"/>
-      <c r="F116" s="121"/>
+      <c r="A116" s="121"/>
+      <c r="B116" s="122"/>
+      <c r="C116" s="122"/>
+      <c r="D116" s="122"/>
+      <c r="E116" s="122"/>
+      <c r="F116" s="123"/>
       <c r="G116" s="17"/>
       <c r="H116" s="23"/>
       <c r="I116" s="17"/>
@@ -9926,19 +9973,19 @@
         <f>IF(H116="I",N116*Contagem!$U$11,IF(H116="E",N116*Contagem!$U$13,IF(H116="A",N116*Contagem!$U$12,IF(H116="T",N116*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P116" s="122"/>
-      <c r="Q116" s="123"/>
-      <c r="R116" s="123"/>
-      <c r="S116" s="123"/>
-      <c r="T116" s="123"/>
+      <c r="P116" s="119"/>
+      <c r="Q116" s="120"/>
+      <c r="R116" s="120"/>
+      <c r="S116" s="120"/>
+      <c r="T116" s="120"/>
     </row>
     <row r="117" spans="1:20" ht="18" customHeight="1">
-      <c r="A117" s="119"/>
-      <c r="B117" s="120"/>
-      <c r="C117" s="120"/>
-      <c r="D117" s="120"/>
-      <c r="E117" s="120"/>
-      <c r="F117" s="121"/>
+      <c r="A117" s="121"/>
+      <c r="B117" s="122"/>
+      <c r="C117" s="122"/>
+      <c r="D117" s="122"/>
+      <c r="E117" s="122"/>
+      <c r="F117" s="123"/>
       <c r="G117" s="17"/>
       <c r="H117" s="23"/>
       <c r="I117" s="17"/>
@@ -9963,19 +10010,19 @@
         <f>IF(H117="I",N117*Contagem!$U$11,IF(H117="E",N117*Contagem!$U$13,IF(H117="A",N117*Contagem!$U$12,IF(H117="T",N117*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P117" s="122"/>
-      <c r="Q117" s="123"/>
-      <c r="R117" s="123"/>
-      <c r="S117" s="123"/>
-      <c r="T117" s="123"/>
+      <c r="P117" s="119"/>
+      <c r="Q117" s="120"/>
+      <c r="R117" s="120"/>
+      <c r="S117" s="120"/>
+      <c r="T117" s="120"/>
     </row>
     <row r="118" spans="1:20" ht="18" customHeight="1">
-      <c r="A118" s="119"/>
-      <c r="B118" s="120"/>
-      <c r="C118" s="120"/>
-      <c r="D118" s="120"/>
-      <c r="E118" s="120"/>
-      <c r="F118" s="121"/>
+      <c r="A118" s="121"/>
+      <c r="B118" s="122"/>
+      <c r="C118" s="122"/>
+      <c r="D118" s="122"/>
+      <c r="E118" s="122"/>
+      <c r="F118" s="123"/>
       <c r="G118" s="17"/>
       <c r="H118" s="23"/>
       <c r="I118" s="17"/>
@@ -10000,19 +10047,19 @@
         <f>IF(H118="I",N118*Contagem!$U$11,IF(H118="E",N118*Contagem!$U$13,IF(H118="A",N118*Contagem!$U$12,IF(H118="T",N118*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P118" s="122"/>
-      <c r="Q118" s="123"/>
-      <c r="R118" s="123"/>
-      <c r="S118" s="123"/>
-      <c r="T118" s="123"/>
+      <c r="P118" s="119"/>
+      <c r="Q118" s="120"/>
+      <c r="R118" s="120"/>
+      <c r="S118" s="120"/>
+      <c r="T118" s="120"/>
     </row>
     <row r="119" spans="1:20" ht="18" customHeight="1">
-      <c r="A119" s="119"/>
-      <c r="B119" s="120"/>
-      <c r="C119" s="120"/>
-      <c r="D119" s="120"/>
-      <c r="E119" s="120"/>
-      <c r="F119" s="121"/>
+      <c r="A119" s="121"/>
+      <c r="B119" s="122"/>
+      <c r="C119" s="122"/>
+      <c r="D119" s="122"/>
+      <c r="E119" s="122"/>
+      <c r="F119" s="123"/>
       <c r="G119" s="17"/>
       <c r="H119" s="23"/>
       <c r="I119" s="17"/>
@@ -10037,19 +10084,19 @@
         <f>IF(H119="I",N119*Contagem!$U$11,IF(H119="E",N119*Contagem!$U$13,IF(H119="A",N119*Contagem!$U$12,IF(H119="T",N119*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P119" s="122"/>
-      <c r="Q119" s="123"/>
-      <c r="R119" s="123"/>
-      <c r="S119" s="123"/>
-      <c r="T119" s="123"/>
+      <c r="P119" s="119"/>
+      <c r="Q119" s="120"/>
+      <c r="R119" s="120"/>
+      <c r="S119" s="120"/>
+      <c r="T119" s="120"/>
     </row>
     <row r="120" spans="1:20" ht="18" customHeight="1">
-      <c r="A120" s="119"/>
-      <c r="B120" s="120"/>
-      <c r="C120" s="120"/>
-      <c r="D120" s="120"/>
-      <c r="E120" s="120"/>
-      <c r="F120" s="121"/>
+      <c r="A120" s="121"/>
+      <c r="B120" s="122"/>
+      <c r="C120" s="122"/>
+      <c r="D120" s="122"/>
+      <c r="E120" s="122"/>
+      <c r="F120" s="123"/>
       <c r="G120" s="17"/>
       <c r="H120" s="23"/>
       <c r="I120" s="17"/>
@@ -10074,19 +10121,19 @@
         <f>IF(H120="I",N120*Contagem!$U$11,IF(H120="E",N120*Contagem!$U$13,IF(H120="A",N120*Contagem!$U$12,IF(H120="T",N120*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P120" s="122"/>
-      <c r="Q120" s="123"/>
-      <c r="R120" s="123"/>
-      <c r="S120" s="123"/>
-      <c r="T120" s="123"/>
+      <c r="P120" s="119"/>
+      <c r="Q120" s="120"/>
+      <c r="R120" s="120"/>
+      <c r="S120" s="120"/>
+      <c r="T120" s="120"/>
     </row>
     <row r="121" spans="1:20" ht="18" customHeight="1">
-      <c r="A121" s="119"/>
-      <c r="B121" s="120"/>
-      <c r="C121" s="120"/>
-      <c r="D121" s="120"/>
-      <c r="E121" s="120"/>
-      <c r="F121" s="121"/>
+      <c r="A121" s="121"/>
+      <c r="B121" s="122"/>
+      <c r="C121" s="122"/>
+      <c r="D121" s="122"/>
+      <c r="E121" s="122"/>
+      <c r="F121" s="123"/>
       <c r="G121" s="17"/>
       <c r="H121" s="23"/>
       <c r="I121" s="17"/>
@@ -10111,19 +10158,19 @@
         <f>IF(H121="I",N121*Contagem!$U$11,IF(H121="E",N121*Contagem!$U$13,IF(H121="A",N121*Contagem!$U$12,IF(H121="T",N121*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P121" s="122"/>
-      <c r="Q121" s="123"/>
-      <c r="R121" s="123"/>
-      <c r="S121" s="123"/>
-      <c r="T121" s="123"/>
+      <c r="P121" s="119"/>
+      <c r="Q121" s="120"/>
+      <c r="R121" s="120"/>
+      <c r="S121" s="120"/>
+      <c r="T121" s="120"/>
     </row>
     <row r="122" spans="1:20" ht="18" customHeight="1">
-      <c r="A122" s="119"/>
-      <c r="B122" s="120"/>
-      <c r="C122" s="120"/>
-      <c r="D122" s="120"/>
-      <c r="E122" s="120"/>
-      <c r="F122" s="121"/>
+      <c r="A122" s="121"/>
+      <c r="B122" s="122"/>
+      <c r="C122" s="122"/>
+      <c r="D122" s="122"/>
+      <c r="E122" s="122"/>
+      <c r="F122" s="123"/>
       <c r="G122" s="17"/>
       <c r="H122" s="23"/>
       <c r="I122" s="17"/>
@@ -10148,19 +10195,19 @@
         <f>IF(H122="I",N122*Contagem!$U$11,IF(H122="E",N122*Contagem!$U$13,IF(H122="A",N122*Contagem!$U$12,IF(H122="T",N122*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P122" s="122"/>
-      <c r="Q122" s="123"/>
-      <c r="R122" s="123"/>
-      <c r="S122" s="123"/>
-      <c r="T122" s="123"/>
+      <c r="P122" s="119"/>
+      <c r="Q122" s="120"/>
+      <c r="R122" s="120"/>
+      <c r="S122" s="120"/>
+      <c r="T122" s="120"/>
     </row>
     <row r="123" spans="1:20" ht="18" customHeight="1">
-      <c r="A123" s="119"/>
-      <c r="B123" s="120"/>
-      <c r="C123" s="120"/>
-      <c r="D123" s="120"/>
-      <c r="E123" s="120"/>
-      <c r="F123" s="121"/>
+      <c r="A123" s="121"/>
+      <c r="B123" s="122"/>
+      <c r="C123" s="122"/>
+      <c r="D123" s="122"/>
+      <c r="E123" s="122"/>
+      <c r="F123" s="123"/>
       <c r="G123" s="17"/>
       <c r="H123" s="23"/>
       <c r="I123" s="17"/>
@@ -10185,11 +10232,11 @@
         <f>IF(H123="I",N123*Contagem!$U$11,IF(H123="E",N123*Contagem!$U$13,IF(H123="A",N123*Contagem!$U$12,IF(H123="T",N123*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P123" s="122"/>
-      <c r="Q123" s="123"/>
-      <c r="R123" s="123"/>
-      <c r="S123" s="123"/>
-      <c r="T123" s="123"/>
+      <c r="P123" s="119"/>
+      <c r="Q123" s="120"/>
+      <c r="R123" s="120"/>
+      <c r="S123" s="120"/>
+      <c r="T123" s="120"/>
     </row>
     <row r="124" spans="1:20" ht="18" customHeight="1">
       <c r="A124" s="24"/>
@@ -10222,84 +10269,143 @@
         <f>IF(H124="I",N124*Contagem!$U$11,IF(H124="E",N124*Contagem!$U$13,IF(H124="A",N124*Contagem!$U$12,IF(H124="T",N124*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P124" s="122"/>
-      <c r="Q124" s="123"/>
-      <c r="R124" s="123"/>
-      <c r="S124" s="123"/>
-      <c r="T124" s="123"/>
+      <c r="P124" s="119"/>
+      <c r="Q124" s="120"/>
+      <c r="R124" s="120"/>
+      <c r="S124" s="120"/>
+      <c r="T124" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="228">
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="P100:T100"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="P121:T121"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="P123:T123"/>
+    <mergeCell ref="P124:T124"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="P118:T118"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="P122:T122"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="G5:T5"/>
     <mergeCell ref="A1:O3"/>
     <mergeCell ref="A11:F11"/>
@@ -10324,213 +10430,154 @@
     <mergeCell ref="P23:T23"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
     <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
     <mergeCell ref="P55:T55"/>
     <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="P99:T99"/>
+    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="P108:T108"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="P102:T102"/>
     <mergeCell ref="P103:T103"/>
     <mergeCell ref="P104:T104"/>
-    <mergeCell ref="P109:T109"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="P113:T113"/>
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="P122:T122"/>
-    <mergeCell ref="P123:T123"/>
-    <mergeCell ref="P124:T124"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="P118:T118"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="P120:T120"/>
-    <mergeCell ref="P121:T121"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="H37:H42 H28:H34 H8:H26 H44:H124">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H42 H28:H34 H8:H26 H44:H124">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H42 H28:H34 H8:H26 H44:H124">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10566,88 +10613,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="150"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="148"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="132"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="151"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="153"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="151"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="143" t="str">
+      <c r="A4" s="156" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="146" t="str">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="144" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="147"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="145"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="143" t="str">
+      <c r="A5" s="156" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="146" t="str">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="144" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="147"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="145"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="26" t="str">
@@ -10658,58 +10705,58 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="145" t="str">
+      <c r="F6" s="143" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="145" t="str">
+      <c r="G6" s="106"/>
+      <c r="H6" s="143" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="156" t="str">
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="154" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 133</v>
       </c>
-      <c r="L6" s="147"/>
+      <c r="L6" s="145"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="154" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="144" t="s">
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144" t="s">
+      <c r="H7" s="142"/>
+      <c r="I7" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="155"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="153"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="153"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="151"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="29"/>
@@ -11605,11 +11652,11 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="142" t="s">
+      <c r="B55" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="98"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="106"/>
       <c r="E55" s="48">
         <f>SUMIF(Funções!$H$8:$H$124,"I",Funções!$N$8:$N$124)</f>
         <v>133</v>
@@ -11632,11 +11679,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="142" t="s">
+      <c r="B56" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="98"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="106"/>
       <c r="E56" s="48">
         <f>SUMIF(Funções!$H$8:$H$124,"A",Funções!$N$8:$N$124)</f>
         <v>0</v>
@@ -11660,11 +11707,11 @@
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="142" t="s">
+      <c r="B57" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="98"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="106"/>
       <c r="E57" s="48">
         <f>SUMIF(Funções!$H$8:$H$124,"E",Funções!$N$8:$N$124)</f>
         <v>0</v>
@@ -11685,11 +11732,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="142" t="s">
+      <c r="B58" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="98"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="106"/>
       <c r="E58" s="48">
         <f>SUMIF(Funções!$H$8:$H$124,"T",Funções!$N$8:$N$124)</f>
         <v>0</v>
@@ -11724,6 +11771,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F4:L4"/>
@@ -11737,11 +11789,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/2-Requisitos/2.5-Planilha_de_Contagem/Cópia de 005 - Template - Planilha de Contagem em APF.xlsx
+++ b/2-Requisitos/2.5-Planilha_de_Contagem/Cópia de 005 - Template - Planilha de Contagem em APF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andressa\Desktop\Felipe\development\SISCEI\SISCEI-root\2-Requisitos\2.5-Planilha_de_Contagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Workspaces\Praticas Profissionais\SISCEI\2-Requisitos\2.5-Planilha_de_Contagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sumário" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CF">Funções!$K$8:$K$124</definedName>
+    <definedName name="CF">Funções!$K$8:$K$125</definedName>
     <definedName name="Data">Contagem!$X$7</definedName>
     <definedName name="Projeto">Contagem!$F$6</definedName>
     <definedName name="Responsável">Contagem!$F$7</definedName>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="170">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -533,21 +533,6 @@
     <t>ALi</t>
   </si>
   <si>
-    <t>ALI - 20 / 6</t>
-  </si>
-  <si>
-    <t>AIE - 5 / 1</t>
-  </si>
-  <si>
-    <t>Matricular Aluno</t>
-  </si>
-  <si>
-    <t>Alterar Matricula de aluno</t>
-  </si>
-  <si>
-    <t>Visualizar Matricula de aluno</t>
-  </si>
-  <si>
     <t>Combo de cursos</t>
   </si>
   <si>
@@ -560,9 +545,6 @@
     <t>Consultar conta bancária</t>
   </si>
   <si>
-    <t>Consultar alunos matriculados</t>
-  </si>
-  <si>
     <t>Emitir contrato de matricula</t>
   </si>
   <si>
@@ -711,6 +693,72 @@
   </si>
   <si>
     <t>Emitir relatorio de compras</t>
+  </si>
+  <si>
+    <t>Emitir relatório de cursos</t>
+  </si>
+  <si>
+    <t>Cadastrar Aluno</t>
+  </si>
+  <si>
+    <t>Alterar aluno</t>
+  </si>
+  <si>
+    <t>Visualizar aluno</t>
+  </si>
+  <si>
+    <t>Consultar alunos</t>
+  </si>
+  <si>
+    <t>Emitir relatório de alunos</t>
+  </si>
+  <si>
+    <t>Gerenciar matricula</t>
+  </si>
+  <si>
+    <t>Gerenciar matriula ALI</t>
+  </si>
+  <si>
+    <t>Matricular aluno</t>
+  </si>
+  <si>
+    <t>Alterar matricula</t>
+  </si>
+  <si>
+    <t>Excluir matricula</t>
+  </si>
+  <si>
+    <t>Consultar matricula</t>
+  </si>
+  <si>
+    <t>Emitir relatorio de alunos matriculados</t>
+  </si>
+  <si>
+    <t>Visualizar matricula</t>
+  </si>
+  <si>
+    <t>Gerenciar Turma</t>
+  </si>
+  <si>
+    <t>Gerenciar turma ALI</t>
+  </si>
+  <si>
+    <t>Cadastrar turma</t>
+  </si>
+  <si>
+    <t>Alterar turma</t>
+  </si>
+  <si>
+    <t>Visualizar turma</t>
+  </si>
+  <si>
+    <t>Consultar turma</t>
+  </si>
+  <si>
+    <t>excluir turma</t>
+  </si>
+  <si>
+    <t>Emitir reltorio de turmas</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1525,33 +1573,33 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1561,27 +1609,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1593,24 +1653,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,12 +1680,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1665,68 +1719,17 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <color rgb="FFDD0806"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006411"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <font>
         <color rgb="FFDD0806"/>
@@ -2001,12 +2004,63 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF6600"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF99"/>
           <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
         </patternFill>
       </fill>
       <border>
@@ -2154,12 +2208,471 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF6600"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF99"/>
           <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
         </patternFill>
       </fill>
       <border>
@@ -2409,12 +2922,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFDD0806"/>
+        <color rgb="FFFF6600"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFCC99"/>
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
       <border>
@@ -2426,12 +2939,29 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF6600"/>
+        <color rgb="FF006411"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
         </patternFill>
       </fill>
       <border>
@@ -2477,6 +3007,40 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006411"/>
       </font>
       <fill>
@@ -2511,63 +3075,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFDD0806"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF6600"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF99"/>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006411"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
         </patternFill>
       </fill>
       <border>
@@ -3232,6 +3745,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3573,6 +4134,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3978,13 +4587,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4022,7 +4679,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4094,7 +4751,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4264,7 +4921,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="106"/>
@@ -4376,45 +5033,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="119" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="102"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="119" t="s">
+      <c r="U4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="102"/>
-      <c r="W4" s="122">
+      <c r="V4" s="116"/>
+      <c r="W4" s="123">
         <f>W5*T4</f>
         <v>0</v>
       </c>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="102"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="116"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -4424,43 +5081,43 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="116" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="119" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="102"/>
-      <c r="W5" s="115">
+      <c r="V5" s="116"/>
+      <c r="W5" s="122">
         <f>SUM(Y11:Y14)</f>
-        <v>338</v>
-      </c>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="102"/>
+        <v>425</v>
+      </c>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="116"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -4470,38 +5127,38 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="116" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="102"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="116"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -4511,40 +5168,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="103" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="100"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="102"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="116"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -4554,38 +5211,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="103" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="100"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="102"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="116"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -4631,46 +5288,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="121" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="107"/>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="102"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="116"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="118" t="s">
+      <c r="O10" s="121" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="106"/>
-      <c r="Q10" s="119" t="s">
+      <c r="Q10" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="119" t="s">
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="119" t="s">
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="102"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="116"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -4682,44 +5339,44 @@
     <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="108"/>
       <c r="B11" s="110"/>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="102"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="108"/>
       <c r="P11" s="109"/>
-      <c r="Q11" s="103" t="s">
+      <c r="Q11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="102"/>
-      <c r="S11" s="115">
+      <c r="R11" s="116"/>
+      <c r="S11" s="122">
         <f>Sumário!E55</f>
-        <v>338</v>
-      </c>
-      <c r="T11" s="102"/>
-      <c r="U11" s="104">
+        <v>425</v>
+      </c>
+      <c r="T11" s="116"/>
+      <c r="U11" s="127">
         <v>1</v>
       </c>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="115">
+      <c r="V11" s="115"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="122">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
-        <v>338</v>
-      </c>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="102"/>
+        <v>425</v>
+      </c>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="116"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -4731,44 +5388,44 @@
     <row r="12" spans="1:35" ht="12" customHeight="1">
       <c r="A12" s="108"/>
       <c r="B12" s="110"/>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="102"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="108"/>
       <c r="P12" s="109"/>
-      <c r="Q12" s="103" t="s">
+      <c r="Q12" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="100"/>
-      <c r="S12" s="115">
+      <c r="R12" s="115"/>
+      <c r="S12" s="122">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="102"/>
-      <c r="U12" s="104">
+      <c r="T12" s="116"/>
+      <c r="U12" s="127">
         <v>1</v>
       </c>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="115">
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="100"/>
-      <c r="AB12" s="102"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115"/>
+      <c r="AB12" s="116"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -4780,44 +5437,44 @@
     <row r="13" spans="1:35" ht="12" customHeight="1">
       <c r="A13" s="108"/>
       <c r="B13" s="110"/>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="102"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="108"/>
       <c r="P13" s="109"/>
-      <c r="Q13" s="103" t="s">
+      <c r="Q13" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="100"/>
-      <c r="S13" s="115">
+      <c r="R13" s="115"/>
+      <c r="S13" s="122">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="102"/>
-      <c r="U13" s="104">
+      <c r="T13" s="116"/>
+      <c r="U13" s="127">
         <v>1</v>
       </c>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="115">
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="102"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="116"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -4843,24 +5500,24 @@
       <c r="N14" s="4"/>
       <c r="O14" s="111"/>
       <c r="P14" s="112"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="115">
+      <c r="Q14" s="119"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="122">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="102"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="115">
+      <c r="T14" s="116"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="102"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="116"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -4920,7 +5577,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="117" t="s">
+      <c r="K16" s="126" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="112"/>
@@ -4949,7 +5606,7 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="105"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="106"/>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
@@ -5810,7 +6467,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="117" t="s">
+      <c r="K40" s="126" t="s">
         <v>24</v>
       </c>
       <c r="L40" s="112"/>
@@ -5839,7 +6496,7 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="105"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="106"/>
       <c r="C41" s="106"/>
       <c r="D41" s="106"/>
@@ -6617,6 +7274,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A17:AB38"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="A41:AB60"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="F6:AB6"/>
     <mergeCell ref="A1:AB3"/>
     <mergeCell ref="F5:T5"/>
     <mergeCell ref="A4:E4"/>
@@ -6633,39 +7323,6 @@
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="Y13:AB13"/>
     <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A41:AB60"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="A17:AB38"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="F7:T7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -6678,11 +7335,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T124"/>
+  <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:F93"/>
+      <pane ySplit="7" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -6773,76 +7430,76 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="128" t="str">
+      <c r="A4" s="147" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="129" t="str">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="136" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="102"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="138" t="str">
+      <c r="A5" s="139" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="129" t="str">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="136" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="102"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="116"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="138" t="str">
+      <c r="A6" s="139" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="129" t="str">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="136" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="145" t="str">
+      <c r="G6" s="116"/>
+      <c r="H6" s="146" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
@@ -6851,11 +7508,11 @@
       <c r="K6" s="112"/>
       <c r="L6" s="112"/>
       <c r="M6" s="113"/>
-      <c r="N6" s="143" t="str">
+      <c r="N6" s="144" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 338</v>
-      </c>
-      <c r="O6" s="144"/>
+        <v>PF  = 425</v>
+      </c>
+      <c r="O6" s="145"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -6863,14 +7520,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="102"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -6898,62 +7555,62 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="130" t="s">
+      <c r="P7" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="139" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
+      <c r="A8" s="140" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
       <c r="G8" s="71"/>
       <c r="H8" s="72"/>
       <c r="I8" s="71"/>
       <c r="J8" s="71"/>
       <c r="K8" s="71" t="str">
-        <f t="shared" ref="K8:K124" si="0">CONCATENATE(G8,L8)</f>
+        <f t="shared" ref="K8:K125" si="0">CONCATENATE(G8,L8)</f>
         <v/>
       </c>
       <c r="L8" s="73" t="str">
-        <f t="shared" ref="L8:L124" si="1">IF(OR(ISBLANK(I8),ISBLANK(J8)),IF(OR(G8="ALI",G8="AIE"),"L",IF(ISBLANK(G8),"","A")),IF(G8="EE",IF(J8&gt;=3,IF(I8&gt;=5,"H","A"),IF(J8&gt;=2,IF(I8&gt;=16,"H",IF(I8&lt;=4,"L","A")),IF(I8&lt;=15,"L","A"))),IF(OR(G8="SE",G8="CE"),IF(J8&gt;=4,IF(I8&gt;=6,"H","A"),IF(J8&gt;=2,IF(I8&gt;=20,"H",IF(I8&lt;=5,"L","A")),IF(I8&lt;=19,"L","A"))),IF(OR(G8="ALI",G8="AIE"),IF(J8&gt;=6,IF(I8&gt;=20,"H","A"),IF(J8&gt;=2,IF(I8&gt;=51,"H",IF(I8&lt;=19,"L","A")),IF(I8&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L8:L125" si="1">IF(OR(ISBLANK(I8),ISBLANK(J8)),IF(OR(G8="ALI",G8="AIE"),"L",IF(ISBLANK(G8),"","A")),IF(G8="EE",IF(J8&gt;=3,IF(I8&gt;=5,"H","A"),IF(J8&gt;=2,IF(I8&gt;=16,"H",IF(I8&lt;=4,"L","A")),IF(I8&lt;=15,"L","A"))),IF(OR(G8="SE",G8="CE"),IF(J8&gt;=4,IF(I8&gt;=6,"H","A"),IF(J8&gt;=2,IF(I8&gt;=20,"H",IF(I8&lt;=5,"L","A")),IF(I8&lt;=19,"L","A"))),IF(OR(G8="ALI",G8="AIE"),IF(J8&gt;=6,IF(I8&gt;=20,"H","A"),IF(J8&gt;=2,IF(I8&gt;=51,"H",IF(I8&lt;=19,"L","A")),IF(I8&lt;=50,"L","A")))))))</f>
         <v/>
       </c>
       <c r="M8" s="74" t="str">
-        <f t="shared" ref="M8:M124" si="2">IF(L8="L","Baixa",IF(L8="A","Média",IF(L8="","","Alta")))</f>
+        <f t="shared" ref="M8:M125" si="2">IF(L8="L","Baixa",IF(L8="A","Média",IF(L8="","","Alta")))</f>
         <v/>
       </c>
       <c r="N8" s="75" t="str">
-        <f t="shared" ref="N8:N124" si="3">IF(ISBLANK(G8),"",IF(G8="ALI",IF(L8="L",7,IF(L8="A",10,15)),IF(G8="AIE",IF(L8="L",5,IF(L8="A",7,10)),IF(G8="SE",IF(L8="L",4,IF(L8="A",5,7)),IF(OR(G8="EE",G8="CE"),IF(L8="L",3,IF(L8="A",4,6)))))))</f>
+        <f t="shared" ref="N8:N125" si="3">IF(ISBLANK(G8),"",IF(G8="ALI",IF(L8="L",7,IF(L8="A",10,15)),IF(G8="AIE",IF(L8="L",5,IF(L8="A",7,10)),IF(G8="SE",IF(L8="L",4,IF(L8="A",5,7)),IF(OR(G8="EE",G8="CE"),IF(L8="L",3,IF(L8="A",4,6)))))))</f>
         <v/>
       </c>
       <c r="O8" s="76" t="str">
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="133"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="133"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
       <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
@@ -6982,31 +7639,33 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P9" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="125"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="16">
+        <v>5</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
       <c r="K10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>AIEL</v>
@@ -7027,23 +7686,21 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P10" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="125"/>
+      <c r="A11" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
       <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
@@ -7072,21 +7729,21 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
+      <c r="A12" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="16" t="s">
         <v>37</v>
       </c>
@@ -7115,21 +7772,21 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
+      <c r="A13" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="16" t="s">
         <v>38</v>
       </c>
@@ -7158,21 +7815,21 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
+      <c r="A14" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="16" t="s">
         <v>38</v>
       </c>
@@ -7201,21 +7858,21 @@
         <f>IF(H14="I",N14*Contagem!$U$11,IF(H14="E",N14*Contagem!$U$13,IF(H14="A",N14*Contagem!$U$12,IF(H14="T",N14*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="125"/>
+      <c r="A15" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
       <c r="G15" s="16" t="s">
         <v>38</v>
       </c>
@@ -7244,15 +7901,15 @@
         <f>IF(H15="I",N15*Contagem!$U$11,IF(H15="E",N15*Contagem!$U$13,IF(H15="A",N15*Contagem!$U$12,IF(H15="T",N15*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133"/>
     </row>
     <row r="16" spans="1:20" s="85" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="86" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
@@ -7295,7 +7952,7 @@
     </row>
     <row r="17" spans="1:20" s="85" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="86" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
@@ -7398,14 +8055,14 @@
       <c r="T19" s="78"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="137"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="17" t="s">
         <v>35</v>
       </c>
@@ -7438,21 +8095,21 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="133"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="133"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
       <c r="G21" s="17" t="s">
         <v>37</v>
       </c>
@@ -7485,21 +8142,21 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
       <c r="G22" s="17" t="s">
         <v>37</v>
       </c>
@@ -7532,21 +8189,21 @@
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="133"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="133"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="125"/>
+      <c r="A23" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="17" t="s">
         <v>51</v>
       </c>
@@ -7579,21 +8236,21 @@
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="133"/>
+      <c r="S23" s="133"/>
+      <c r="T23" s="133"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="125"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
       <c r="G24" s="17" t="s">
         <v>38</v>
       </c>
@@ -7626,21 +8283,21 @@
         <f>IF(H24="I",N24*Contagem!$U$11,IF(H24="E",N24*Contagem!$U$13,IF(H24="A",N24*Contagem!$U$12,IF(H24="T",N24*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="133"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="133"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
       <c r="G25" s="17" t="s">
         <v>38</v>
       </c>
@@ -7673,11 +8330,11 @@
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="133"/>
+      <c r="R25" s="133"/>
+      <c r="S25" s="133"/>
+      <c r="T25" s="133"/>
     </row>
     <row r="26" spans="1:20" s="85" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="86" t="s">
@@ -7720,11 +8377,11 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
     </row>
     <row r="27" spans="1:20" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="80" t="s">
@@ -7751,14 +8408,14 @@
       <c r="T27" s="84"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
       <c r="G28" s="17" t="s">
         <v>35</v>
       </c>
@@ -7791,21 +8448,21 @@
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="133"/>
+      <c r="R28" s="133"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="125"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
       <c r="G29" s="17" t="s">
         <v>37</v>
       </c>
@@ -7838,21 +8495,21 @@
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="133"/>
+      <c r="R29" s="133"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="123" t="s">
+      <c r="A30" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="125"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
       <c r="G30" s="17" t="s">
         <v>37</v>
       </c>
@@ -7885,21 +8542,21 @@
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="133"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="133"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="125"/>
+      <c r="A31" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
       <c r="G31" s="17" t="s">
         <v>51</v>
       </c>
@@ -7932,21 +8589,21 @@
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="133"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="133"/>
+      <c r="T31" s="133"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="123" t="s">
+      <c r="A32" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="124"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="125"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
       <c r="G32" s="17" t="s">
         <v>38</v>
       </c>
@@ -7979,21 +8636,21 @@
         <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="133"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="123" t="s">
+      <c r="A33" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="125"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
       <c r="G33" s="17" t="s">
         <v>38</v>
       </c>
@@ -8026,11 +8683,11 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="133"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="133"/>
     </row>
     <row r="34" spans="1:20" s="85" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="86" t="s">
@@ -8073,21 +8730,21 @@
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="127"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="133"/>
+      <c r="R34" s="133"/>
+      <c r="S34" s="133"/>
+      <c r="T34" s="133"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="68"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="71"/>
       <c r="H35" s="72"/>
       <c r="I35" s="71"/>
@@ -8097,21 +8754,21 @@
       <c r="M35" s="74"/>
       <c r="N35" s="75"/>
       <c r="O35" s="76"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
     </row>
     <row r="36" spans="1:20" s="85" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="125"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="131"/>
       <c r="G36" s="17" t="s">
         <v>93</v>
       </c>
@@ -8144,21 +8801,21 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="127"/>
-      <c r="T36" s="127"/>
+      <c r="P36" s="132"/>
+      <c r="Q36" s="133"/>
+      <c r="R36" s="133"/>
+      <c r="S36" s="133"/>
+      <c r="T36" s="133"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="123" t="s">
+      <c r="A37" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="125"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="131"/>
       <c r="G37" s="17" t="s">
         <v>37</v>
       </c>
@@ -8191,21 +8848,21 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="133"/>
+      <c r="S37" s="133"/>
+      <c r="T37" s="133"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="123" t="s">
+      <c r="A38" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="124"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="125"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="131"/>
       <c r="G38" s="17" t="s">
         <v>37</v>
       </c>
@@ -8238,21 +8895,21 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="127"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="127"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="133"/>
+      <c r="R38" s="133"/>
+      <c r="S38" s="133"/>
+      <c r="T38" s="133"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="123" t="s">
+      <c r="A39" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="125"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="131"/>
       <c r="G39" s="17" t="s">
         <v>38</v>
       </c>
@@ -8285,23 +8942,23 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P39" s="126"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="127"/>
+      <c r="P39" s="132"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="133"/>
+      <c r="T39" s="133"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="123" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="125"/>
+      <c r="A40" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="131"/>
       <c r="G40" s="17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H40" s="23" t="s">
         <v>36</v>
@@ -8314,7 +8971,7 @@
       </c>
       <c r="K40" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEL</v>
+        <v>SEL</v>
       </c>
       <c r="L40" s="18" t="str">
         <f t="shared" si="1"/>
@@ -8326,27 +8983,27 @@
       </c>
       <c r="N40" s="20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O40" s="21">
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
-      <c r="P40" s="126"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P40" s="132"/>
+      <c r="Q40" s="133"/>
+      <c r="R40" s="133"/>
+      <c r="S40" s="133"/>
+      <c r="T40" s="133"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="125"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="131"/>
       <c r="G41" s="17" t="s">
         <v>38</v>
       </c>
@@ -8379,21 +9036,21 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="127"/>
+      <c r="P41" s="132"/>
+      <c r="Q41" s="133"/>
+      <c r="R41" s="133"/>
+      <c r="S41" s="133"/>
+      <c r="T41" s="133"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="125"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="131"/>
       <c r="G42" s="17" t="s">
         <v>51</v>
       </c>
@@ -8426,21 +9083,21 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="127"/>
+      <c r="P42" s="132"/>
+      <c r="Q42" s="133"/>
+      <c r="R42" s="133"/>
+      <c r="S42" s="133"/>
+      <c r="T42" s="133"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="91" t="s">
-        <v>107</v>
+      <c r="A43" s="100" t="s">
+        <v>101</v>
       </c>
       <c r="B43" s="68"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="93"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="102"/>
       <c r="G43" s="71"/>
       <c r="H43" s="72"/>
       <c r="I43" s="71"/>
@@ -8465,21 +9122,21 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="94"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="123" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="125"/>
+      <c r="A44" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
       <c r="G44" s="17" t="s">
         <v>37</v>
       </c>
@@ -8512,21 +9169,21 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P44" s="126"/>
-      <c r="Q44" s="127"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="127"/>
+      <c r="P44" s="132"/>
+      <c r="Q44" s="133"/>
+      <c r="R44" s="133"/>
+      <c r="S44" s="133"/>
+      <c r="T44" s="133"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="123" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="125"/>
+      <c r="A45" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="131"/>
       <c r="G45" s="17" t="s">
         <v>37</v>
       </c>
@@ -8559,23 +9216,23 @@
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P45" s="126"/>
-      <c r="Q45" s="127"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="127"/>
-      <c r="T45" s="127"/>
+      <c r="P45" s="132"/>
+      <c r="Q45" s="133"/>
+      <c r="R45" s="133"/>
+      <c r="S45" s="133"/>
+      <c r="T45" s="133"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="123" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="125"/>
+      <c r="A46" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
       <c r="G46" s="17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H46" s="23" t="s">
         <v>36</v>
@@ -8588,7 +9245,7 @@
       </c>
       <c r="K46" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEL</v>
+        <v>SEL</v>
       </c>
       <c r="L46" s="18" t="str">
         <f t="shared" si="1"/>
@@ -8600,27 +9257,27 @@
       </c>
       <c r="N46" s="20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O46" s="21">
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="127"/>
-      <c r="R46" s="127"/>
-      <c r="S46" s="127"/>
-      <c r="T46" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P46" s="132"/>
+      <c r="Q46" s="133"/>
+      <c r="R46" s="133"/>
+      <c r="S46" s="133"/>
+      <c r="T46" s="133"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="124"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="125"/>
+      <c r="A47" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="131"/>
       <c r="G47" s="17" t="s">
         <v>38</v>
       </c>
@@ -8653,21 +9310,21 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P47" s="126"/>
-      <c r="Q47" s="127"/>
-      <c r="R47" s="127"/>
-      <c r="S47" s="127"/>
-      <c r="T47" s="127"/>
+      <c r="P47" s="132"/>
+      <c r="Q47" s="133"/>
+      <c r="R47" s="133"/>
+      <c r="S47" s="133"/>
+      <c r="T47" s="133"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="124"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="125"/>
+      <c r="A48" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="131"/>
       <c r="G48" s="17" t="s">
         <v>38</v>
       </c>
@@ -8700,21 +9357,21 @@
         <f>IF(H48="I",N48*Contagem!$U$11,IF(H48="E",N48*Contagem!$U$13,IF(H48="A",N48*Contagem!$U$12,IF(H48="T",N48*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="127"/>
-      <c r="R48" s="127"/>
-      <c r="S48" s="127"/>
-      <c r="T48" s="127"/>
+      <c r="P48" s="132"/>
+      <c r="Q48" s="133"/>
+      <c r="R48" s="133"/>
+      <c r="S48" s="133"/>
+      <c r="T48" s="133"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="125"/>
+      <c r="A49" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="131"/>
       <c r="G49" s="17" t="s">
         <v>51</v>
       </c>
@@ -8747,21 +9404,21 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="127"/>
-      <c r="R49" s="127"/>
-      <c r="S49" s="127"/>
-      <c r="T49" s="127"/>
+      <c r="P49" s="132"/>
+      <c r="Q49" s="133"/>
+      <c r="R49" s="133"/>
+      <c r="S49" s="133"/>
+      <c r="T49" s="133"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="125"/>
+      <c r="A50" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="131"/>
       <c r="G50" s="17" t="s">
         <v>35</v>
       </c>
@@ -8794,60 +9451,60 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P50" s="126"/>
-      <c r="Q50" s="127"/>
-      <c r="R50" s="127"/>
-      <c r="S50" s="127"/>
-      <c r="T50" s="127"/>
+      <c r="P50" s="132"/>
+      <c r="Q50" s="133"/>
+      <c r="R50" s="133"/>
+      <c r="S50" s="133"/>
+      <c r="T50" s="133"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="71"/>
+      <c r="A51" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="100"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="72"/>
       <c r="J51" s="71"/>
       <c r="K51" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L51" s="73" t="str">
+      <c r="L51" s="71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M51" s="74" t="str">
+      <c r="M51" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N51" s="75" t="str">
+      <c r="N51" s="74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O51" s="76" t="str">
+      <c r="O51" s="75" t="str">
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P51" s="98"/>
+      <c r="P51" s="76"/>
       <c r="Q51" s="98"/>
-      <c r="R51" s="98"/>
-      <c r="S51" s="98"/>
-      <c r="T51" s="95"/>
+      <c r="R51" s="99"/>
+      <c r="S51" s="99"/>
+      <c r="T51" s="99"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="124"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="125"/>
+      <c r="A52" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="131"/>
       <c r="G52" s="17" t="s">
         <v>37</v>
       </c>
@@ -8876,21 +9533,21 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P52" s="126"/>
-      <c r="Q52" s="127"/>
-      <c r="R52" s="127"/>
-      <c r="S52" s="127"/>
-      <c r="T52" s="127"/>
+      <c r="P52" s="132"/>
+      <c r="Q52" s="133"/>
+      <c r="R52" s="133"/>
+      <c r="S52" s="133"/>
+      <c r="T52" s="133"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
-      <c r="A53" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="125"/>
+      <c r="A53" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="131"/>
       <c r="G53" s="17" t="s">
         <v>37</v>
       </c>
@@ -8919,23 +9576,23 @@
         <f>IF(H53="I",N53*Contagem!$U$11,IF(H53="E",N53*Contagem!$U$13,IF(H53="A",N53*Contagem!$U$12,IF(H53="T",N53*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="127"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="127"/>
-      <c r="T53" s="127"/>
+      <c r="P53" s="132"/>
+      <c r="Q53" s="133"/>
+      <c r="R53" s="133"/>
+      <c r="S53" s="133"/>
+      <c r="T53" s="133"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="124"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="125"/>
+      <c r="A54" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="131"/>
       <c r="G54" s="17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>36</v>
@@ -8944,7 +9601,7 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>SEA</v>
       </c>
       <c r="L54" s="18" t="str">
         <f t="shared" si="1"/>
@@ -8956,27 +9613,27 @@
       </c>
       <c r="N54" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O54" s="21">
         <f>IF(H54="I",N54*Contagem!$U$11,IF(H54="E",N54*Contagem!$U$13,IF(H54="A",N54*Contagem!$U$12,IF(H54="T",N54*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P54" s="126"/>
-      <c r="Q54" s="127"/>
-      <c r="R54" s="127"/>
-      <c r="S54" s="127"/>
-      <c r="T54" s="127"/>
+        <v>5</v>
+      </c>
+      <c r="P54" s="132"/>
+      <c r="Q54" s="133"/>
+      <c r="R54" s="133"/>
+      <c r="S54" s="133"/>
+      <c r="T54" s="133"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="124"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="125"/>
+      <c r="A55" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="130"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="131"/>
       <c r="G55" s="17" t="s">
         <v>38</v>
       </c>
@@ -9005,21 +9662,21 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="127"/>
-      <c r="R55" s="127"/>
-      <c r="S55" s="127"/>
-      <c r="T55" s="127"/>
+      <c r="P55" s="132"/>
+      <c r="Q55" s="133"/>
+      <c r="R55" s="133"/>
+      <c r="S55" s="133"/>
+      <c r="T55" s="133"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
-      <c r="A56" s="123" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="125"/>
+      <c r="A56" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="131"/>
       <c r="G56" s="17" t="s">
         <v>37</v>
       </c>
@@ -9029,42 +9686,42 @@
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G56,L56)</f>
         <v>EEA</v>
       </c>
       <c r="L56" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(ISBLANK(I56),ISBLANK(J56)),IF(OR(G56="ALI",G56="AIE"),"L",IF(ISBLANK(G56),"","A")),IF(G56="EE",IF(J56&gt;=3,IF(I56&gt;=5,"H","A"),IF(J56&gt;=2,IF(I56&gt;=16,"H",IF(I56&lt;=4,"L","A")),IF(I56&lt;=15,"L","A"))),IF(OR(G56="SE",G56="CE"),IF(J56&gt;=4,IF(I56&gt;=6,"H","A"),IF(J56&gt;=2,IF(I56&gt;=20,"H",IF(I56&lt;=5,"L","A")),IF(I56&lt;=19,"L","A"))),IF(OR(G56="ALI",G56="AIE"),IF(J56&gt;=6,IF(I56&gt;=20,"H","A"),IF(J56&gt;=2,IF(I56&gt;=51,"H",IF(I56&lt;=19,"L","A")),IF(I56&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
       <c r="M56" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(L56="L","Baixa",IF(L56="A","Média",IF(L56="","","Alta")))</f>
         <v>Média</v>
       </c>
       <c r="N56" s="20">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(G56),"",IF(G56="ALI",IF(L56="L",7,IF(L56="A",10,15)),IF(G56="AIE",IF(L56="L",5,IF(L56="A",7,10)),IF(G56="SE",IF(L56="L",4,IF(L56="A",5,7)),IF(OR(G56="EE",G56="CE"),IF(L56="L",3,IF(L56="A",4,6)))))))</f>
         <v>4</v>
       </c>
       <c r="O56" s="21">
         <f>IF(H56="I",N56*Contagem!$U$11,IF(H56="E",N56*Contagem!$U$13,IF(H56="A",N56*Contagem!$U$12,IF(H56="T",N56*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="127"/>
-      <c r="R56" s="127"/>
-      <c r="S56" s="127"/>
-      <c r="T56" s="127"/>
-    </row>
-    <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="124"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="125"/>
+      <c r="P56" s="132"/>
+      <c r="Q56" s="133"/>
+      <c r="R56" s="133"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="133"/>
+    </row>
+    <row r="57" spans="1:20" s="92" customFormat="1" ht="18" customHeight="1">
+      <c r="A57" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="95"/>
       <c r="G57" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H57" s="23" t="s">
         <v>36</v>
@@ -9072,123 +9729,123 @@
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17" t="str">
+        <f>CONCATENATE(G57,L57)</f>
+        <v>SEA</v>
+      </c>
+      <c r="L57" s="18" t="str">
+        <f>IF(OR(ISBLANK(I57),ISBLANK(J57)),IF(OR(G57="ALI",G57="AIE"),"L",IF(ISBLANK(G57),"","A")),IF(G57="EE",IF(J57&gt;=3,IF(I57&gt;=5,"H","A"),IF(J57&gt;=2,IF(I57&gt;=16,"H",IF(I57&lt;=4,"L","A")),IF(I57&lt;=15,"L","A"))),IF(OR(G57="SE",G57="CE"),IF(J57&gt;=4,IF(I57&gt;=6,"H","A"),IF(J57&gt;=2,IF(I57&gt;=20,"H",IF(I57&lt;=5,"L","A")),IF(I57&lt;=19,"L","A"))),IF(OR(G57="ALI",G57="AIE"),IF(J57&gt;=6,IF(I57&gt;=20,"H","A"),IF(J57&gt;=2,IF(I57&gt;=51,"H",IF(I57&lt;=19,"L","A")),IF(I57&lt;=50,"L","A")))))))</f>
+        <v>A</v>
+      </c>
+      <c r="M57" s="19" t="str">
+        <f>IF(L57="L","Baixa",IF(L57="A","Média",IF(L57="","","Alta")))</f>
+        <v>Média</v>
+      </c>
+      <c r="N57" s="20">
+        <f>IF(ISBLANK(G57),"",IF(G57="ALI",IF(L57="L",7,IF(L57="A",10,15)),IF(G57="AIE",IF(L57="L",5,IF(L57="A",7,10)),IF(G57="SE",IF(L57="L",4,IF(L57="A",5,7)),IF(OR(G57="EE",G57="CE"),IF(L57="L",3,IF(L57="A",4,6)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="O57" s="21">
+        <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="97"/>
+      <c r="R57" s="97"/>
+      <c r="S57" s="97"/>
+      <c r="T57" s="97"/>
+    </row>
+    <row r="58" spans="1:20" ht="18" customHeight="1">
+      <c r="A58" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17" t="str">
         <f t="shared" si="0"/>
         <v>ALIL</v>
       </c>
-      <c r="L57" s="18" t="str">
+      <c r="L58" s="18" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="M57" s="19" t="str">
+      <c r="M58" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Baixa</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N58" s="20">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O57" s="21">
-        <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
+      <c r="O58" s="21">
+        <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P57" s="126"/>
-      <c r="Q57" s="127"/>
-      <c r="R57" s="127"/>
-      <c r="S57" s="127"/>
-      <c r="T57" s="127"/>
-    </row>
-    <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71" t="str">
+      <c r="P58" s="132"/>
+      <c r="Q58" s="133"/>
+      <c r="R58" s="133"/>
+      <c r="S58" s="133"/>
+      <c r="T58" s="133"/>
+    </row>
+    <row r="59" spans="1:20" ht="18" customHeight="1">
+      <c r="A59" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="100"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L58" s="73" t="str">
+      <c r="L59" s="71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M58" s="74" t="str">
+      <c r="M59" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="75" t="str">
+      <c r="N59" s="74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O58" s="76" t="str">
-        <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
+      <c r="O59" s="75" t="str">
+        <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="98"/>
-      <c r="R58" s="98"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="95"/>
-    </row>
-    <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="124"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="162" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>EEA</v>
-      </c>
-      <c r="L59" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>A</v>
-      </c>
-      <c r="M59" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Média</v>
-      </c>
-      <c r="N59" s="20">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O59" s="21">
-        <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P59" s="126"/>
-      <c r="Q59" s="127"/>
-      <c r="R59" s="127"/>
-      <c r="S59" s="127"/>
-      <c r="T59" s="127"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="98"/>
+      <c r="R59" s="99"/>
+      <c r="S59" s="99"/>
+      <c r="T59" s="99"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="124"/>
-      <c r="C60" s="124"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="163" t="s">
+      <c r="A60" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="103" t="s">
         <v>37</v>
       </c>
       <c r="H60" s="23" t="s">
@@ -9216,22 +9873,22 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P60" s="126"/>
-      <c r="Q60" s="127"/>
-      <c r="R60" s="127"/>
-      <c r="S60" s="127"/>
-      <c r="T60" s="127"/>
+      <c r="P60" s="132"/>
+      <c r="Q60" s="133"/>
+      <c r="R60" s="133"/>
+      <c r="S60" s="133"/>
+      <c r="T60" s="133"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="124"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="163" t="s">
+      <c r="A61" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="130"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="104" t="s">
         <v>37</v>
       </c>
       <c r="H61" s="23" t="s">
@@ -9259,22 +9916,22 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P61" s="126"/>
-      <c r="Q61" s="127"/>
-      <c r="R61" s="127"/>
-      <c r="S61" s="127"/>
-      <c r="T61" s="127"/>
+      <c r="P61" s="132"/>
+      <c r="Q61" s="133"/>
+      <c r="R61" s="133"/>
+      <c r="S61" s="133"/>
+      <c r="T61" s="133"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="163" t="s">
+      <c r="A62" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="131"/>
+      <c r="G62" s="104" t="s">
         <v>37</v>
       </c>
       <c r="H62" s="23" t="s">
@@ -9302,23 +9959,23 @@
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P62" s="126"/>
-      <c r="Q62" s="127"/>
-      <c r="R62" s="127"/>
-      <c r="S62" s="127"/>
-      <c r="T62" s="127"/>
+      <c r="P62" s="132"/>
+      <c r="Q62" s="133"/>
+      <c r="R62" s="133"/>
+      <c r="S62" s="133"/>
+      <c r="T62" s="133"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="163" t="s">
-        <v>38</v>
+      <c r="A63" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="130"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="131"/>
+      <c r="G63" s="104" t="s">
+        <v>37</v>
       </c>
       <c r="H63" s="23" t="s">
         <v>36</v>
@@ -9327,7 +9984,7 @@
       <c r="J63" s="17"/>
       <c r="K63" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>EEA</v>
       </c>
       <c r="L63" s="18" t="str">
         <f t="shared" si="1"/>
@@ -9345,23 +10002,23 @@
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P63" s="126"/>
-      <c r="Q63" s="127"/>
-      <c r="R63" s="127"/>
-      <c r="S63" s="127"/>
-      <c r="T63" s="127"/>
+      <c r="P63" s="132"/>
+      <c r="Q63" s="133"/>
+      <c r="R63" s="133"/>
+      <c r="S63" s="133"/>
+      <c r="T63" s="133"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="123" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="124"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="163" t="s">
-        <v>37</v>
+      <c r="A64" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="130"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="104" t="s">
+        <v>51</v>
       </c>
       <c r="H64" s="23" t="s">
         <v>36</v>
@@ -9370,7 +10027,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>SEA</v>
       </c>
       <c r="L64" s="18" t="str">
         <f t="shared" si="1"/>
@@ -9382,29 +10039,29 @@
       </c>
       <c r="N64" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O64" s="21">
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P64" s="126"/>
-      <c r="Q64" s="127"/>
-      <c r="R64" s="127"/>
-      <c r="S64" s="127"/>
-      <c r="T64" s="127"/>
+        <v>5</v>
+      </c>
+      <c r="P64" s="132"/>
+      <c r="Q64" s="133"/>
+      <c r="R64" s="133"/>
+      <c r="S64" s="133"/>
+      <c r="T64" s="133"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="124"/>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="163" t="s">
-        <v>38</v>
+      <c r="A65" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="130"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="131"/>
+      <c r="G65" s="104" t="s">
+        <v>37</v>
       </c>
       <c r="H65" s="23" t="s">
         <v>36</v>
@@ -9413,7 +10070,7 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>EEA</v>
       </c>
       <c r="L65" s="18" t="str">
         <f t="shared" si="1"/>
@@ -9431,23 +10088,23 @@
         <f>IF(H65="I",N65*Contagem!$U$11,IF(H65="E",N65*Contagem!$U$13,IF(H65="A",N65*Contagem!$U$12,IF(H65="T",N65*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P65" s="126"/>
-      <c r="Q65" s="127"/>
-      <c r="R65" s="127"/>
-      <c r="S65" s="127"/>
-      <c r="T65" s="127"/>
+      <c r="P65" s="132"/>
+      <c r="Q65" s="133"/>
+      <c r="R65" s="133"/>
+      <c r="S65" s="133"/>
+      <c r="T65" s="133"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="163" t="s">
-        <v>51</v>
+      <c r="A66" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="130"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="104" t="s">
+        <v>38</v>
       </c>
       <c r="H66" s="23" t="s">
         <v>36</v>
@@ -9456,7 +10113,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>SEA</v>
+        <v>CEA</v>
       </c>
       <c r="L66" s="18" t="str">
         <f t="shared" si="1"/>
@@ -9468,29 +10125,29 @@
       </c>
       <c r="N66" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O66" s="21">
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P66" s="126"/>
-      <c r="Q66" s="127"/>
-      <c r="R66" s="127"/>
-      <c r="S66" s="127"/>
-      <c r="T66" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P66" s="132"/>
+      <c r="Q66" s="133"/>
+      <c r="R66" s="133"/>
+      <c r="S66" s="133"/>
+      <c r="T66" s="133"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="123" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="17" t="s">
-        <v>35</v>
+      <c r="A67" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="130"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="104" t="s">
+        <v>51</v>
       </c>
       <c r="H67" s="23" t="s">
         <v>36</v>
@@ -9499,123 +10156,123 @@
       <c r="J67" s="17"/>
       <c r="K67" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>ALIL</v>
+        <v>SEA</v>
       </c>
       <c r="L67" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M67" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N67" s="20">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O67" s="21">
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+      <c r="P67" s="132"/>
+      <c r="Q67" s="133"/>
+      <c r="R67" s="133"/>
+      <c r="S67" s="133"/>
+      <c r="T67" s="133"/>
+    </row>
+    <row r="68" spans="1:20" ht="18" customHeight="1">
+      <c r="A68" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="130"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>ALIL</v>
+      </c>
+      <c r="L68" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>L</v>
+      </c>
+      <c r="M68" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Baixa</v>
+      </c>
+      <c r="N68" s="20">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="P67" s="126"/>
-      <c r="Q67" s="127"/>
-      <c r="R67" s="127"/>
-      <c r="S67" s="127"/>
-      <c r="T67" s="127"/>
-    </row>
-    <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="68"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71" t="str">
+      <c r="O68" s="21">
+        <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
+        <v>7</v>
+      </c>
+      <c r="P68" s="132"/>
+      <c r="Q68" s="133"/>
+      <c r="R68" s="133"/>
+      <c r="S68" s="133"/>
+      <c r="T68" s="133"/>
+    </row>
+    <row r="69" spans="1:20" ht="18" customHeight="1">
+      <c r="A69" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="100"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L68" s="73" t="str">
+      <c r="L69" s="71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M68" s="74" t="str">
+      <c r="M69" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="75" t="str">
+      <c r="N69" s="74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O68" s="76" t="str">
-        <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
+      <c r="O69" s="75" t="str">
+        <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P68" s="98"/>
-      <c r="Q68" s="98"/>
-      <c r="R68" s="98"/>
-      <c r="S68" s="98"/>
-      <c r="T68" s="95"/>
-    </row>
-    <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="123" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="17" t="s">
+      <c r="P69" s="76"/>
+      <c r="Q69" s="98"/>
+      <c r="R69" s="99"/>
+      <c r="S69" s="99"/>
+      <c r="T69" s="99"/>
+    </row>
+    <row r="70" spans="1:20" ht="18" customHeight="1">
+      <c r="A70" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="130"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="131"/>
+      <c r="G70" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>ALIL</v>
-      </c>
-      <c r="L69" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
-      </c>
-      <c r="M69" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N69" s="20">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O69" s="21">
-        <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P69" s="126"/>
-      <c r="Q69" s="127"/>
-      <c r="R69" s="127"/>
-      <c r="S69" s="127"/>
-      <c r="T69" s="127"/>
-    </row>
-    <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="123" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="124"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="H70" s="23" t="s">
         <v>36</v>
@@ -9624,39 +10281,39 @@
       <c r="J70" s="17"/>
       <c r="K70" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>ALIL</v>
       </c>
       <c r="L70" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M70" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N70" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O70" s="21">
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P70" s="126"/>
-      <c r="Q70" s="127"/>
-      <c r="R70" s="127"/>
-      <c r="S70" s="127"/>
-      <c r="T70" s="127"/>
+        <v>7</v>
+      </c>
+      <c r="P70" s="132"/>
+      <c r="Q70" s="133"/>
+      <c r="R70" s="133"/>
+      <c r="S70" s="133"/>
+      <c r="T70" s="133"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="124"/>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="125"/>
+      <c r="A71" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="131"/>
       <c r="G71" s="17" t="s">
         <v>37</v>
       </c>
@@ -9685,23 +10342,23 @@
         <f>IF(H71="I",N71*Contagem!$U$11,IF(H71="E",N71*Contagem!$U$13,IF(H71="A",N71*Contagem!$U$12,IF(H71="T",N71*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P71" s="126"/>
-      <c r="Q71" s="127"/>
-      <c r="R71" s="127"/>
-      <c r="S71" s="127"/>
-      <c r="T71" s="127"/>
+      <c r="P71" s="132"/>
+      <c r="Q71" s="133"/>
+      <c r="R71" s="133"/>
+      <c r="S71" s="133"/>
+      <c r="T71" s="133"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="124"/>
-      <c r="C72" s="124"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="125"/>
+      <c r="A72" s="129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="130"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="131"/>
       <c r="G72" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72" s="23" t="s">
         <v>36</v>
@@ -9710,7 +10367,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>EEA</v>
       </c>
       <c r="L72" s="18" t="str">
         <f t="shared" si="1"/>
@@ -9728,23 +10385,23 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P72" s="126"/>
-      <c r="Q72" s="127"/>
-      <c r="R72" s="127"/>
-      <c r="S72" s="127"/>
-      <c r="T72" s="127"/>
+      <c r="P72" s="132"/>
+      <c r="Q72" s="133"/>
+      <c r="R72" s="133"/>
+      <c r="S72" s="133"/>
+      <c r="T72" s="133"/>
     </row>
     <row r="73" spans="1:20" ht="18" customHeight="1">
-      <c r="A73" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="124"/>
-      <c r="C73" s="124"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="125"/>
+      <c r="A73" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="131"/>
       <c r="G73" s="17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H73" s="23" t="s">
         <v>36</v>
@@ -9753,7 +10410,7 @@
       <c r="J73" s="17"/>
       <c r="K73" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>SEA</v>
       </c>
       <c r="L73" s="18" t="str">
         <f t="shared" si="1"/>
@@ -9765,29 +10422,29 @@
       </c>
       <c r="N73" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O73" s="21">
         <f>IF(H73="I",N73*Contagem!$U$11,IF(H73="E",N73*Contagem!$U$13,IF(H73="A",N73*Contagem!$U$12,IF(H73="T",N73*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P73" s="126"/>
-      <c r="Q73" s="127"/>
-      <c r="R73" s="127"/>
-      <c r="S73" s="127"/>
-      <c r="T73" s="127"/>
+        <v>5</v>
+      </c>
+      <c r="P73" s="132"/>
+      <c r="Q73" s="133"/>
+      <c r="R73" s="133"/>
+      <c r="S73" s="133"/>
+      <c r="T73" s="133"/>
     </row>
     <row r="74" spans="1:20" ht="18" customHeight="1">
-      <c r="A74" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="124"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="125"/>
+      <c r="A74" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="130"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="131"/>
       <c r="G74" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74" s="23" t="s">
         <v>36</v>
@@ -9796,7 +10453,7 @@
       <c r="J74" s="17"/>
       <c r="K74" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>CEA</v>
       </c>
       <c r="L74" s="18" t="str">
         <f t="shared" si="1"/>
@@ -9814,23 +10471,23 @@
         <f>IF(H74="I",N74*Contagem!$U$11,IF(H74="E",N74*Contagem!$U$13,IF(H74="A",N74*Contagem!$U$12,IF(H74="T",N74*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P74" s="126"/>
-      <c r="Q74" s="127"/>
-      <c r="R74" s="127"/>
-      <c r="S74" s="127"/>
-      <c r="T74" s="127"/>
+      <c r="P74" s="132"/>
+      <c r="Q74" s="133"/>
+      <c r="R74" s="133"/>
+      <c r="S74" s="133"/>
+      <c r="T74" s="133"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="123" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="124"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="125"/>
+      <c r="A75" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="130"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="131"/>
       <c r="G75" s="17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H75" s="23" t="s">
         <v>36</v>
@@ -9839,7 +10496,7 @@
       <c r="J75" s="17"/>
       <c r="K75" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>SEA</v>
+        <v>EEA</v>
       </c>
       <c r="L75" s="18" t="str">
         <f t="shared" si="1"/>
@@ -9851,111 +10508,111 @@
       </c>
       <c r="N75" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O75" s="21">
         <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
+        <v>4</v>
+      </c>
+      <c r="P75" s="132"/>
+      <c r="Q75" s="133"/>
+      <c r="R75" s="133"/>
+      <c r="S75" s="133"/>
+      <c r="T75" s="133"/>
+    </row>
+    <row r="76" spans="1:20" ht="18" customHeight="1">
+      <c r="A76" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="130"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="131"/>
+      <c r="G76" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>SEA</v>
+      </c>
+      <c r="L76" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="M76" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Média</v>
+      </c>
+      <c r="N76" s="20">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P75" s="126"/>
-      <c r="Q75" s="127"/>
-      <c r="R75" s="127"/>
-      <c r="S75" s="127"/>
-      <c r="T75" s="127"/>
-    </row>
-    <row r="76" spans="1:20" ht="18" customHeight="1">
-      <c r="A76" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71" t="str">
+      <c r="O76" s="21">
+        <f>IF(H76="I",N76*Contagem!$U$11,IF(H76="E",N76*Contagem!$U$13,IF(H76="A",N76*Contagem!$U$12,IF(H76="T",N76*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+      <c r="P76" s="132"/>
+      <c r="Q76" s="133"/>
+      <c r="R76" s="133"/>
+      <c r="S76" s="133"/>
+      <c r="T76" s="133"/>
+    </row>
+    <row r="77" spans="1:20" ht="18" customHeight="1">
+      <c r="A77" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="100"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="101"/>
+      <c r="E77" s="101"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L76" s="73" t="str">
+      <c r="L77" s="71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M76" s="74" t="str">
+      <c r="M77" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N76" s="75" t="str">
+      <c r="N77" s="74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O76" s="76" t="str">
-        <f>IF(H76="I",N76*Contagem!$U$11,IF(H76="E",N76*Contagem!$U$13,IF(H76="A",N76*Contagem!$U$12,IF(H76="T",N76*Contagem!$U$14,""))))</f>
+      <c r="O77" s="75" t="str">
+        <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P76" s="98"/>
-      <c r="Q76" s="98"/>
-      <c r="R76" s="98"/>
-      <c r="S76" s="98"/>
-      <c r="T76" s="95"/>
-    </row>
-    <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="124"/>
-      <c r="C77" s="124"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="17" t="s">
+      <c r="P77" s="76"/>
+      <c r="Q77" s="98"/>
+      <c r="R77" s="99"/>
+      <c r="S77" s="99"/>
+      <c r="T77" s="99"/>
+    </row>
+    <row r="78" spans="1:20" ht="18" customHeight="1">
+      <c r="A78" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="130"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="131"/>
+      <c r="G78" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>ALIL</v>
-      </c>
-      <c r="L77" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
-      </c>
-      <c r="M77" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N77" s="20">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O77" s="21">
-        <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P77" s="126"/>
-      <c r="Q77" s="127"/>
-      <c r="R77" s="127"/>
-      <c r="S77" s="127"/>
-      <c r="T77" s="127"/>
-    </row>
-    <row r="78" spans="1:20" ht="18" customHeight="1">
-      <c r="A78" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="B78" s="124"/>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="125"/>
-      <c r="G78" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="H78" s="23" t="s">
         <v>36</v>
@@ -9964,39 +10621,39 @@
       <c r="J78" s="17"/>
       <c r="K78" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>ALIL</v>
       </c>
       <c r="L78" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M78" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N78" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O78" s="21">
         <f>IF(H78="I",N78*Contagem!$U$11,IF(H78="E",N78*Contagem!$U$13,IF(H78="A",N78*Contagem!$U$12,IF(H78="T",N78*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P78" s="126"/>
-      <c r="Q78" s="127"/>
-      <c r="R78" s="127"/>
-      <c r="S78" s="127"/>
-      <c r="T78" s="127"/>
+        <v>7</v>
+      </c>
+      <c r="P78" s="132"/>
+      <c r="Q78" s="133"/>
+      <c r="R78" s="133"/>
+      <c r="S78" s="133"/>
+      <c r="T78" s="133"/>
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
-      <c r="A79" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="B79" s="124"/>
-      <c r="C79" s="124"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="125"/>
+      <c r="A79" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="130"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="131"/>
       <c r="G79" s="17" t="s">
         <v>37</v>
       </c>
@@ -10025,23 +10682,23 @@
         <f>IF(H79="I",N79*Contagem!$U$11,IF(H79="E",N79*Contagem!$U$13,IF(H79="A",N79*Contagem!$U$12,IF(H79="T",N79*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P79" s="126"/>
-      <c r="Q79" s="127"/>
-      <c r="R79" s="127"/>
-      <c r="S79" s="127"/>
-      <c r="T79" s="127"/>
+      <c r="P79" s="132"/>
+      <c r="Q79" s="133"/>
+      <c r="R79" s="133"/>
+      <c r="S79" s="133"/>
+      <c r="T79" s="133"/>
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
-      <c r="A80" s="123" t="s">
-        <v>142</v>
-      </c>
-      <c r="B80" s="124"/>
-      <c r="C80" s="124"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="125"/>
+      <c r="A80" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="130"/>
+      <c r="C80" s="130"/>
+      <c r="D80" s="130"/>
+      <c r="E80" s="130"/>
+      <c r="F80" s="131"/>
       <c r="G80" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80" s="23" t="s">
         <v>36</v>
@@ -10050,7 +10707,7 @@
       <c r="J80" s="17"/>
       <c r="K80" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>EEA</v>
       </c>
       <c r="L80" s="18" t="str">
         <f t="shared" si="1"/>
@@ -10068,23 +10725,23 @@
         <f>IF(H80="I",N80*Contagem!$U$11,IF(H80="E",N80*Contagem!$U$13,IF(H80="A",N80*Contagem!$U$12,IF(H80="T",N80*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P80" s="126"/>
-      <c r="Q80" s="127"/>
-      <c r="R80" s="127"/>
-      <c r="S80" s="127"/>
-      <c r="T80" s="127"/>
+      <c r="P80" s="132"/>
+      <c r="Q80" s="133"/>
+      <c r="R80" s="133"/>
+      <c r="S80" s="133"/>
+      <c r="T80" s="133"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
-      <c r="A81" s="123" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="125"/>
+      <c r="A81" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="130"/>
+      <c r="C81" s="130"/>
+      <c r="D81" s="130"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="131"/>
       <c r="G81" s="17" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H81" s="23" t="s">
         <v>36</v>
@@ -10093,7 +10750,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>SEA</v>
       </c>
       <c r="L81" s="18" t="str">
         <f t="shared" si="1"/>
@@ -10105,27 +10762,27 @@
       </c>
       <c r="N81" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O81" s="21">
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P81" s="126"/>
-      <c r="Q81" s="127"/>
-      <c r="R81" s="127"/>
-      <c r="S81" s="127"/>
-      <c r="T81" s="127"/>
+        <v>5</v>
+      </c>
+      <c r="P81" s="132"/>
+      <c r="Q81" s="133"/>
+      <c r="R81" s="133"/>
+      <c r="S81" s="133"/>
+      <c r="T81" s="133"/>
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
-      <c r="A82" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="125"/>
+      <c r="A82" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="130"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="131"/>
       <c r="G82" s="17" t="s">
         <v>37</v>
       </c>
@@ -10154,23 +10811,23 @@
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P82" s="126"/>
-      <c r="Q82" s="127"/>
-      <c r="R82" s="127"/>
-      <c r="S82" s="127"/>
-      <c r="T82" s="127"/>
+      <c r="P82" s="132"/>
+      <c r="Q82" s="133"/>
+      <c r="R82" s="133"/>
+      <c r="S82" s="133"/>
+      <c r="T82" s="133"/>
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
-      <c r="A83" s="123" t="s">
-        <v>145</v>
-      </c>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="125"/>
+      <c r="A83" s="129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="130"/>
+      <c r="C83" s="130"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="130"/>
+      <c r="F83" s="131"/>
       <c r="G83" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H83" s="23" t="s">
         <v>36</v>
@@ -10179,7 +10836,7 @@
       <c r="J83" s="17"/>
       <c r="K83" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>EEA</v>
       </c>
       <c r="L83" s="18" t="str">
         <f t="shared" si="1"/>
@@ -10197,23 +10854,23 @@
         <f>IF(H83="I",N83*Contagem!$U$11,IF(H83="E",N83*Contagem!$U$13,IF(H83="A",N83*Contagem!$U$12,IF(H83="T",N83*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P83" s="126"/>
-      <c r="Q83" s="127"/>
-      <c r="R83" s="127"/>
-      <c r="S83" s="127"/>
-      <c r="T83" s="127"/>
+      <c r="P83" s="132"/>
+      <c r="Q83" s="133"/>
+      <c r="R83" s="133"/>
+      <c r="S83" s="133"/>
+      <c r="T83" s="133"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
-      <c r="A84" s="123" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="125"/>
+      <c r="A84" s="129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="130"/>
+      <c r="C84" s="130"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="130"/>
+      <c r="F84" s="131"/>
       <c r="G84" s="17" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H84" s="23" t="s">
         <v>36</v>
@@ -10222,7 +10879,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>SEA</v>
+        <v>CEA</v>
       </c>
       <c r="L84" s="18" t="str">
         <f t="shared" si="1"/>
@@ -10234,111 +10891,111 @@
       </c>
       <c r="N84" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O84" s="21">
         <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
+        <v>4</v>
+      </c>
+      <c r="P84" s="132"/>
+      <c r="Q84" s="133"/>
+      <c r="R84" s="133"/>
+      <c r="S84" s="133"/>
+      <c r="T84" s="133"/>
+    </row>
+    <row r="85" spans="1:20" ht="18" customHeight="1">
+      <c r="A85" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="131"/>
+      <c r="G85" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>SEA</v>
+      </c>
+      <c r="L85" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="M85" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Média</v>
+      </c>
+      <c r="N85" s="20">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P84" s="126"/>
-      <c r="Q84" s="127"/>
-      <c r="R84" s="127"/>
-      <c r="S84" s="127"/>
-      <c r="T84" s="127"/>
-    </row>
-    <row r="85" spans="1:20" ht="18" customHeight="1">
-      <c r="A85" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="96"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71" t="str">
+      <c r="O85" s="21">
+        <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+      <c r="P85" s="132"/>
+      <c r="Q85" s="133"/>
+      <c r="R85" s="133"/>
+      <c r="S85" s="133"/>
+      <c r="T85" s="133"/>
+    </row>
+    <row r="86" spans="1:20" ht="18" customHeight="1">
+      <c r="A86" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="100"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
+      <c r="F86" s="101"/>
+      <c r="G86" s="102"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L85" s="73" t="str">
+      <c r="L86" s="71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M85" s="74" t="str">
+      <c r="M86" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N85" s="75" t="str">
+      <c r="N86" s="74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O85" s="76" t="str">
-        <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
+      <c r="O86" s="75" t="str">
+        <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P85" s="98"/>
-      <c r="Q85" s="98"/>
-      <c r="R85" s="98"/>
-      <c r="S85" s="98"/>
-      <c r="T85" s="95"/>
-    </row>
-    <row r="86" spans="1:20" ht="18" customHeight="1">
-      <c r="A86" s="123" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="17" t="s">
+      <c r="P86" s="76"/>
+      <c r="Q86" s="98"/>
+      <c r="R86" s="99"/>
+      <c r="S86" s="99"/>
+      <c r="T86" s="99"/>
+    </row>
+    <row r="87" spans="1:20" ht="18" customHeight="1">
+      <c r="A87" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="H86" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>ALIL</v>
-      </c>
-      <c r="L86" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
-      </c>
-      <c r="M86" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N86" s="20">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O86" s="21">
-        <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P86" s="126"/>
-      <c r="Q86" s="127"/>
-      <c r="R86" s="127"/>
-      <c r="S86" s="127"/>
-      <c r="T86" s="127"/>
-    </row>
-    <row r="87" spans="1:20" ht="18" customHeight="1">
-      <c r="A87" s="123" t="s">
-        <v>148</v>
-      </c>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
-      <c r="F87" s="125"/>
-      <c r="G87" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="H87" s="23" t="s">
         <v>36</v>
@@ -10347,39 +11004,39 @@
       <c r="J87" s="17"/>
       <c r="K87" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>ALIL</v>
       </c>
       <c r="L87" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M87" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N87" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O87" s="21">
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P87" s="126"/>
-      <c r="Q87" s="127"/>
-      <c r="R87" s="127"/>
-      <c r="S87" s="127"/>
-      <c r="T87" s="127"/>
+        <v>7</v>
+      </c>
+      <c r="P87" s="132"/>
+      <c r="Q87" s="133"/>
+      <c r="R87" s="133"/>
+      <c r="S87" s="133"/>
+      <c r="T87" s="133"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
-      <c r="A88" s="123" t="s">
-        <v>149</v>
-      </c>
-      <c r="B88" s="124"/>
-      <c r="C88" s="124"/>
-      <c r="D88" s="124"/>
-      <c r="E88" s="124"/>
-      <c r="F88" s="125"/>
+      <c r="A88" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="131"/>
       <c r="G88" s="17" t="s">
         <v>37</v>
       </c>
@@ -10408,23 +11065,23 @@
         <f>IF(H88="I",N88*Contagem!$U$11,IF(H88="E",N88*Contagem!$U$13,IF(H88="A",N88*Contagem!$U$12,IF(H88="T",N88*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P88" s="126"/>
-      <c r="Q88" s="127"/>
-      <c r="R88" s="127"/>
-      <c r="S88" s="127"/>
-      <c r="T88" s="127"/>
+      <c r="P88" s="132"/>
+      <c r="Q88" s="133"/>
+      <c r="R88" s="133"/>
+      <c r="S88" s="133"/>
+      <c r="T88" s="133"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
-      <c r="A89" s="123" t="s">
-        <v>150</v>
-      </c>
-      <c r="B89" s="124"/>
-      <c r="C89" s="124"/>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="125"/>
+      <c r="A89" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="130"/>
+      <c r="C89" s="130"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="131"/>
       <c r="G89" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89" s="23" t="s">
         <v>36</v>
@@ -10433,7 +11090,7 @@
       <c r="J89" s="17"/>
       <c r="K89" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>EEA</v>
       </c>
       <c r="L89" s="18" t="str">
         <f t="shared" si="1"/>
@@ -10451,23 +11108,23 @@
         <f>IF(H89="I",N89*Contagem!$U$11,IF(H89="E",N89*Contagem!$U$13,IF(H89="A",N89*Contagem!$U$12,IF(H89="T",N89*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P89" s="126"/>
-      <c r="Q89" s="127"/>
-      <c r="R89" s="127"/>
-      <c r="S89" s="127"/>
-      <c r="T89" s="127"/>
+      <c r="P89" s="132"/>
+      <c r="Q89" s="133"/>
+      <c r="R89" s="133"/>
+      <c r="S89" s="133"/>
+      <c r="T89" s="133"/>
     </row>
     <row r="90" spans="1:20" ht="18" customHeight="1">
-      <c r="A90" s="123" t="s">
-        <v>151</v>
-      </c>
-      <c r="B90" s="124"/>
-      <c r="C90" s="124"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="125"/>
+      <c r="A90" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="130"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="131"/>
       <c r="G90" s="17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H90" s="23" t="s">
         <v>36</v>
@@ -10476,7 +11133,7 @@
       <c r="J90" s="17"/>
       <c r="K90" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>SEA</v>
       </c>
       <c r="L90" s="18" t="str">
         <f t="shared" si="1"/>
@@ -10488,29 +11145,29 @@
       </c>
       <c r="N90" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O90" s="21">
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P90" s="126"/>
-      <c r="Q90" s="127"/>
-      <c r="R90" s="127"/>
-      <c r="S90" s="127"/>
-      <c r="T90" s="127"/>
+        <v>5</v>
+      </c>
+      <c r="P90" s="132"/>
+      <c r="Q90" s="133"/>
+      <c r="R90" s="133"/>
+      <c r="S90" s="133"/>
+      <c r="T90" s="133"/>
     </row>
     <row r="91" spans="1:20" ht="18" customHeight="1">
-      <c r="A91" s="123" t="s">
-        <v>152</v>
-      </c>
-      <c r="B91" s="124"/>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="125"/>
+      <c r="A91" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="130"/>
+      <c r="C91" s="130"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="130"/>
+      <c r="F91" s="131"/>
       <c r="G91" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91" s="23" t="s">
         <v>36</v>
@@ -10519,7 +11176,7 @@
       <c r="J91" s="17"/>
       <c r="K91" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>CEA</v>
       </c>
       <c r="L91" s="18" t="str">
         <f t="shared" si="1"/>
@@ -10537,23 +11194,23 @@
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P91" s="126"/>
-      <c r="Q91" s="127"/>
-      <c r="R91" s="127"/>
-      <c r="S91" s="127"/>
-      <c r="T91" s="127"/>
+      <c r="P91" s="132"/>
+      <c r="Q91" s="133"/>
+      <c r="R91" s="133"/>
+      <c r="S91" s="133"/>
+      <c r="T91" s="133"/>
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
-      <c r="A92" s="123" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" s="124"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="124"/>
-      <c r="F92" s="125"/>
+      <c r="A92" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" s="130"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="131"/>
       <c r="G92" s="17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H92" s="23" t="s">
         <v>36</v>
@@ -10562,7 +11219,7 @@
       <c r="J92" s="17"/>
       <c r="K92" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>SEA</v>
+        <v>EEA</v>
       </c>
       <c r="L92" s="18" t="str">
         <f t="shared" si="1"/>
@@ -10574,728 +11231,834 @@
       </c>
       <c r="N92" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O92" s="21">
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P92" s="126"/>
-      <c r="Q92" s="127"/>
-      <c r="R92" s="127"/>
-      <c r="S92" s="127"/>
-      <c r="T92" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P92" s="132"/>
+      <c r="Q92" s="133"/>
+      <c r="R92" s="133"/>
+      <c r="S92" s="133"/>
+      <c r="T92" s="133"/>
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
-      <c r="A93" s="123"/>
-      <c r="B93" s="124"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="124"/>
-      <c r="E93" s="124"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="23"/>
+      <c r="A93" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="130"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="131"/>
+      <c r="G93" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
       <c r="K93" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="L93" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M93" s="19" t="str">
         <f t="shared" si="2"/>
+        <v>Média</v>
+      </c>
+      <c r="N93" s="20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O93" s="21">
+        <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+      <c r="P93" s="132"/>
+      <c r="Q93" s="133"/>
+      <c r="R93" s="133"/>
+      <c r="S93" s="133"/>
+      <c r="T93" s="133"/>
+    </row>
+    <row r="94" spans="1:20" ht="18" customHeight="1">
+      <c r="A94" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="100"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="71" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N93" s="20" t="str">
+      <c r="L94" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M94" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N94" s="74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O93" s="21" t="str">
-        <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P93" s="126"/>
-      <c r="Q93" s="127"/>
-      <c r="R93" s="127"/>
-      <c r="S93" s="127"/>
-      <c r="T93" s="127"/>
-    </row>
-    <row r="94" spans="1:20" ht="18" customHeight="1">
-      <c r="A94" s="123"/>
-      <c r="B94" s="124"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="124"/>
-      <c r="E94" s="124"/>
-      <c r="F94" s="125"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L94" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M94" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N94" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O94" s="21" t="str">
+      <c r="O94" s="75" t="str">
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P94" s="126"/>
-      <c r="Q94" s="127"/>
-      <c r="R94" s="127"/>
-      <c r="S94" s="127"/>
-      <c r="T94" s="127"/>
+      <c r="P94" s="76"/>
+      <c r="Q94" s="98"/>
+      <c r="R94" s="99"/>
+      <c r="S94" s="99"/>
+      <c r="T94" s="99"/>
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
-      <c r="A95" s="123"/>
-      <c r="B95" s="124"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="124"/>
-      <c r="E95" s="124"/>
-      <c r="F95" s="125"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="23"/>
+      <c r="A95" s="129" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="130"/>
+      <c r="C95" s="130"/>
+      <c r="D95" s="130"/>
+      <c r="E95" s="130"/>
+      <c r="F95" s="131"/>
+      <c r="G95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
       <c r="K95" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>ALIL</v>
       </c>
       <c r="L95" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M95" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N95" s="20" t="str">
+        <v>Baixa</v>
+      </c>
+      <c r="N95" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O95" s="21" t="str">
+        <v>7</v>
+      </c>
+      <c r="O95" s="21">
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P95" s="126"/>
-      <c r="Q95" s="127"/>
-      <c r="R95" s="127"/>
-      <c r="S95" s="127"/>
-      <c r="T95" s="127"/>
+        <v>7</v>
+      </c>
+      <c r="P95" s="132"/>
+      <c r="Q95" s="133"/>
+      <c r="R95" s="133"/>
+      <c r="S95" s="133"/>
+      <c r="T95" s="133"/>
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
-      <c r="A96" s="123"/>
-      <c r="B96" s="124"/>
-      <c r="C96" s="124"/>
-      <c r="D96" s="124"/>
-      <c r="E96" s="124"/>
-      <c r="F96" s="125"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="23"/>
+      <c r="A96" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="130"/>
+      <c r="C96" s="130"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="131"/>
+      <c r="G96" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L96" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M96" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N96" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N96" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O96" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O96" s="21">
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P96" s="126"/>
-      <c r="Q96" s="127"/>
-      <c r="R96" s="127"/>
-      <c r="S96" s="127"/>
-      <c r="T96" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P96" s="132"/>
+      <c r="Q96" s="133"/>
+      <c r="R96" s="133"/>
+      <c r="S96" s="133"/>
+      <c r="T96" s="133"/>
     </row>
     <row r="97" spans="1:20" ht="18" customHeight="1">
-      <c r="A97" s="123"/>
-      <c r="B97" s="124"/>
-      <c r="C97" s="124"/>
-      <c r="D97" s="124"/>
-      <c r="E97" s="124"/>
-      <c r="F97" s="125"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="23"/>
+      <c r="A97" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="130"/>
+      <c r="C97" s="130"/>
+      <c r="D97" s="130"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="131"/>
+      <c r="G97" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L97" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M97" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N97" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N97" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O97" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O97" s="21">
         <f>IF(H97="I",N97*Contagem!$U$11,IF(H97="E",N97*Contagem!$U$13,IF(H97="A",N97*Contagem!$U$12,IF(H97="T",N97*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P97" s="126"/>
-      <c r="Q97" s="127"/>
-      <c r="R97" s="127"/>
-      <c r="S97" s="127"/>
-      <c r="T97" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P97" s="132"/>
+      <c r="Q97" s="133"/>
+      <c r="R97" s="133"/>
+      <c r="S97" s="133"/>
+      <c r="T97" s="133"/>
     </row>
     <row r="98" spans="1:20" ht="18" customHeight="1">
-      <c r="A98" s="123"/>
-      <c r="B98" s="124"/>
-      <c r="C98" s="124"/>
-      <c r="D98" s="124"/>
-      <c r="E98" s="124"/>
-      <c r="F98" s="125"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="23"/>
+      <c r="A98" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="130"/>
+      <c r="C98" s="130"/>
+      <c r="D98" s="130"/>
+      <c r="E98" s="130"/>
+      <c r="F98" s="131"/>
+      <c r="G98" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>CEA</v>
       </c>
       <c r="L98" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M98" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N98" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N98" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O98" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O98" s="21">
         <f>IF(H98="I",N98*Contagem!$U$11,IF(H98="E",N98*Contagem!$U$13,IF(H98="A",N98*Contagem!$U$12,IF(H98="T",N98*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P98" s="126"/>
-      <c r="Q98" s="127"/>
-      <c r="R98" s="127"/>
-      <c r="S98" s="127"/>
-      <c r="T98" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P98" s="132"/>
+      <c r="Q98" s="133"/>
+      <c r="R98" s="133"/>
+      <c r="S98" s="133"/>
+      <c r="T98" s="133"/>
     </row>
     <row r="99" spans="1:20" ht="18" customHeight="1">
-      <c r="A99" s="123"/>
-      <c r="B99" s="124"/>
-      <c r="C99" s="124"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="124"/>
-      <c r="F99" s="125"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="23"/>
+      <c r="A99" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" s="130"/>
+      <c r="C99" s="130"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="130"/>
+      <c r="F99" s="131"/>
+      <c r="G99" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L99" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M99" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N99" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N99" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O99" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O99" s="21">
         <f>IF(H99="I",N99*Contagem!$U$11,IF(H99="E",N99*Contagem!$U$13,IF(H99="A",N99*Contagem!$U$12,IF(H99="T",N99*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P99" s="126"/>
-      <c r="Q99" s="127"/>
-      <c r="R99" s="127"/>
-      <c r="S99" s="127"/>
-      <c r="T99" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P99" s="132"/>
+      <c r="Q99" s="133"/>
+      <c r="R99" s="133"/>
+      <c r="S99" s="133"/>
+      <c r="T99" s="133"/>
     </row>
     <row r="100" spans="1:20" ht="18" customHeight="1">
-      <c r="A100" s="123"/>
-      <c r="B100" s="124"/>
-      <c r="C100" s="124"/>
-      <c r="D100" s="124"/>
-      <c r="E100" s="124"/>
-      <c r="F100" s="125"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="23"/>
+      <c r="A100" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="130"/>
+      <c r="C100" s="130"/>
+      <c r="D100" s="130"/>
+      <c r="E100" s="130"/>
+      <c r="F100" s="131"/>
+      <c r="G100" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="L100" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M100" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N100" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N100" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O100" s="21" t="str">
+        <v>5</v>
+      </c>
+      <c r="O100" s="21">
         <f>IF(H100="I",N100*Contagem!$U$11,IF(H100="E",N100*Contagem!$U$13,IF(H100="A",N100*Contagem!$U$12,IF(H100="T",N100*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P100" s="126"/>
-      <c r="Q100" s="127"/>
-      <c r="R100" s="127"/>
-      <c r="S100" s="127"/>
-      <c r="T100" s="127"/>
+        <v>5</v>
+      </c>
+      <c r="P100" s="132"/>
+      <c r="Q100" s="133"/>
+      <c r="R100" s="133"/>
+      <c r="S100" s="133"/>
+      <c r="T100" s="133"/>
     </row>
     <row r="101" spans="1:20" ht="18" customHeight="1">
-      <c r="A101" s="123"/>
-      <c r="B101" s="124"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="124"/>
-      <c r="E101" s="124"/>
-      <c r="F101" s="125"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="23"/>
+      <c r="A101" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="130"/>
+      <c r="C101" s="130"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="130"/>
+      <c r="F101" s="131"/>
+      <c r="G101" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="L101" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M101" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N101" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N101" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O101" s="21" t="str">
+        <v>5</v>
+      </c>
+      <c r="O101" s="21">
         <f>IF(H101="I",N101*Contagem!$U$11,IF(H101="E",N101*Contagem!$U$13,IF(H101="A",N101*Contagem!$U$12,IF(H101="T",N101*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P101" s="126"/>
-      <c r="Q101" s="127"/>
-      <c r="R101" s="127"/>
-      <c r="S101" s="127"/>
-      <c r="T101" s="127"/>
+        <v>5</v>
+      </c>
+      <c r="P101" s="132"/>
+      <c r="Q101" s="133"/>
+      <c r="R101" s="133"/>
+      <c r="S101" s="133"/>
+      <c r="T101" s="133"/>
     </row>
     <row r="102" spans="1:20" ht="18" customHeight="1">
-      <c r="A102" s="123"/>
-      <c r="B102" s="124"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="125"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="23"/>
+      <c r="A102" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="130"/>
+      <c r="C102" s="130"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="130"/>
+      <c r="F102" s="131"/>
+      <c r="G102" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="L102" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M102" s="19" t="str">
         <f t="shared" si="2"/>
+        <v>Média</v>
+      </c>
+      <c r="N102" s="20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O102" s="21">
+        <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+      <c r="P102" s="132"/>
+      <c r="Q102" s="133"/>
+      <c r="R102" s="133"/>
+      <c r="S102" s="133"/>
+      <c r="T102" s="133"/>
+    </row>
+    <row r="103" spans="1:20" ht="18" customHeight="1">
+      <c r="A103" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="100"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="102"/>
+      <c r="H103" s="71"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N102" s="20" t="str">
+      <c r="L103" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M103" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N103" s="74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O102" s="21" t="str">
-        <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P102" s="126"/>
-      <c r="Q102" s="127"/>
-      <c r="R102" s="127"/>
-      <c r="S102" s="127"/>
-      <c r="T102" s="127"/>
-    </row>
-    <row r="103" spans="1:20" ht="18" customHeight="1">
-      <c r="A103" s="123"/>
-      <c r="B103" s="124"/>
-      <c r="C103" s="124"/>
-      <c r="D103" s="124"/>
-      <c r="E103" s="124"/>
-      <c r="F103" s="125"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L103" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M103" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N103" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O103" s="21" t="str">
+      <c r="O103" s="75" t="str">
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P103" s="126"/>
-      <c r="Q103" s="127"/>
-      <c r="R103" s="127"/>
-      <c r="S103" s="127"/>
-      <c r="T103" s="127"/>
+      <c r="P103" s="76"/>
+      <c r="Q103" s="98"/>
+      <c r="R103" s="99"/>
+      <c r="S103" s="99"/>
+      <c r="T103" s="99"/>
     </row>
     <row r="104" spans="1:20" ht="18" customHeight="1">
-      <c r="A104" s="123"/>
-      <c r="B104" s="124"/>
-      <c r="C104" s="124"/>
-      <c r="D104" s="124"/>
-      <c r="E104" s="124"/>
-      <c r="F104" s="125"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="23"/>
+      <c r="A104" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="130"/>
+      <c r="C104" s="130"/>
+      <c r="D104" s="130"/>
+      <c r="E104" s="130"/>
+      <c r="F104" s="131"/>
+      <c r="G104" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>ALIL</v>
       </c>
       <c r="L104" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M104" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N104" s="20" t="str">
+        <v>Baixa</v>
+      </c>
+      <c r="N104" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O104" s="21" t="str">
+        <v>7</v>
+      </c>
+      <c r="O104" s="21">
         <f>IF(H104="I",N104*Contagem!$U$11,IF(H104="E",N104*Contagem!$U$13,IF(H104="A",N104*Contagem!$U$12,IF(H104="T",N104*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P104" s="126"/>
-      <c r="Q104" s="127"/>
-      <c r="R104" s="127"/>
-      <c r="S104" s="127"/>
-      <c r="T104" s="127"/>
+        <v>7</v>
+      </c>
+      <c r="P104" s="132"/>
+      <c r="Q104" s="133"/>
+      <c r="R104" s="133"/>
+      <c r="S104" s="133"/>
+      <c r="T104" s="133"/>
     </row>
     <row r="105" spans="1:20" ht="18" customHeight="1">
-      <c r="A105" s="123"/>
-      <c r="B105" s="124"/>
-      <c r="C105" s="124"/>
-      <c r="D105" s="124"/>
-      <c r="E105" s="124"/>
-      <c r="F105" s="125"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="23"/>
+      <c r="A105" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="130"/>
+      <c r="C105" s="130"/>
+      <c r="D105" s="130"/>
+      <c r="E105" s="130"/>
+      <c r="F105" s="131"/>
+      <c r="G105" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L105" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M105" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N105" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N105" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O105" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O105" s="21">
         <f>IF(H105="I",N105*Contagem!$U$11,IF(H105="E",N105*Contagem!$U$13,IF(H105="A",N105*Contagem!$U$12,IF(H105="T",N105*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P105" s="126"/>
-      <c r="Q105" s="127"/>
-      <c r="R105" s="127"/>
-      <c r="S105" s="127"/>
-      <c r="T105" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P105" s="132"/>
+      <c r="Q105" s="133"/>
+      <c r="R105" s="133"/>
+      <c r="S105" s="133"/>
+      <c r="T105" s="133"/>
     </row>
     <row r="106" spans="1:20" ht="18" customHeight="1">
-      <c r="A106" s="123"/>
-      <c r="B106" s="124"/>
-      <c r="C106" s="124"/>
-      <c r="D106" s="124"/>
-      <c r="E106" s="124"/>
-      <c r="F106" s="125"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="23"/>
+      <c r="A106" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="130"/>
+      <c r="C106" s="130"/>
+      <c r="D106" s="130"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="131"/>
+      <c r="G106" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L106" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M106" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N106" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N106" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O106" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O106" s="21">
         <f>IF(H106="I",N106*Contagem!$U$11,IF(H106="E",N106*Contagem!$U$13,IF(H106="A",N106*Contagem!$U$12,IF(H106="T",N106*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P106" s="126"/>
-      <c r="Q106" s="127"/>
-      <c r="R106" s="127"/>
-      <c r="S106" s="127"/>
-      <c r="T106" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P106" s="132"/>
+      <c r="Q106" s="133"/>
+      <c r="R106" s="133"/>
+      <c r="S106" s="133"/>
+      <c r="T106" s="133"/>
     </row>
     <row r="107" spans="1:20" ht="18" customHeight="1">
-      <c r="A107" s="123"/>
-      <c r="B107" s="124"/>
-      <c r="C107" s="124"/>
-      <c r="D107" s="124"/>
-      <c r="E107" s="124"/>
-      <c r="F107" s="125"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="23"/>
+      <c r="A107" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="130"/>
+      <c r="C107" s="130"/>
+      <c r="D107" s="130"/>
+      <c r="E107" s="130"/>
+      <c r="F107" s="131"/>
+      <c r="G107" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>CEA</v>
       </c>
       <c r="L107" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M107" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N107" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N107" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O107" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O107" s="21">
         <f>IF(H107="I",N107*Contagem!$U$11,IF(H107="E",N107*Contagem!$U$13,IF(H107="A",N107*Contagem!$U$12,IF(H107="T",N107*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P107" s="126"/>
-      <c r="Q107" s="127"/>
-      <c r="R107" s="127"/>
-      <c r="S107" s="127"/>
-      <c r="T107" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P107" s="132"/>
+      <c r="Q107" s="133"/>
+      <c r="R107" s="133"/>
+      <c r="S107" s="133"/>
+      <c r="T107" s="133"/>
     </row>
     <row r="108" spans="1:20" ht="18" customHeight="1">
-      <c r="A108" s="123"/>
-      <c r="B108" s="124"/>
-      <c r="C108" s="124"/>
-      <c r="D108" s="124"/>
-      <c r="E108" s="124"/>
-      <c r="F108" s="125"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="23"/>
+      <c r="A108" s="129" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" s="130"/>
+      <c r="C108" s="130"/>
+      <c r="D108" s="130"/>
+      <c r="E108" s="130"/>
+      <c r="F108" s="131"/>
+      <c r="G108" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="L108" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M108" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N108" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N108" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O108" s="21" t="str">
+        <v>5</v>
+      </c>
+      <c r="O108" s="21">
         <f>IF(H108="I",N108*Contagem!$U$11,IF(H108="E",N108*Contagem!$U$13,IF(H108="A",N108*Contagem!$U$12,IF(H108="T",N108*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P108" s="126"/>
-      <c r="Q108" s="127"/>
-      <c r="R108" s="127"/>
-      <c r="S108" s="127"/>
-      <c r="T108" s="127"/>
+        <v>5</v>
+      </c>
+      <c r="P108" s="132"/>
+      <c r="Q108" s="133"/>
+      <c r="R108" s="133"/>
+      <c r="S108" s="133"/>
+      <c r="T108" s="133"/>
     </row>
     <row r="109" spans="1:20" ht="18" customHeight="1">
-      <c r="A109" s="123"/>
-      <c r="B109" s="124"/>
-      <c r="C109" s="124"/>
-      <c r="D109" s="124"/>
-      <c r="E109" s="124"/>
-      <c r="F109" s="125"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="23"/>
+      <c r="A109" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="130"/>
+      <c r="C109" s="130"/>
+      <c r="D109" s="130"/>
+      <c r="E109" s="130"/>
+      <c r="F109" s="131"/>
+      <c r="G109" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L109" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M109" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N109" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N109" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O109" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O109" s="21">
         <f>IF(H109="I",N109*Contagem!$U$11,IF(H109="E",N109*Contagem!$U$13,IF(H109="A",N109*Contagem!$U$12,IF(H109="T",N109*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P109" s="126"/>
-      <c r="Q109" s="127"/>
-      <c r="R109" s="127"/>
-      <c r="S109" s="127"/>
-      <c r="T109" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P109" s="132"/>
+      <c r="Q109" s="133"/>
+      <c r="R109" s="133"/>
+      <c r="S109" s="133"/>
+      <c r="T109" s="133"/>
     </row>
     <row r="110" spans="1:20" ht="18" customHeight="1">
-      <c r="A110" s="123"/>
-      <c r="B110" s="124"/>
-      <c r="C110" s="124"/>
-      <c r="D110" s="124"/>
-      <c r="E110" s="124"/>
-      <c r="F110" s="125"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="23"/>
+      <c r="A110" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" s="130"/>
+      <c r="C110" s="130"/>
+      <c r="D110" s="130"/>
+      <c r="E110" s="130"/>
+      <c r="F110" s="131"/>
+      <c r="G110" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="L110" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M110" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N110" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N110" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O110" s="21" t="str">
+        <v>5</v>
+      </c>
+      <c r="O110" s="21">
         <f>IF(H110="I",N110*Contagem!$U$11,IF(H110="E",N110*Contagem!$U$13,IF(H110="A",N110*Contagem!$U$12,IF(H110="T",N110*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P110" s="126"/>
-      <c r="Q110" s="127"/>
-      <c r="R110" s="127"/>
-      <c r="S110" s="127"/>
-      <c r="T110" s="127"/>
+        <v>5</v>
+      </c>
+      <c r="P110" s="132"/>
+      <c r="Q110" s="133"/>
+      <c r="R110" s="133"/>
+      <c r="S110" s="133"/>
+      <c r="T110" s="133"/>
     </row>
     <row r="111" spans="1:20" ht="18" customHeight="1">
-      <c r="A111" s="123"/>
-      <c r="B111" s="124"/>
-      <c r="C111" s="124"/>
-      <c r="D111" s="124"/>
-      <c r="E111" s="124"/>
-      <c r="F111" s="125"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="23"/>
+      <c r="A111" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" s="130"/>
+      <c r="C111" s="130"/>
+      <c r="D111" s="130"/>
+      <c r="E111" s="130"/>
+      <c r="F111" s="131"/>
+      <c r="G111" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>CEA</v>
       </c>
       <c r="L111" s="18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M111" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N111" s="20" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N111" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O111" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="O111" s="21">
         <f>IF(H111="I",N111*Contagem!$U$11,IF(H111="E",N111*Contagem!$U$13,IF(H111="A",N111*Contagem!$U$12,IF(H111="T",N111*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-      <c r="P111" s="126"/>
-      <c r="Q111" s="127"/>
-      <c r="R111" s="127"/>
-      <c r="S111" s="127"/>
-      <c r="T111" s="127"/>
+        <v>4</v>
+      </c>
+      <c r="P111" s="132"/>
+      <c r="Q111" s="133"/>
+      <c r="R111" s="133"/>
+      <c r="S111" s="133"/>
+      <c r="T111" s="133"/>
     </row>
     <row r="112" spans="1:20" ht="18" customHeight="1">
-      <c r="A112" s="123"/>
-      <c r="B112" s="124"/>
-      <c r="C112" s="124"/>
-      <c r="D112" s="124"/>
-      <c r="E112" s="124"/>
-      <c r="F112" s="125"/>
+      <c r="A112" s="129"/>
+      <c r="B112" s="130"/>
+      <c r="C112" s="130"/>
+      <c r="D112" s="130"/>
+      <c r="E112" s="130"/>
+      <c r="F112" s="131"/>
       <c r="G112" s="17"/>
       <c r="H112" s="23"/>
       <c r="I112" s="17"/>
@@ -11320,19 +12083,19 @@
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P112" s="126"/>
-      <c r="Q112" s="127"/>
-      <c r="R112" s="127"/>
-      <c r="S112" s="127"/>
-      <c r="T112" s="127"/>
+      <c r="P112" s="132"/>
+      <c r="Q112" s="133"/>
+      <c r="R112" s="133"/>
+      <c r="S112" s="133"/>
+      <c r="T112" s="133"/>
     </row>
     <row r="113" spans="1:20" ht="18" customHeight="1">
-      <c r="A113" s="123"/>
-      <c r="B113" s="124"/>
-      <c r="C113" s="124"/>
-      <c r="D113" s="124"/>
-      <c r="E113" s="124"/>
-      <c r="F113" s="125"/>
+      <c r="A113" s="129"/>
+      <c r="B113" s="130"/>
+      <c r="C113" s="130"/>
+      <c r="D113" s="130"/>
+      <c r="E113" s="130"/>
+      <c r="F113" s="131"/>
       <c r="G113" s="17"/>
       <c r="H113" s="23"/>
       <c r="I113" s="17"/>
@@ -11357,19 +12120,19 @@
         <f>IF(H113="I",N113*Contagem!$U$11,IF(H113="E",N113*Contagem!$U$13,IF(H113="A",N113*Contagem!$U$12,IF(H113="T",N113*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P113" s="126"/>
-      <c r="Q113" s="127"/>
-      <c r="R113" s="127"/>
-      <c r="S113" s="127"/>
-      <c r="T113" s="127"/>
+      <c r="P113" s="132"/>
+      <c r="Q113" s="133"/>
+      <c r="R113" s="133"/>
+      <c r="S113" s="133"/>
+      <c r="T113" s="133"/>
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
-      <c r="A114" s="123"/>
-      <c r="B114" s="124"/>
-      <c r="C114" s="124"/>
-      <c r="D114" s="124"/>
-      <c r="E114" s="124"/>
-      <c r="F114" s="125"/>
+      <c r="A114" s="129"/>
+      <c r="B114" s="130"/>
+      <c r="C114" s="130"/>
+      <c r="D114" s="130"/>
+      <c r="E114" s="130"/>
+      <c r="F114" s="131"/>
       <c r="G114" s="17"/>
       <c r="H114" s="23"/>
       <c r="I114" s="17"/>
@@ -11394,19 +12157,19 @@
         <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P114" s="126"/>
-      <c r="Q114" s="127"/>
-      <c r="R114" s="127"/>
-      <c r="S114" s="127"/>
-      <c r="T114" s="127"/>
+      <c r="P114" s="132"/>
+      <c r="Q114" s="133"/>
+      <c r="R114" s="133"/>
+      <c r="S114" s="133"/>
+      <c r="T114" s="133"/>
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
-      <c r="A115" s="123"/>
-      <c r="B115" s="124"/>
-      <c r="C115" s="124"/>
-      <c r="D115" s="124"/>
-      <c r="E115" s="124"/>
-      <c r="F115" s="125"/>
+      <c r="A115" s="129"/>
+      <c r="B115" s="130"/>
+      <c r="C115" s="130"/>
+      <c r="D115" s="130"/>
+      <c r="E115" s="130"/>
+      <c r="F115" s="131"/>
       <c r="G115" s="17"/>
       <c r="H115" s="23"/>
       <c r="I115" s="17"/>
@@ -11431,19 +12194,19 @@
         <f>IF(H115="I",N115*Contagem!$U$11,IF(H115="E",N115*Contagem!$U$13,IF(H115="A",N115*Contagem!$U$12,IF(H115="T",N115*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P115" s="126"/>
-      <c r="Q115" s="127"/>
-      <c r="R115" s="127"/>
-      <c r="S115" s="127"/>
-      <c r="T115" s="127"/>
+      <c r="P115" s="132"/>
+      <c r="Q115" s="133"/>
+      <c r="R115" s="133"/>
+      <c r="S115" s="133"/>
+      <c r="T115" s="133"/>
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
-      <c r="A116" s="123"/>
-      <c r="B116" s="124"/>
-      <c r="C116" s="124"/>
-      <c r="D116" s="124"/>
-      <c r="E116" s="124"/>
-      <c r="F116" s="125"/>
+      <c r="A116" s="129"/>
+      <c r="B116" s="130"/>
+      <c r="C116" s="130"/>
+      <c r="D116" s="130"/>
+      <c r="E116" s="130"/>
+      <c r="F116" s="131"/>
       <c r="G116" s="17"/>
       <c r="H116" s="23"/>
       <c r="I116" s="17"/>
@@ -11468,19 +12231,19 @@
         <f>IF(H116="I",N116*Contagem!$U$11,IF(H116="E",N116*Contagem!$U$13,IF(H116="A",N116*Contagem!$U$12,IF(H116="T",N116*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P116" s="126"/>
-      <c r="Q116" s="127"/>
-      <c r="R116" s="127"/>
-      <c r="S116" s="127"/>
-      <c r="T116" s="127"/>
+      <c r="P116" s="132"/>
+      <c r="Q116" s="133"/>
+      <c r="R116" s="133"/>
+      <c r="S116" s="133"/>
+      <c r="T116" s="133"/>
     </row>
     <row r="117" spans="1:20" ht="18" customHeight="1">
-      <c r="A117" s="123"/>
-      <c r="B117" s="124"/>
-      <c r="C117" s="124"/>
-      <c r="D117" s="124"/>
-      <c r="E117" s="124"/>
-      <c r="F117" s="125"/>
+      <c r="A117" s="129"/>
+      <c r="B117" s="130"/>
+      <c r="C117" s="130"/>
+      <c r="D117" s="130"/>
+      <c r="E117" s="130"/>
+      <c r="F117" s="131"/>
       <c r="G117" s="17"/>
       <c r="H117" s="23"/>
       <c r="I117" s="17"/>
@@ -11505,19 +12268,19 @@
         <f>IF(H117="I",N117*Contagem!$U$11,IF(H117="E",N117*Contagem!$U$13,IF(H117="A",N117*Contagem!$U$12,IF(H117="T",N117*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P117" s="126"/>
-      <c r="Q117" s="127"/>
-      <c r="R117" s="127"/>
-      <c r="S117" s="127"/>
-      <c r="T117" s="127"/>
+      <c r="P117" s="132"/>
+      <c r="Q117" s="133"/>
+      <c r="R117" s="133"/>
+      <c r="S117" s="133"/>
+      <c r="T117" s="133"/>
     </row>
     <row r="118" spans="1:20" ht="18" customHeight="1">
-      <c r="A118" s="123"/>
-      <c r="B118" s="124"/>
-      <c r="C118" s="124"/>
-      <c r="D118" s="124"/>
-      <c r="E118" s="124"/>
-      <c r="F118" s="125"/>
+      <c r="A118" s="129"/>
+      <c r="B118" s="130"/>
+      <c r="C118" s="130"/>
+      <c r="D118" s="130"/>
+      <c r="E118" s="130"/>
+      <c r="F118" s="131"/>
       <c r="G118" s="17"/>
       <c r="H118" s="23"/>
       <c r="I118" s="17"/>
@@ -11542,19 +12305,19 @@
         <f>IF(H118="I",N118*Contagem!$U$11,IF(H118="E",N118*Contagem!$U$13,IF(H118="A",N118*Contagem!$U$12,IF(H118="T",N118*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P118" s="126"/>
-      <c r="Q118" s="127"/>
-      <c r="R118" s="127"/>
-      <c r="S118" s="127"/>
-      <c r="T118" s="127"/>
+      <c r="P118" s="132"/>
+      <c r="Q118" s="133"/>
+      <c r="R118" s="133"/>
+      <c r="S118" s="133"/>
+      <c r="T118" s="133"/>
     </row>
     <row r="119" spans="1:20" ht="18" customHeight="1">
-      <c r="A119" s="123"/>
-      <c r="B119" s="124"/>
-      <c r="C119" s="124"/>
-      <c r="D119" s="124"/>
-      <c r="E119" s="124"/>
-      <c r="F119" s="125"/>
+      <c r="A119" s="129"/>
+      <c r="B119" s="130"/>
+      <c r="C119" s="130"/>
+      <c r="D119" s="130"/>
+      <c r="E119" s="130"/>
+      <c r="F119" s="131"/>
       <c r="G119" s="17"/>
       <c r="H119" s="23"/>
       <c r="I119" s="17"/>
@@ -11579,19 +12342,19 @@
         <f>IF(H119="I",N119*Contagem!$U$11,IF(H119="E",N119*Contagem!$U$13,IF(H119="A",N119*Contagem!$U$12,IF(H119="T",N119*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P119" s="126"/>
-      <c r="Q119" s="127"/>
-      <c r="R119" s="127"/>
-      <c r="S119" s="127"/>
-      <c r="T119" s="127"/>
+      <c r="P119" s="132"/>
+      <c r="Q119" s="133"/>
+      <c r="R119" s="133"/>
+      <c r="S119" s="133"/>
+      <c r="T119" s="133"/>
     </row>
     <row r="120" spans="1:20" ht="18" customHeight="1">
-      <c r="A120" s="123"/>
-      <c r="B120" s="124"/>
-      <c r="C120" s="124"/>
-      <c r="D120" s="124"/>
-      <c r="E120" s="124"/>
-      <c r="F120" s="125"/>
+      <c r="A120" s="129"/>
+      <c r="B120" s="130"/>
+      <c r="C120" s="130"/>
+      <c r="D120" s="130"/>
+      <c r="E120" s="130"/>
+      <c r="F120" s="131"/>
       <c r="G120" s="17"/>
       <c r="H120" s="23"/>
       <c r="I120" s="17"/>
@@ -11616,19 +12379,19 @@
         <f>IF(H120="I",N120*Contagem!$U$11,IF(H120="E",N120*Contagem!$U$13,IF(H120="A",N120*Contagem!$U$12,IF(H120="T",N120*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P120" s="126"/>
-      <c r="Q120" s="127"/>
-      <c r="R120" s="127"/>
-      <c r="S120" s="127"/>
-      <c r="T120" s="127"/>
+      <c r="P120" s="132"/>
+      <c r="Q120" s="133"/>
+      <c r="R120" s="133"/>
+      <c r="S120" s="133"/>
+      <c r="T120" s="133"/>
     </row>
     <row r="121" spans="1:20" ht="18" customHeight="1">
-      <c r="A121" s="123"/>
-      <c r="B121" s="124"/>
-      <c r="C121" s="124"/>
-      <c r="D121" s="124"/>
-      <c r="E121" s="124"/>
-      <c r="F121" s="125"/>
+      <c r="A121" s="129"/>
+      <c r="B121" s="130"/>
+      <c r="C121" s="130"/>
+      <c r="D121" s="130"/>
+      <c r="E121" s="130"/>
+      <c r="F121" s="131"/>
       <c r="G121" s="17"/>
       <c r="H121" s="23"/>
       <c r="I121" s="17"/>
@@ -11653,19 +12416,19 @@
         <f>IF(H121="I",N121*Contagem!$U$11,IF(H121="E",N121*Contagem!$U$13,IF(H121="A",N121*Contagem!$U$12,IF(H121="T",N121*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P121" s="126"/>
-      <c r="Q121" s="127"/>
-      <c r="R121" s="127"/>
-      <c r="S121" s="127"/>
-      <c r="T121" s="127"/>
+      <c r="P121" s="132"/>
+      <c r="Q121" s="133"/>
+      <c r="R121" s="133"/>
+      <c r="S121" s="133"/>
+      <c r="T121" s="133"/>
     </row>
     <row r="122" spans="1:20" ht="18" customHeight="1">
-      <c r="A122" s="123"/>
-      <c r="B122" s="124"/>
-      <c r="C122" s="124"/>
-      <c r="D122" s="124"/>
-      <c r="E122" s="124"/>
-      <c r="F122" s="125"/>
+      <c r="A122" s="129"/>
+      <c r="B122" s="130"/>
+      <c r="C122" s="130"/>
+      <c r="D122" s="130"/>
+      <c r="E122" s="130"/>
+      <c r="F122" s="131"/>
       <c r="G122" s="17"/>
       <c r="H122" s="23"/>
       <c r="I122" s="17"/>
@@ -11690,19 +12453,19 @@
         <f>IF(H122="I",N122*Contagem!$U$11,IF(H122="E",N122*Contagem!$U$13,IF(H122="A",N122*Contagem!$U$12,IF(H122="T",N122*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P122" s="126"/>
-      <c r="Q122" s="127"/>
-      <c r="R122" s="127"/>
-      <c r="S122" s="127"/>
-      <c r="T122" s="127"/>
+      <c r="P122" s="132"/>
+      <c r="Q122" s="133"/>
+      <c r="R122" s="133"/>
+      <c r="S122" s="133"/>
+      <c r="T122" s="133"/>
     </row>
     <row r="123" spans="1:20" ht="18" customHeight="1">
-      <c r="A123" s="123"/>
-      <c r="B123" s="124"/>
-      <c r="C123" s="124"/>
-      <c r="D123" s="124"/>
-      <c r="E123" s="124"/>
-      <c r="F123" s="125"/>
+      <c r="A123" s="129"/>
+      <c r="B123" s="130"/>
+      <c r="C123" s="130"/>
+      <c r="D123" s="130"/>
+      <c r="E123" s="130"/>
+      <c r="F123" s="131"/>
       <c r="G123" s="17"/>
       <c r="H123" s="23"/>
       <c r="I123" s="17"/>
@@ -11727,19 +12490,19 @@
         <f>IF(H123="I",N123*Contagem!$U$11,IF(H123="E",N123*Contagem!$U$13,IF(H123="A",N123*Contagem!$U$12,IF(H123="T",N123*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P123" s="126"/>
-      <c r="Q123" s="127"/>
-      <c r="R123" s="127"/>
-      <c r="S123" s="127"/>
-      <c r="T123" s="127"/>
+      <c r="P123" s="132"/>
+      <c r="Q123" s="133"/>
+      <c r="R123" s="133"/>
+      <c r="S123" s="133"/>
+      <c r="T123" s="133"/>
     </row>
     <row r="124" spans="1:20" ht="18" customHeight="1">
-      <c r="A124" s="24"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="25"/>
+      <c r="A124" s="129"/>
+      <c r="B124" s="130"/>
+      <c r="C124" s="130"/>
+      <c r="D124" s="130"/>
+      <c r="E124" s="130"/>
+      <c r="F124" s="131"/>
       <c r="G124" s="17"/>
       <c r="H124" s="23"/>
       <c r="I124" s="17"/>
@@ -11764,77 +12527,179 @@
         <f>IF(H124="I",N124*Contagem!$U$11,IF(H124="E",N124*Contagem!$U$13,IF(H124="A",N124*Contagem!$U$12,IF(H124="T",N124*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P124" s="126"/>
-      <c r="Q124" s="127"/>
-      <c r="R124" s="127"/>
-      <c r="S124" s="127"/>
-      <c r="T124" s="127"/>
+      <c r="P124" s="132"/>
+      <c r="Q124" s="133"/>
+      <c r="R124" s="133"/>
+      <c r="S124" s="133"/>
+      <c r="T124" s="133"/>
+    </row>
+    <row r="125" spans="1:20" ht="18" customHeight="1">
+      <c r="A125" s="24"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L125" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M125" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N125" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O125" s="21" t="str">
+        <f>IF(H125="I",N125*Contagem!$U$11,IF(H125="E",N125*Contagem!$U$13,IF(H125="A",N125*Contagem!$U$12,IF(H125="T",N125*Contagem!$U$14,""))))</f>
+        <v/>
+      </c>
+      <c r="P125" s="132"/>
+      <c r="Q125" s="133"/>
+      <c r="R125" s="133"/>
+      <c r="S125" s="133"/>
+      <c r="T125" s="133"/>
     </row>
   </sheetData>
-  <mergeCells count="218">
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="P100:T100"/>
+  <mergeCells count="214">
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="P121:T121"/>
+    <mergeCell ref="P122:T122"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="P81:T81"/>
     <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="P104:T104"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="P124:T124"/>
+    <mergeCell ref="P125:T125"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="P118:T118"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="P123:T123"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G5:T5"/>
     <mergeCell ref="P25:T25"/>
     <mergeCell ref="P34:T34"/>
     <mergeCell ref="P26:T26"/>
@@ -11859,165 +12724,111 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="P24:T24"/>
     <mergeCell ref="P23:T23"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="P123:T123"/>
-    <mergeCell ref="P124:T124"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="P118:T118"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="P108:T108"/>
     <mergeCell ref="P109:T109"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="P113:T113"/>
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="P122:T122"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:F94"/>
     <mergeCell ref="P89:T89"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="P120:T120"/>
-    <mergeCell ref="P121:T121"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="P99:T99"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="P104:T104"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
   </mergeCells>
-  <conditionalFormatting sqref="H37:H42 H28:H34 H44:H50 H52:H57 H8:H26 H59:H67 H69:H75 H77:H84 H86:H124">
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
+  <conditionalFormatting sqref="H37:H42 H28:H34 H44:H50 H8:H26 H60:H68 H70:H76 H78:H85 H87:H93 H52:H58 H95:H102 H104:H125">
+    <cfRule type="cellIs" dxfId="95" priority="64" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:H42 H28:H34 H44:H50 H52:H57 H8:H26 H59:H67 H69:H75 H77:H84 H86:H124">
-    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
+  <conditionalFormatting sqref="H37:H42 H28:H34 H44:H50 H8:H26 H60:H68 H70:H76 H78:H85 H87:H93 H52:H58 H95:H102 H104:H125">
+    <cfRule type="cellIs" dxfId="94" priority="65" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:H42 H28:H34 H44:H50 H52:H57 H8:H26 H59:H67 H69:H75 H77:H84 H86:H124">
-    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
+  <conditionalFormatting sqref="H37:H42 H28:H34 H44:H50 H8:H26 H60:H68 H70:H76 H78:H85 H87:H93 H52:H58 H95:H102 H104:H125">
+    <cfRule type="cellIs" dxfId="93" priority="66" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="61" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="62" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="63" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="63" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="86" priority="52" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="85" priority="53" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="84" priority="54" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12027,117 +12838,132 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="29" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="59" priority="22" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="58" priority="23" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="57" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="26" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
+  <conditionalFormatting sqref="I51">
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
+  <conditionalFormatting sqref="I51">
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
+  <conditionalFormatting sqref="I51">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="45" priority="14" operator="equal">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="cellIs" dxfId="36" priority="17" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+  <conditionalFormatting sqref="I69">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+  <conditionalFormatting sqref="I69">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+  <conditionalFormatting sqref="I69">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+  <conditionalFormatting sqref="I77">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+  <conditionalFormatting sqref="I77">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+  <conditionalFormatting sqref="I77">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="I86">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="I86">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="I86">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12173,20 +12999,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="154"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="158"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
       <c r="A2" s="135"/>
@@ -12200,10 +13026,10 @@
       <c r="I2" s="109"/>
       <c r="J2" s="109"/>
       <c r="K2" s="109"/>
-      <c r="L2" s="155"/>
+      <c r="L2" s="159"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="156"/>
+      <c r="A3" s="160"/>
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
       <c r="D3" s="112"/>
@@ -12214,47 +13040,47 @@
       <c r="I3" s="112"/>
       <c r="J3" s="112"/>
       <c r="K3" s="112"/>
-      <c r="L3" s="157"/>
+      <c r="L3" s="161"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="147" t="str">
+      <c r="A4" s="166" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Siscei</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="150" t="str">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="154" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v>Projeto : Siscei</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="151"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="155"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="147" t="str">
+      <c r="A5" s="166" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Felipe Nami</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="150" t="str">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="154" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="151"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="155"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="26" t="str">
@@ -12265,47 +13091,47 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="149" t="str">
+      <c r="F6" s="153" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 0</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="149" t="str">
+      <c r="G6" s="116"/>
+      <c r="H6" s="153" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 0,00</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="160" t="str">
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="164" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 338</v>
-      </c>
-      <c r="L6" s="151"/>
+        <v>PF  = 425</v>
+      </c>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="165" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="106"/>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="162" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="106"/>
       <c r="E7" s="106"/>
       <c r="F7" s="106"/>
-      <c r="G7" s="148" t="s">
+      <c r="G7" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148" t="s">
+      <c r="H7" s="152"/>
+      <c r="I7" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="159"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="159"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="163"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="156"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="112"/>
       <c r="C8" s="112"/>
       <c r="D8" s="112"/>
@@ -12314,9 +13140,9 @@
       <c r="G8" s="112"/>
       <c r="H8" s="112"/>
       <c r="I8" s="112"/>
-      <c r="J8" s="157"/>
+      <c r="J8" s="161"/>
       <c r="K8" s="112"/>
-      <c r="L8" s="157"/>
+      <c r="L8" s="161"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="29"/>
@@ -12363,7 +13189,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="33">
         <f>COUNTIF(CF,"EEA")</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="34" t="s">
@@ -12374,7 +13200,7 @@
       </c>
       <c r="G11" s="35">
         <f>C11*4</f>
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="36"/>
@@ -12427,7 +13253,7 @@
       </c>
       <c r="C14" s="35">
         <f>SUM(C10:C12)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -12436,12 +13262,12 @@
       </c>
       <c r="G14" s="35">
         <f>SUM(G10:G12)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="40">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.35502958579881655</v>
+        <v>0.33882352941176469</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -12482,7 +13308,7 @@
       </c>
       <c r="C17" s="33">
         <f>COUNTIF(CF,"SEL")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="34" t="s">
@@ -12493,7 +13319,7 @@
       </c>
       <c r="G17" s="35">
         <f>C17*4</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -12506,7 +13332,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="33">
         <f>COUNTIF(CF,"SEA")</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="34" t="s">
@@ -12517,7 +13343,7 @@
       </c>
       <c r="G18" s="35">
         <f>C18*5</f>
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -12570,7 +13396,7 @@
       </c>
       <c r="C21" s="35">
         <f>SUM(C17:C19)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -12579,12 +13405,12 @@
       </c>
       <c r="G21" s="35">
         <f>SUM(G17:G19)</f>
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="43">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>0.15976331360946747</v>
+        <v>0.2752941176470588</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -12625,7 +13451,7 @@
       </c>
       <c r="C24" s="33">
         <f>COUNTIF(CF,"CEL")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="34" t="s">
@@ -12636,7 +13462,7 @@
       </c>
       <c r="G24" s="35">
         <f>C24*3</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -12649,7 +13475,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="33">
         <f>COUNTIF(CF,"CEA")</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="34" t="s">
@@ -12660,7 +13486,7 @@
       </c>
       <c r="G25" s="35">
         <f>C25*4</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -12713,7 +13539,7 @@
       </c>
       <c r="C28" s="35">
         <f>SUM(C24:C26)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -12722,12 +13548,12 @@
       </c>
       <c r="G28" s="35">
         <f>SUM(G24:G26)</f>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="44">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.26331360946745563</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -12768,7 +13594,7 @@
       </c>
       <c r="C31" s="33">
         <f>COUNTIF(CF,"ALIL")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
@@ -12779,7 +13605,7 @@
       </c>
       <c r="G31" s="35">
         <f>C31*7</f>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -12856,7 +13682,7 @@
       </c>
       <c r="C35" s="35">
         <f>SUM(C31:C33)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -12865,12 +13691,12 @@
       </c>
       <c r="G35" s="35">
         <f>SUM(G31:G33)</f>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="45">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.20710059171597633</v>
+        <v>0.1976470588235294</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -13013,7 +13839,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="46">
         <f>IF($G$45&lt;&gt;0,G42/$G$45,"")</f>
-        <v>1.4792899408284023E-2</v>
+        <v>1.1764705882352941E-2</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -13058,7 +13884,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="35">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -13077,7 +13903,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="35">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -13096,7 +13922,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="35">
         <f>(C31+C32+C33)*35+(C38+C39+C40)*15</f>
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -13212,14 +14038,14 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="146" t="s">
+      <c r="B55" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="100"/>
-      <c r="D55" s="102"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="48">
-        <f>SUMIF(Funções!$H$8:$H$124,"I",Funções!$N$8:$N$124)</f>
-        <v>338</v>
+        <f>SUMIF(Funções!$H$8:$H$125,"I",Funções!$N$8:$N$125)</f>
+        <v>425</v>
       </c>
       <c r="F55" s="48">
         <f>Contagem!U11</f>
@@ -13227,7 +14053,7 @@
       </c>
       <c r="G55" s="48">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
@@ -13239,13 +14065,13 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="100"/>
-      <c r="D56" s="102"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="48">
-        <f>SUMIF(Funções!$H$8:$H$124,"A",Funções!$N$8:$N$124)</f>
+        <f>SUMIF(Funções!$H$8:$H$125,"A",Funções!$N$8:$N$125)</f>
         <v>0</v>
       </c>
       <c r="F56" s="48">
@@ -13261,19 +14087,19 @@
       <c r="J56" s="49"/>
       <c r="K56" s="51">
         <f>Contagem!W5</f>
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="100"/>
-      <c r="D57" s="102"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="48">
-        <f>SUMIF(Funções!$H$8:$H$124,"E",Funções!$N$8:$N$124)</f>
+        <f>SUMIF(Funções!$H$8:$H$125,"E",Funções!$N$8:$N$125)</f>
         <v>0</v>
       </c>
       <c r="F57" s="48">
@@ -13292,13 +14118,13 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="146" t="s">
+      <c r="B58" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="100"/>
-      <c r="D58" s="102"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="48">
-        <f>SUMIF(Funções!$H$8:$H$124,"T",Funções!$N$8:$N$124)</f>
+        <f>SUMIF(Funções!$H$8:$H$125,"T",Funções!$N$8:$N$125)</f>
         <v>0</v>
       </c>
       <c r="F58" s="48">
@@ -13331,6 +14157,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F4:L4"/>
@@ -13344,11 +14175,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
